--- a/docs/Products.xlsx
+++ b/docs/Products.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cats" sheetId="1" r:id="rId1"/>
     <sheet name="Prds" sheetId="2" r:id="rId2"/>
-    <sheet name="ProdCats" sheetId="3" r:id="rId3"/>
+    <sheet name="PDesc" sheetId="5" r:id="rId3"/>
+    <sheet name="ProdCats" sheetId="3" r:id="rId4"/>
+    <sheet name="CSQL" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="212">
   <si>
     <t>Categories</t>
   </si>
@@ -370,49 +372,307 @@
     <t>SoundLink on-ear carry case</t>
   </si>
   <si>
-    <t>Accesory Type</t>
-  </si>
-  <si>
-    <t>Cables and Cords</t>
-  </si>
-  <si>
-    <t>Carry Cases</t>
-  </si>
-  <si>
-    <t>Chargers and Adapters</t>
-  </si>
-  <si>
-    <t>Eartips/Aircushion</t>
-  </si>
-  <si>
-    <t>Compatible With</t>
-  </si>
-  <si>
-    <t>Conversation enhancing headphones</t>
-  </si>
-  <si>
-    <t>In-ear headphones</t>
-  </si>
-  <si>
-    <t>Noise cancelling headphones</t>
-  </si>
-  <si>
-    <t>Noise-masking sleepbuds</t>
-  </si>
-  <si>
-    <t>Over-ear headphones</t>
-  </si>
-  <si>
-    <t>Sports headphones</t>
-  </si>
-  <si>
-    <t>Wireless headphones</t>
-  </si>
-  <si>
     <t>catalog</t>
   </si>
   <si>
     <t>filter</t>
+  </si>
+  <si>
+    <t>SoundLink Color Bluetooth speaker II</t>
+  </si>
+  <si>
+    <t>SoundLink Revolve+ Bluetooth speaker</t>
+  </si>
+  <si>
+    <t>SoundLink Micro Bluetooth speaker</t>
+  </si>
+  <si>
+    <t>SoundLink Mini Bluetooth speaker II</t>
+  </si>
+  <si>
+    <t>BOSEbuild Speaker Cube</t>
+  </si>
+  <si>
+    <t>SoundLink Revolve Bluetooth speaker</t>
+  </si>
+  <si>
+    <t>S1 Pro system</t>
+  </si>
+  <si>
+    <t>Bose Home Speaker 500</t>
+  </si>
+  <si>
+    <t>Bose Soundbar 700</t>
+  </si>
+  <si>
+    <t>Bose Soundbar 500</t>
+  </si>
+  <si>
+    <t>Bose Surround Speakers</t>
+  </si>
+  <si>
+    <t>Bose Bass Module 700</t>
+  </si>
+  <si>
+    <t>Bose Bass Module 500</t>
+  </si>
+  <si>
+    <t>SoundTouch 10 wireless speaker</t>
+  </si>
+  <si>
+    <t>SoundTouch 20 wireless speaker</t>
+  </si>
+  <si>
+    <t>SoundTouch 30 wireless speaker</t>
+  </si>
+  <si>
+    <t>SoundTouch Wireless Link adapter</t>
+  </si>
+  <si>
+    <t>SoundTouch SA-5 amplifier</t>
+  </si>
+  <si>
+    <t>SoundTouch outdoor wireless system with 251 speakers</t>
+  </si>
+  <si>
+    <t>Bose Solo 5 TV sound system</t>
+  </si>
+  <si>
+    <t>Acoustimass 10 home theater speaker system</t>
+  </si>
+  <si>
+    <t>Lifestyle 650 home entertainment system</t>
+  </si>
+  <si>
+    <t>Lifestyle 600 home entertainment system</t>
+  </si>
+  <si>
+    <t>SoundTouch 300 soundbar</t>
+  </si>
+  <si>
+    <t>Wave system IV</t>
+  </si>
+  <si>
+    <t>Wave SoundTouch music system IV</t>
+  </si>
+  <si>
+    <t>Companion 2 computer speakers</t>
+  </si>
+  <si>
+    <t>Acoustimass 5 stereo speaker system</t>
+  </si>
+  <si>
+    <t>301 bookshelf speakers</t>
+  </si>
+  <si>
+    <t>Companion 20 computer speakers</t>
+  </si>
+  <si>
+    <t>151 outdoor speakers</t>
+  </si>
+  <si>
+    <t>161 bookshelf speakers</t>
+  </si>
+  <si>
+    <t>791 in-ceiling speakers II</t>
+  </si>
+  <si>
+    <t>Free Space 51 outdoor speakers</t>
+  </si>
+  <si>
+    <t>251 outdoor speakers</t>
+  </si>
+  <si>
+    <t>201 bookshelf speakers</t>
+  </si>
+  <si>
+    <t>891 in-wall speakers</t>
+  </si>
+  <si>
+    <t>591 in-ceiling speakers</t>
+  </si>
+  <si>
+    <t>691 in-wall speakers</t>
+  </si>
+  <si>
+    <t>L1 Compact system</t>
+  </si>
+  <si>
+    <t>F1 Model 812 loudspeaker with F1 Subwoofer</t>
+  </si>
+  <si>
+    <t>F1 Model 812 Flexible Array loudspeaker</t>
+  </si>
+  <si>
+    <t>L1 II system/B2 bass</t>
+  </si>
+  <si>
+    <t>L1 Compact Wireless package</t>
+  </si>
+  <si>
+    <t>T4S ToneMatch mixer</t>
+  </si>
+  <si>
+    <t>T8S ToneMatch mixer</t>
+  </si>
+  <si>
+    <t>F1 Subwoofer</t>
+  </si>
+  <si>
+    <t>L1 1S system/B2 bass</t>
+  </si>
+  <si>
+    <t>L1 1S system/B1 bass</t>
+  </si>
+  <si>
+    <t>L1 II system/B1 bass</t>
+  </si>
+  <si>
+    <t>Two F1 Model 812 loudspeakers with F1 Subwoofer</t>
+  </si>
+  <si>
+    <t>SoundLink Revolve charging cradle</t>
+  </si>
+  <si>
+    <t>Bose Soundbar Wall Bracket</t>
+  </si>
+  <si>
+    <t>Bose Soundbar Universal Remote</t>
+  </si>
+  <si>
+    <t>SoundXtra TV stand for SoundTouch 300</t>
+  </si>
+  <si>
+    <t>S1 Pro Slip Cover</t>
+  </si>
+  <si>
+    <t>S1 Pro Backpack</t>
+  </si>
+  <si>
+    <t>SoundXtra floor stand for SoundTouch 20</t>
+  </si>
+  <si>
+    <t>Wave FM antenna</t>
+  </si>
+  <si>
+    <t>RC-PWS III universal remote</t>
+  </si>
+  <si>
+    <t>UB-20 II wall/ceiling bracket</t>
+  </si>
+  <si>
+    <t>UFS-20 II floorstands</t>
+  </si>
+  <si>
+    <t>SoundWear Companion cover</t>
+  </si>
+  <si>
+    <t>Speaker wire adapter kot</t>
+  </si>
+  <si>
+    <t>B1 bass module</t>
+  </si>
+  <si>
+    <t>SlideConnect wall bracket</t>
+  </si>
+  <si>
+    <t>WB-300 wall bracket</t>
+  </si>
+  <si>
+    <t>WB-120 wall-mount kit</t>
+  </si>
+  <si>
+    <t>L1 Compact microphone accessory pack</t>
+  </si>
+  <si>
+    <t>SoundLink Mini travel bag</t>
+  </si>
+  <si>
+    <t>UTS-20 II table stand</t>
+  </si>
+  <si>
+    <t>CineMate speaker wire adapter kit</t>
+  </si>
+  <si>
+    <t>B1/B2 4-pin cable</t>
+  </si>
+  <si>
+    <t>SoundXtra TV mount for SoundTouch 300</t>
+  </si>
+  <si>
+    <t>SoundLink speaker III cover</t>
+  </si>
+  <si>
+    <t>PackLite A1 power amplifier</t>
+  </si>
+  <si>
+    <t>WB-3 bookshelf speaker wall brackets</t>
+  </si>
+  <si>
+    <t>B2 bass module</t>
+  </si>
+  <si>
+    <t>ToneMatch mixer power supply</t>
+  </si>
+  <si>
+    <t>SoundLink Revolve and Soundlink Revolve+ wall adapter</t>
+  </si>
+  <si>
+    <t>FS-01 bookshelf speaker floorstands</t>
+  </si>
+  <si>
+    <t>Home theater speaker extension cable</t>
+  </si>
+  <si>
+    <t>Lifestyle 600/650 home entertainment system remote control</t>
+  </si>
+  <si>
+    <t>SoundTouch II remote</t>
+  </si>
+  <si>
+    <t>OmniJewel center channel wire adapter</t>
+  </si>
+  <si>
+    <t>SoundXtra wall mount for SoundTouch 10</t>
+  </si>
+  <si>
+    <t>791 in-ceiling speakers II rough-in kit</t>
+  </si>
+  <si>
+    <t>WB-135 wall mount kit</t>
+  </si>
+  <si>
+    <t>CineMate home theater system-Interface Module</t>
+  </si>
+  <si>
+    <t>F1 Model 812 travel bag</t>
+  </si>
+  <si>
+    <t>891 in-wall speakers rough-in kit</t>
+  </si>
+  <si>
+    <t>SoundXtra floor stand for SoundTouch 10</t>
+  </si>
+  <si>
+    <t>SoundXtra floor stand for SoundTouch 30</t>
+  </si>
+  <si>
+    <t>dct_orice</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>INSERT INTO product(id,name,slug,org_price,dct_price,qty,description) VALUES</t>
   </si>
 </sst>
 </file>
@@ -448,8 +708,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -801,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C34" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B4)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
+        <f t="shared" ref="C4:C20" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B4)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>speakers</v>
       </c>
       <c r="E4">
@@ -1128,7 +1391,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1152,7 +1415,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1176,7 +1439,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1196,304 +1459,6 @@
       </c>
       <c r="G20" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>accesory-type</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>cables-and-cords</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>carry-cases</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>chargers-and-adapters</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>eartips-aircushion</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>compatible-with</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>aviation-headsets</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>conversation-enhancing-headphones</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>in-ear-headphones</v>
-      </c>
-      <c r="D29">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>noise-cancelling-headphones</v>
-      </c>
-      <c r="D30">
-        <v>25</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>noise-masking-sleepbuds</v>
-      </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>over-ear-headphones</v>
-      </c>
-      <c r="D32">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>sports-headphones</v>
-      </c>
-      <c r="D33">
-        <v>25</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>wireless-headphones</v>
-      </c>
-      <c r="D34">
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1504,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,15 +1481,16 @@
     <col min="2" max="3" width="56.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1538,10 +1504,13 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1558,8 +1527,12 @@
       <c r="E3">
         <v>299.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>IF(ISBLANK(E3),"NULL",E3)</f>
+        <v>299.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1567,14 +1540,18 @@
         <v>46</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ref="C4:C67" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B4)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
+        <f t="shared" ref="C4:C160" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B4)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
         <v>custom-quietcomfort-35-wireless-headphones-ii</v>
       </c>
       <c r="D4">
         <v>399.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F67" si="1">IF(ISBLANK(E4),"NULL",E4)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1588,8 +1565,12 @@
       <c r="D5">
         <v>179.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1603,8 +1584,12 @@
       <c r="D6">
         <v>299.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1618,8 +1603,12 @@
       <c r="D7">
         <v>249.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1633,8 +1622,12 @@
       <c r="D8">
         <v>249.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1651,8 +1644,12 @@
       <c r="E9">
         <v>169.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>169.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1666,8 +1663,12 @@
       <c r="D10">
         <v>149.94999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1684,8 +1685,12 @@
       <c r="E11">
         <v>199.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>199.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1702,8 +1707,12 @@
       <c r="E12">
         <v>249.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>249.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1717,8 +1726,12 @@
       <c r="D13">
         <v>179.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1732,8 +1745,12 @@
       <c r="D14">
         <v>199.95</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1750,8 +1767,12 @@
       <c r="E15">
         <v>119.95</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>119.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1765,8 +1786,12 @@
       <c r="D16">
         <v>99.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1780,8 +1805,12 @@
       <c r="D17">
         <v>99.95</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1795,8 +1824,12 @@
       <c r="D18">
         <v>999.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1810,8 +1843,12 @@
       <c r="D19">
         <v>999.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1825,8 +1862,12 @@
       <c r="D20">
         <v>249.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1840,8 +1881,12 @@
       <c r="D21">
         <v>499.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1855,8 +1900,12 @@
       <c r="D22">
         <v>31.95</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1870,8 +1919,12 @@
       <c r="D23">
         <v>24.95</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1885,8 +1938,12 @@
       <c r="D24">
         <v>295.95</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1900,8 +1957,12 @@
       <c r="D25">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1915,8 +1976,12 @@
       <c r="D26">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1930,8 +1995,12 @@
       <c r="D27">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1945,8 +2014,12 @@
       <c r="D28">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1960,8 +2033,12 @@
       <c r="D29">
         <v>295.95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1975,8 +2052,12 @@
       <c r="D30">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1990,8 +2071,12 @@
       <c r="D31">
         <v>295.95</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2005,8 +2090,12 @@
       <c r="D32">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2020,8 +2109,12 @@
       <c r="D33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2035,8 +2128,12 @@
       <c r="D34">
         <v>24.95</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2050,8 +2147,12 @@
       <c r="D35">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2065,8 +2166,12 @@
       <c r="D36">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2080,8 +2185,12 @@
       <c r="D37">
         <v>34.950000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2095,8 +2204,12 @@
       <c r="D38">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2110,8 +2223,12 @@
       <c r="D39">
         <v>49.95</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2125,8 +2242,12 @@
       <c r="D40">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2140,8 +2261,12 @@
       <c r="D41">
         <v>34.950000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2155,8 +2280,12 @@
       <c r="D42">
         <v>29.95</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2170,8 +2299,12 @@
       <c r="D43">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2185,8 +2318,12 @@
       <c r="D44">
         <v>24.95</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2200,8 +2337,12 @@
       <c r="D45">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2215,8 +2356,12 @@
       <c r="D46">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2230,8 +2375,12 @@
       <c r="D47">
         <v>49.95</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2245,8 +2394,12 @@
       <c r="D48">
         <v>24.95</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2260,8 +2413,12 @@
       <c r="D49">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2275,8 +2432,12 @@
       <c r="D50">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2290,8 +2451,12 @@
       <c r="D51">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2305,8 +2470,12 @@
       <c r="D52">
         <v>29.95</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2320,8 +2489,12 @@
       <c r="D53">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2335,8 +2508,12 @@
       <c r="D54">
         <v>29.95</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2350,8 +2527,12 @@
       <c r="D55">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2365,8 +2546,12 @@
       <c r="D56">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2380,8 +2565,12 @@
       <c r="D57">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2395,8 +2584,12 @@
       <c r="D58">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2410,8 +2603,12 @@
       <c r="D59">
         <v>14.95</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2425,8 +2622,12 @@
       <c r="D60">
         <v>19.95</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2440,8 +2641,12 @@
       <c r="D61">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2455,8 +2660,12 @@
       <c r="D62">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2470,8 +2679,12 @@
       <c r="D63">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2485,8 +2698,12 @@
       <c r="D64">
         <v>59.95</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2500,8 +2717,12 @@
       <c r="D65">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2515,8 +2736,12 @@
       <c r="D66">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2529,6 +2754,1923 @@
       </c>
       <c r="D67">
         <v>19.989999999999998</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-color-bluetooth-speaker-ii</v>
+      </c>
+      <c r="D68">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F131" si="2">IF(ISBLANK(E68),"NULL",E68)</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-revolveplus-bluetooth-speaker</v>
+      </c>
+      <c r="D69">
+        <v>299.95</v>
+      </c>
+      <c r="E69">
+        <v>269.95</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>269.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-micro-bluetooth-speaker</v>
+      </c>
+      <c r="D70">
+        <v>99.95</v>
+      </c>
+      <c r="E70">
+        <v>79.95</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-mini-bluetooth-speaker-ii</v>
+      </c>
+      <c r="D71">
+        <v>199.95</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="0"/>
+        <v>bosebuild-speaker-cube</v>
+      </c>
+      <c r="D72">
+        <v>99.95</v>
+      </c>
+      <c r="E72">
+        <v>69.95</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>69.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-revolve-bluetooth-speaker</v>
+      </c>
+      <c r="D73">
+        <v>199.95</v>
+      </c>
+      <c r="E73">
+        <v>179.95</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>179.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="0"/>
+        <v>s1-pro-system</v>
+      </c>
+      <c r="D74">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-home-speaker-500</v>
+      </c>
+      <c r="D75">
+        <v>399.95</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-soundbar-700</v>
+      </c>
+      <c r="D76">
+        <v>799.95</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-soundbar-500</v>
+      </c>
+      <c r="D77">
+        <v>549.95000000000005</v>
+      </c>
+      <c r="E77">
+        <v>499.95</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>499.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-surround-speakers</v>
+      </c>
+      <c r="D78">
+        <v>299.95</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-bass-module-700</v>
+      </c>
+      <c r="D79">
+        <v>699.95</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-bass-module-500</v>
+      </c>
+      <c r="D80">
+        <v>399.95</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-10-wireless-speaker</v>
+      </c>
+      <c r="D81">
+        <v>199.95</v>
+      </c>
+      <c r="E81">
+        <v>169.95</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>169.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-20-wireless-speaker</v>
+      </c>
+      <c r="D82">
+        <v>349.95</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-30-wireless-speaker</v>
+      </c>
+      <c r="D83">
+        <v>499.95</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-wireless-link-adapter</v>
+      </c>
+      <c r="D84">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-sa-5-amplifier</v>
+      </c>
+      <c r="D85">
+        <v>499.95</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-outdoor-wireless-system-with-251-speakers</v>
+      </c>
+      <c r="D86">
+        <v>898.95</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-solo-5-tv-sound-system</v>
+      </c>
+      <c r="D87">
+        <v>249.95</v>
+      </c>
+      <c r="E87">
+        <v>199.95</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>199.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="0"/>
+        <v>acoustimass-10-home-theater-speaker-system</v>
+      </c>
+      <c r="D88">
+        <v>999.95</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="0"/>
+        <v>lifestyle-650-home-entertainment-system</v>
+      </c>
+      <c r="D89">
+        <v>3999.95</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="0"/>
+        <v>lifestyle-600-home-entertainment-system</v>
+      </c>
+      <c r="D90">
+        <v>2999.95</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-300-soundbar</v>
+      </c>
+      <c r="D91">
+        <v>699.95</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="0"/>
+        <v>wave-system-iv</v>
+      </c>
+      <c r="D92">
+        <v>499.95</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="0"/>
+        <v>wave-soundtouch-music-system-iv</v>
+      </c>
+      <c r="D93">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="0"/>
+        <v>companion-2-computer-speakers</v>
+      </c>
+      <c r="D94">
+        <v>99.95</v>
+      </c>
+      <c r="E94">
+        <v>89.95</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>89.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="0"/>
+        <v>acoustimass-5-stereo-speaker-system</v>
+      </c>
+      <c r="D95">
+        <v>399.95</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="0"/>
+        <v>301-bookshelf-speakers</v>
+      </c>
+      <c r="D96">
+        <v>328.95</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="0"/>
+        <v>companion-20-computer-speakers</v>
+      </c>
+      <c r="D97">
+        <v>249.95</v>
+      </c>
+      <c r="E97">
+        <v>224.95</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>224.95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="0"/>
+        <v>151-outdoor-speakers</v>
+      </c>
+      <c r="D98">
+        <v>278.95</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="0"/>
+        <v>161-bookshelf-speakers</v>
+      </c>
+      <c r="D99">
+        <v>158.94999999999999</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="0"/>
+        <v>791-in-ceiling-speakers-ii</v>
+      </c>
+      <c r="D100">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="0"/>
+        <v>free-space-51-outdoor-speakers</v>
+      </c>
+      <c r="D101">
+        <v>449.95</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="0"/>
+        <v>251-outdoor-speakers</v>
+      </c>
+      <c r="D102">
+        <v>398.95</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="0"/>
+        <v>201-bookshelf-speakers</v>
+      </c>
+      <c r="D103">
+        <v>218.95</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="0"/>
+        <v>891-in-wall-speakers</v>
+      </c>
+      <c r="D104">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="0"/>
+        <v>591-in-ceiling-speakers</v>
+      </c>
+      <c r="D105">
+        <v>449.95</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="0"/>
+        <v>691-in-wall-speakers</v>
+      </c>
+      <c r="D106">
+        <v>449.95</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>155</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="0"/>
+        <v>l1-compact-system</v>
+      </c>
+      <c r="D107">
+        <v>849.95</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="0"/>
+        <v>f1-model-812-loudspeaker-with-f1-subwoofer</v>
+      </c>
+      <c r="D108">
+        <v>2399.9</v>
+      </c>
+      <c r="E108">
+        <v>2039.91</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>2039.91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="0"/>
+        <v>f1-model-812-flexible-array-loudspeaker</v>
+      </c>
+      <c r="D109">
+        <v>1199.95</v>
+      </c>
+      <c r="E109">
+        <v>1019.96</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>1019.96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="0"/>
+        <v>l1-ii-system-b2-bass</v>
+      </c>
+      <c r="D110">
+        <v>2699.95</v>
+      </c>
+      <c r="E110">
+        <v>2294.96</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="2"/>
+        <v>2294.96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="0"/>
+        <v>l1-compact-wireless-package</v>
+      </c>
+      <c r="D111">
+        <v>1099.95</v>
+      </c>
+      <c r="E111">
+        <v>934.96</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="2"/>
+        <v>934.96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="0"/>
+        <v>t4s-tonematch-mixer</v>
+      </c>
+      <c r="D112">
+        <v>599.95000000000005</v>
+      </c>
+      <c r="E112">
+        <v>509.95</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="2"/>
+        <v>509.95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="0"/>
+        <v>t8s-tonematch-mixer</v>
+      </c>
+      <c r="D113">
+        <v>899.95</v>
+      </c>
+      <c r="E113">
+        <v>764.95</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="2"/>
+        <v>764.95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="0"/>
+        <v>f1-subwoofer</v>
+      </c>
+      <c r="D114">
+        <v>1199.95</v>
+      </c>
+      <c r="E114">
+        <v>1019.96</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="2"/>
+        <v>1019.96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>163</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="0"/>
+        <v>l1-1s-system-b2-bass</v>
+      </c>
+      <c r="D115">
+        <v>1999.95</v>
+      </c>
+      <c r="E115">
+        <v>1699.96</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="2"/>
+        <v>1699.96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="0"/>
+        <v>l1-1s-system-b1-bass</v>
+      </c>
+      <c r="D116">
+        <v>1799.95</v>
+      </c>
+      <c r="E116">
+        <v>1529.96</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="2"/>
+        <v>1529.96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="0"/>
+        <v>l1-ii-system-b1-bass</v>
+      </c>
+      <c r="D117">
+        <v>2499.9499999999998</v>
+      </c>
+      <c r="E117">
+        <v>2124.96</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="2"/>
+        <v>2124.96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>166</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="0"/>
+        <v>two-f1-model-812-loudspeakers-with-f1-subwoofer</v>
+      </c>
+      <c r="D118">
+        <v>3599.95</v>
+      </c>
+      <c r="E118">
+        <v>3057.87</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="2"/>
+        <v>3057.87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-revolve-charging-cradle</v>
+      </c>
+      <c r="D119">
+        <v>29.95</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-soundbar-wall-bracket</v>
+      </c>
+      <c r="D120">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="0"/>
+        <v>bose-soundbar-universal-remote</v>
+      </c>
+      <c r="D121">
+        <v>49.95</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="0"/>
+        <v>soundxtra-tv-stand-for-soundtouch-300</v>
+      </c>
+      <c r="D122">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="0"/>
+        <v>s1-pro-slip-cover</v>
+      </c>
+      <c r="D123">
+        <v>29.95</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="0"/>
+        <v>s1-pro-backpack</v>
+      </c>
+      <c r="D124">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="0"/>
+        <v>soundxtra-floor-stand-for-soundtouch-20</v>
+      </c>
+      <c r="D125">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="0"/>
+        <v>wave-fm-antenna</v>
+      </c>
+      <c r="D126">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="0"/>
+        <v>rc-pws-iii-universal-remote</v>
+      </c>
+      <c r="D127">
+        <v>29.95</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="0"/>
+        <v>ub-20-ii-wall-ceiling-bracket</v>
+      </c>
+      <c r="D128">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="0"/>
+        <v>ufs-20-ii-floorstands</v>
+      </c>
+      <c r="D129">
+        <v>119.95</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="0"/>
+        <v>soundwear-companion-cover</v>
+      </c>
+      <c r="D130">
+        <v>29.95</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>179</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="0"/>
+        <v>speaker-wire-adapter-kot</v>
+      </c>
+      <c r="D131">
+        <v>39.99</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="2"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="0"/>
+        <v>b1-bass-module</v>
+      </c>
+      <c r="D132">
+        <v>299.95</v>
+      </c>
+      <c r="E132">
+        <v>254.96</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ref="F132:F160" si="3">IF(ISBLANK(E132),"NULL",E132)</f>
+        <v>254.96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="0"/>
+        <v>slideconnect-wall-bracket</v>
+      </c>
+      <c r="D133">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="0"/>
+        <v>wb-300-wall-bracket</v>
+      </c>
+      <c r="D134">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>183</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="0"/>
+        <v>wb-120-wall-mount-kit</v>
+      </c>
+      <c r="D135">
+        <v>24.95</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="0"/>
+        <v>l1-compact-microphone-accessory-pack</v>
+      </c>
+      <c r="D136">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-mini-travel-bag</v>
+      </c>
+      <c r="D137">
+        <v>44.95</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="0"/>
+        <v>uts-20-ii-table-stand</v>
+      </c>
+      <c r="D138">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="0"/>
+        <v>cinemate-speaker-wire-adapter-kit</v>
+      </c>
+      <c r="D139">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="0"/>
+        <v>b1-b2-4-pin-cable</v>
+      </c>
+      <c r="D140">
+        <v>29.99</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="0"/>
+        <v>soundxtra-tv-mount-for-soundtouch-300</v>
+      </c>
+      <c r="D141">
+        <v>119.95</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-speaker-iii-cover</v>
+      </c>
+      <c r="D142">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="0"/>
+        <v>packlite-a1-power-amplifier</v>
+      </c>
+      <c r="D143">
+        <v>399.95</v>
+      </c>
+      <c r="E143">
+        <v>339.95</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="3"/>
+        <v>339.95</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="0"/>
+        <v>wb-3-bookshelf-speaker-wall-brackets</v>
+      </c>
+      <c r="D144">
+        <v>19.98</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="0"/>
+        <v>b2-bass-module</v>
+      </c>
+      <c r="D145">
+        <v>424.96</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="0"/>
+        <v>tonematch-mixer-power-supply</v>
+      </c>
+      <c r="D146">
+        <v>50.95</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="0"/>
+        <v>soundlink-revolve-and-soundlink-revolveplus-wall-adapter</v>
+      </c>
+      <c r="D147">
+        <v>24.95</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>196</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="0"/>
+        <v>fs-01-bookshelf-speaker-floorstands</v>
+      </c>
+      <c r="D148">
+        <v>89.98</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="0"/>
+        <v>home-theater-speaker-extension-cable</v>
+      </c>
+      <c r="D149">
+        <v>14.95</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>198</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="0"/>
+        <v>lifestyle-600-650-home-entertainment-system-remote-control</v>
+      </c>
+      <c r="D150">
+        <v>99.95</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>199</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="0"/>
+        <v>soundtouch-ii-remote</v>
+      </c>
+      <c r="D151">
+        <v>14.95</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="0"/>
+        <v>omnijewel-center-channel-wire-adapter</v>
+      </c>
+      <c r="D152">
+        <v>5.95</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>201</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="0"/>
+        <v>soundxtra-wall-mount-for-soundtouch-10</v>
+      </c>
+      <c r="D153">
+        <v>44.95</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>202</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="0"/>
+        <v>791-in-ceiling-speakers-ii-rough-in-kit</v>
+      </c>
+      <c r="D154">
+        <v>64.95</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="0"/>
+        <v>wb-135-wall-mount-kit</v>
+      </c>
+      <c r="D155">
+        <v>49.95</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>204</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="0"/>
+        <v>cinemate-home-theater-system-interface-module</v>
+      </c>
+      <c r="D156">
+        <v>79.95</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>205</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="0"/>
+        <v>f1-model-812-travel-bag</v>
+      </c>
+      <c r="D157">
+        <v>139</v>
+      </c>
+      <c r="E157">
+        <v>118.15</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="3"/>
+        <v>118.15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="0"/>
+        <v>891-in-wall-speakers-rough-in-kit</v>
+      </c>
+      <c r="D158">
+        <v>64.95</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="0"/>
+        <v>soundxtra-floor-stand-for-soundtouch-10</v>
+      </c>
+      <c r="D159">
+        <v>99.95</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="0"/>
+        <v>soundxtra-floor-stand-for-soundtouch-30</v>
+      </c>
+      <c r="D160">
+        <v>169.95</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="3"/>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="136.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="375" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2536,12 +4678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,7 +4691,7 @@
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(A2,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A2,Prds!$A$3:$G$198,2)</f>
         <v>QuietComfort 35 wireless headphones II</v>
       </c>
       <c r="C2">
@@ -2587,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A3,Prds!$A$3:$G$198,2)</f>
         <v>Custom QuietComfort 35 wireless headphones II</v>
       </c>
       <c r="C3">
@@ -2603,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A4,Prds!$A$3:$G$198,2)</f>
         <v>QC25 noise cancelling headphones Apple devices</v>
       </c>
       <c r="C4">
@@ -2619,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(A5,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A5,Prds!$A$3:$G$198,2)</f>
         <v>QuietControl 30 wireless headphones</v>
       </c>
       <c r="C5">
@@ -2635,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(A6,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A6,Prds!$A$3:$G$198,2)</f>
         <v>QC20 noise cancelling headphones Apple devices</v>
       </c>
       <c r="C6">
@@ -2651,7 +4793,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(A7,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A7,Prds!$A$3:$G$198,2)</f>
         <v>QC20 noise cancelling headphones Samsung/Android devices</v>
       </c>
       <c r="C7">
@@ -2667,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(A8,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A8,Prds!$A$3:$G$198,2)</f>
         <v>QuietComfort 35 wireless headphones II</v>
       </c>
       <c r="C8">
@@ -2683,7 +4825,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(A9,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A9,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport Free wireless headphones</v>
       </c>
       <c r="C9">
@@ -2699,7 +4841,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(A10,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A10,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport wireless headphones</v>
       </c>
       <c r="C10">
@@ -2715,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="str">
-        <f>VLOOKUP(A11,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A11,Prds!$A$3:$G$198,2)</f>
         <v>Custom QuietComfort 35 wireless headphones II</v>
       </c>
       <c r="C11">
@@ -2731,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="str">
-        <f>VLOOKUP(A12,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A12,Prds!$A$3:$G$198,2)</f>
         <v>QC25 noise cancelling headphones Apple devices</v>
       </c>
       <c r="C12">
@@ -2747,7 +4889,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="str">
-        <f>VLOOKUP(A13,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A13,Prds!$A$3:$G$198,2)</f>
         <v>SoundLink around-ear wireless headphones II</v>
       </c>
       <c r="C13">
@@ -2763,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="str">
-        <f>VLOOKUP(A14,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A14,Prds!$A$3:$G$198,2)</f>
         <v>QuietControl 30 wireless headphones</v>
       </c>
       <c r="C14">
@@ -2779,7 +4921,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="str">
-        <f>VLOOKUP(A15,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A15,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport Pulse wireless headphones</v>
       </c>
       <c r="C15">
@@ -2795,7 +4937,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="str">
-        <f>VLOOKUP(A16,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A16,Prds!$A$3:$G$198,2)</f>
         <v>BOSEbuild Headphones</v>
       </c>
       <c r="C16">
@@ -2811,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="str">
-        <f>VLOOKUP(A17,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A17,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport Free wireless headphones</v>
       </c>
       <c r="C17">
@@ -2827,7 +4969,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="str">
-        <f>VLOOKUP(A18,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A18,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport wireless headphones</v>
       </c>
       <c r="C18">
@@ -2843,7 +4985,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="str">
-        <f>VLOOKUP(A19,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A19,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport in-ear headphones Apple devices</v>
       </c>
       <c r="C19">
@@ -2859,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="str">
-        <f>VLOOKUP(A20,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A20,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport Pulse wireless headphones</v>
       </c>
       <c r="C20">
@@ -2875,7 +5017,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="str">
-        <f>VLOOKUP(A21,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A21,Prds!$A$3:$G$198,2)</f>
         <v>SoundSport in-ear headphones Samsung/Android devices</v>
       </c>
       <c r="C21">
@@ -2891,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="str">
-        <f>VLOOKUP(A22,Prds!$A$3:$F$37,2)</f>
+        <f>VLOOKUP(A22,Prds!$A$3:$G$198,2)</f>
         <v>SoundWear Companion speaker</v>
       </c>
       <c r="C22">
@@ -2903,73 +5045,4809 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="e">
-        <f>VLOOKUP(A23,Prds!$A$3:$F$37,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" t="e">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight accessory kit</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="str">
         <f>VLOOKUP(C23,Cats!$A$3:$G$20,2)</f>
-        <v>#N/A</v>
+        <v>Headset Accesories</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="e">
-        <f>VLOOKUP(A24,Prds!$A$3:$F$37,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" t="e">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight carry case</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="str">
         <f>VLOOKUP(C24,Cats!$A$3:$G$20,2)</f>
-        <v>#N/A</v>
+        <v>Headset Accesories</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="e">
-        <f>VLOOKUP(A25,Prds!$A$3:$F$37,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" t="e">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight Headset cable, 5-pin XLR</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="str">
         <f>VLOOKUP(C25,Cats!$A$3:$G$20,2)</f>
-        <v>#N/A</v>
+        <v>Headset Accesories</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="e">
-        <f>VLOOKUP(A26,Prds!$A$3:$F$37,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" t="e">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight control module lanyard</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="str">
         <f>VLOOKUP(C26,Cats!$A$3:$G$20,2)</f>
-        <v>#N/A</v>
+        <v>Headset Accesories</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="e">
-        <f>VLOOKUP(A27,Prds!$A$3:$F$37,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" t="e">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight termination cap</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="str">
         <f>VLOOKUP(C27,Cats!$A$3:$G$20,2)</f>
-        <v>#N/A</v>
+        <v>Headset Accesories</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="e">
-        <f>VLOOKUP(A28,Prds!$A$3:$F$37,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" t="e">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight microphone windscreen</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="str">
         <f>VLOOKUP(C28,Cats!$A$3:$G$20,2)</f>
-        <v>#N/A</v>
+        <v>Headset Accesories</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="e">
-        <f>VLOOKUP(A29,Prds!$A$3:$F$37,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" t="e">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight headband pad</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="str">
         <f>VLOOKUP(C29,Cats!$A$3:$G$20,2)</f>
-        <v>#N/A</v>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight Headset cable, 6-pin Lemo</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(C30,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight side cushions</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(C31,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,Prds!$A$3:$G$198,2)</f>
+        <v>ProFlight Headset cable, dual plugs</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(C32,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,Prds!$A$3:$G$198,2)</f>
+        <v>StayHear+ Sleep tips (2 pairs)</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(C33,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="str">
+        <f>VLOOKUP(A34,Prds!$A$3:$G$198,2)</f>
+        <v>QuietComfort 15 and 2 headphones ear cushion kit</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(C34,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="str">
+        <f>VLOOKUP(A35,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink on-ear cushion kit</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(C35,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="str">
+        <f>VLOOKUP(A36,Prds!$A$3:$G$198,2)</f>
+        <v>StayHear+ Sport tips (2 pairs)</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(C36,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="str">
+        <f>VLOOKUP(A37,Prds!$A$3:$G$198,2)</f>
+        <v>QC airline adapter</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(C37,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="str">
+        <f>VLOOKUP(A38,Prds!$A$3:$G$198,2)</f>
+        <v>QC35 ear cushion kit</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(C38,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="str">
+        <f>VLOOKUP(A39,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink wireless headphones II audio cable</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(C39,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="str">
+        <f>VLOOKUP(A40,Prds!$A$3:$G$198,2)</f>
+        <v>SoundSport charging case</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(C40,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="str">
+        <f>VLOOKUP(A41,Prds!$A$3:$G$198,2)</f>
+        <v>StayHear tips (2 pr)</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="str">
+        <f>VLOOKUP(A42,Prds!$A$3:$G$198,2)</f>
+        <v>QC25 ear cushion kit</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="str">
+        <f>VLOOKUP(A43,Prds!$A$3:$G$198,2)</f>
+        <v>QC25 inline mic/remote Samsung and Android devices</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(C43,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="str">
+        <f>VLOOKUP(A44,Prds!$A$3:$G$198,2)</f>
+        <v>USB cable</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(C44,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="str">
+        <f>VLOOKUP(A45,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink wireless headphones II ear cushion kit</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(C45,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="str">
+        <f>VLOOKUP(A46,Prds!$A$3:$G$198,2)</f>
+        <v>SoundSport wireless headphones carry case</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(C46,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="str">
+        <f>VLOOKUP(A47,Prds!$A$3:$G$198,2)</f>
+        <v>SoundSport wireless headphones clothing clip</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(C47,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="str">
+        <f>VLOOKUP(A48,Prds!$A$3:$G$198,2)</f>
+        <v>SoundSport Free portable charging case</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(C48,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="str">
+        <f>VLOOKUP(A49,Prds!$A$3:$G$198,2)</f>
+        <v>QC35 carry case</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(C49,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="str">
+        <f>VLOOKUP(A50,Prds!$A$3:$G$198,2)</f>
+        <v>QC20 headphones clothing clip</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(C50,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="str">
+        <f>VLOOKUP(A51,Prds!$A$3:$G$198,2)</f>
+        <v>Wall charger plus international adapters</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VLOOKUP(A52,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink on-ear audio cable</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(C52,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VLOOKUP(A53,Prds!$A$3:$G$198,2)</f>
+        <v>QC25 inline mic/remote Apple devices</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(C53,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="str">
+        <f>VLOOKUP(A54,Prds!$A$3:$G$198,2)</f>
+        <v>QuietComfort 15 audio cable</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="str">
+        <f>VLOOKUP(A55,Prds!$A$3:$G$198,2)</f>
+        <v>A20 ear cushions</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="str">
+        <f>VLOOKUP(A56,Prds!$A$3:$G$198,2)</f>
+        <v>AE2 headphones replacement audio cable</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(C56,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="str">
+        <f>VLOOKUP(A57,Prds!$A$3:$G$198,2)</f>
+        <v>StayHear+ tips (2 pr)</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(C57,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="str">
+        <f>VLOOKUP(A58,Prds!$A$3:$G$198,2)</f>
+        <v>QuietControl Stayhear+ tips (2 pairs)</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(C58,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="str">
+        <f>VLOOKUP(A59,Prds!$A$3:$G$198,2)</f>
+        <v>QuietComfort 3 ear cushion kit</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(C59,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="str">
+        <f>VLOOKUP(A60,Prds!$A$3:$G$198,2)</f>
+        <v>QC20 carry case</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(C60,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="str">
+        <f>VLOOKUP(A61,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink wireless headphones II carry case</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(C61,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="str">
+        <f>VLOOKUP(A62,Prds!$A$3:$G$198,2)</f>
+        <v>StayHear Ultra tips (2 pr)</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(C62,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="str">
+        <f>VLOOKUP(A63,Prds!$A$3:$G$198,2)</f>
+        <v xml:space="preserve">SoundSport Pulse Stayhear+ tips (2 pairs) </v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(C63,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="str">
+        <f>VLOOKUP(A64,Prds!$A$3:$G$198,2)</f>
+        <v>QuietComfort 3 audio cable</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(C64,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="str">
+        <f>VLOOKUP(A65,Prds!$A$3:$G$198,2)</f>
+        <v>6-pin to dual G/A plug adapter</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(C65,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="str">
+        <f>VLOOKUP(A66,Prds!$A$3:$G$198,2)</f>
+        <v>SoundSport carry case</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(C66,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="str">
+        <f>VLOOKUP(A67,Prds!$A$3:$G$198,2)</f>
+        <v>A20 Headset high impedance microphone windscreen</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(C67,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="str">
+        <f>VLOOKUP(A68,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink on-ear carry case</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(C68,Cats!$A$3:$G$20,2)</f>
+        <v>Headset Accesories</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="str">
+        <f>VLOOKUP(A69,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Color Bluetooth speaker II</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(C69,Cats!$A$3:$G$20,2)</f>
+        <v>Portable</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="str">
+        <f>VLOOKUP(A70,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Revolve+ Bluetooth speaker</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(C70,Cats!$A$3:$G$20,2)</f>
+        <v>Portable</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="str">
+        <f>VLOOKUP(A71,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Micro Bluetooth speaker</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(C71,Cats!$A$3:$G$20,2)</f>
+        <v>Portable</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="str">
+        <f>VLOOKUP(A72,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Mini Bluetooth speaker II</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(C72,Cats!$A$3:$G$20,2)</f>
+        <v>Portable</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="str">
+        <f>VLOOKUP(A73,Prds!$A$3:$G$198,2)</f>
+        <v>BOSEbuild Speaker Cube</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(C73,Cats!$A$3:$G$20,2)</f>
+        <v>Portable</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="str">
+        <f>VLOOKUP(A74,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Revolve Bluetooth speaker</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(C74,Cats!$A$3:$G$20,2)</f>
+        <v>Portable</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="str">
+        <f>VLOOKUP(A75,Prds!$A$3:$G$198,2)</f>
+        <v>S1 Pro system</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(C75,Cats!$A$3:$G$20,2)</f>
+        <v>Portable</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="str">
+        <f>VLOOKUP(A76,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Home Speaker 500</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(C76,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="str">
+        <f>VLOOKUP(A77,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Soundbar 700</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(C77,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="str">
+        <f>VLOOKUP(A78,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Soundbar 500</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(C78,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="str">
+        <f>VLOOKUP(A79,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Surround Speakers</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(C79,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="str">
+        <f>VLOOKUP(A80,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Bass Module 700</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(C80,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="str">
+        <f>VLOOKUP(A81,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Bass Module 500</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(C81,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="str">
+        <f>VLOOKUP(A82,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch 10 wireless speaker</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(C82,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="str">
+        <f>VLOOKUP(A83,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch 20 wireless speaker</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(C83,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="str">
+        <f>VLOOKUP(A84,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch 30 wireless speaker</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(C84,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="str">
+        <f>VLOOKUP(A85,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch Wireless Link adapter</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(C85,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="str">
+        <f>VLOOKUP(A86,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch SA-5 amplifier</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(C86,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="str">
+        <f>VLOOKUP(A87,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch outdoor wireless system with 251 speakers</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(C87,Cats!$A$3:$G$20,2)</f>
+        <v>Smart Home</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>74</v>
+      </c>
+      <c r="B88" t="str">
+        <f>VLOOKUP(A88,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Soundbar 700</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(C88,Cats!$A$3:$G$20,2)</f>
+        <v>Home Theater</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>75</v>
+      </c>
+      <c r="B89" t="str">
+        <f>VLOOKUP(A89,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Soundbar 500</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(C89,Cats!$A$3:$G$20,2)</f>
+        <v>Home Theater</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>76</v>
+      </c>
+      <c r="B90" t="str">
+        <f>VLOOKUP(A90,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Surround Speakers</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90" t="str">
+        <f>VLOOKUP(C90,Cats!$A$3:$G$20,2)</f>
+        <v>Home Theater</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>77</v>
+      </c>
+      <c r="B91" t="str">
+        <f>VLOOKUP(A91,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Bass Module 700</v>
+      </c>
+      <c r="C91">
+        <v>13</v>
+      </c>
+      <c r="D91" t="str">
+        <f>VLOOKUP(C91,Cats!$A$3:$G$20,2)</f>
+        <v>Home Theater</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>78</v>
+      </c>
+      <c r="B92" t="str">
+        <f>VLOOKUP(A92,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Bass Module 500</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(C92,Cats!$A$3:$G$20,2)</f>
+        <v>Home Theater</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="str">
+        <f>VLOOKUP(A93,Prds!$A$3:$G$198,2)</f>
+        <v>Wave system IV</v>
+      </c>
+      <c r="C93">
+        <v>13</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(C93,Cats!$A$3:$G$20,2)</f>
+        <v>Home Theater</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="str">
+        <f>VLOOKUP(A94,Prds!$A$3:$G$198,2)</f>
+        <v>Wave SoundTouch music system IV</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+      <c r="D94" t="str">
+        <f>VLOOKUP(C94,Cats!$A$3:$G$20,2)</f>
+        <v>Home Theater</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="str">
+        <f>VLOOKUP(A95,Prds!$A$3:$G$198,2)</f>
+        <v>Companion 2 computer speakers</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(C95,Cats!$A$3:$G$20,2)</f>
+        <v>Wave</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="str">
+        <f>VLOOKUP(A96,Prds!$A$3:$G$198,2)</f>
+        <v>Acoustimass 5 stereo speaker system</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="D96" t="str">
+        <f>VLOOKUP(C96,Cats!$A$3:$G$20,2)</f>
+        <v>Wave</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="str">
+        <f>VLOOKUP(A97,Prds!$A$3:$G$198,2)</f>
+        <v>301 bookshelf speakers</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="D97" t="str">
+        <f>VLOOKUP(C97,Cats!$A$3:$G$20,2)</f>
+        <v>Wave</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>83</v>
+      </c>
+      <c r="B98" t="str">
+        <f>VLOOKUP(A98,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch SA-5 amplifier</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98" t="str">
+        <f>VLOOKUP(C98,Cats!$A$3:$G$20,2)</f>
+        <v>Wave</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="str">
+        <f>VLOOKUP(A99,Prds!$A$3:$G$198,2)</f>
+        <v>Companion 20 computer speakers</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99" t="str">
+        <f>VLOOKUP(C99,Cats!$A$3:$G$20,2)</f>
+        <v>Wave</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="str">
+        <f>VLOOKUP(A100,Prds!$A$3:$G$198,2)</f>
+        <v>151 outdoor speakers</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+      <c r="D100" t="str">
+        <f>VLOOKUP(C100,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="str">
+        <f>VLOOKUP(A101,Prds!$A$3:$G$198,2)</f>
+        <v>161 bookshelf speakers</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101" t="str">
+        <f>VLOOKUP(C101,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="str">
+        <f>VLOOKUP(A102,Prds!$A$3:$G$198,2)</f>
+        <v>791 in-ceiling speakers II</v>
+      </c>
+      <c r="C102">
+        <v>15</v>
+      </c>
+      <c r="D102" t="str">
+        <f>VLOOKUP(C102,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="str">
+        <f>VLOOKUP(A103,Prds!$A$3:$G$198,2)</f>
+        <v>Free Space 51 outdoor speakers</v>
+      </c>
+      <c r="C103">
+        <v>15</v>
+      </c>
+      <c r="D103" t="str">
+        <f>VLOOKUP(C103,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="str">
+        <f>VLOOKUP(A104,Prds!$A$3:$G$198,2)</f>
+        <v>251 outdoor speakers</v>
+      </c>
+      <c r="C104">
+        <v>15</v>
+      </c>
+      <c r="D104" t="str">
+        <f>VLOOKUP(C104,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="str">
+        <f>VLOOKUP(A105,Prds!$A$3:$G$198,2)</f>
+        <v>251 outdoor speakers</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+      <c r="D105" t="str">
+        <f>VLOOKUP(C105,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>84</v>
+      </c>
+      <c r="B106" t="str">
+        <f>VLOOKUP(A106,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch outdoor wireless system with 251 speakers</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106" t="str">
+        <f>VLOOKUP(C106,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>103</v>
+      </c>
+      <c r="B107" t="str">
+        <f>VLOOKUP(A107,Prds!$A$3:$G$198,2)</f>
+        <v>201 bookshelf speakers</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107" t="str">
+        <f>VLOOKUP(C107,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>104</v>
+      </c>
+      <c r="B108" t="str">
+        <f>VLOOKUP(A108,Prds!$A$3:$G$198,2)</f>
+        <v>891 in-wall speakers</v>
+      </c>
+      <c r="C108">
+        <v>15</v>
+      </c>
+      <c r="D108" t="str">
+        <f>VLOOKUP(C108,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>105</v>
+      </c>
+      <c r="B109" t="str">
+        <f>VLOOKUP(A109,Prds!$A$3:$G$198,2)</f>
+        <v>591 in-ceiling speakers</v>
+      </c>
+      <c r="C109">
+        <v>15</v>
+      </c>
+      <c r="D109" t="str">
+        <f>VLOOKUP(C109,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>106</v>
+      </c>
+      <c r="B110" t="str">
+        <f>VLOOKUP(A110,Prds!$A$3:$G$198,2)</f>
+        <v>691 in-wall speakers</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110" t="str">
+        <f>VLOOKUP(C110,Cats!$A$3:$G$20,2)</f>
+        <v>Stereo</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>92</v>
+      </c>
+      <c r="B111" t="str">
+        <f>VLOOKUP(A111,Prds!$A$3:$G$198,2)</f>
+        <v>Companion 2 computer speakers</v>
+      </c>
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111" t="str">
+        <f>VLOOKUP(C111,Cats!$A$3:$G$20,2)</f>
+        <v>Computer</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>96</v>
+      </c>
+      <c r="B112" t="str">
+        <f>VLOOKUP(A112,Prds!$A$3:$G$198,2)</f>
+        <v>Companion 20 computer speakers</v>
+      </c>
+      <c r="C112">
+        <v>16</v>
+      </c>
+      <c r="D112" t="str">
+        <f>VLOOKUP(C112,Cats!$A$3:$G$20,2)</f>
+        <v>Computer</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>72</v>
+      </c>
+      <c r="B113" t="str">
+        <f>VLOOKUP(A113,Prds!$A$3:$G$198,2)</f>
+        <v>S1 Pro system</v>
+      </c>
+      <c r="C113">
+        <v>17</v>
+      </c>
+      <c r="D113" t="str">
+        <f>VLOOKUP(C113,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>107</v>
+      </c>
+      <c r="B114" t="str">
+        <f>VLOOKUP(A114,Prds!$A$3:$G$198,2)</f>
+        <v>L1 Compact system</v>
+      </c>
+      <c r="C114">
+        <v>17</v>
+      </c>
+      <c r="D114" t="str">
+        <f>VLOOKUP(C114,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>108</v>
+      </c>
+      <c r="B115" t="str">
+        <f>VLOOKUP(A115,Prds!$A$3:$G$198,2)</f>
+        <v>F1 Model 812 loudspeaker with F1 Subwoofer</v>
+      </c>
+      <c r="C115">
+        <v>17</v>
+      </c>
+      <c r="D115" t="str">
+        <f>VLOOKUP(C115,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>109</v>
+      </c>
+      <c r="B116" t="str">
+        <f>VLOOKUP(A116,Prds!$A$3:$G$198,2)</f>
+        <v>F1 Model 812 Flexible Array loudspeaker</v>
+      </c>
+      <c r="C116">
+        <v>17</v>
+      </c>
+      <c r="D116" t="str">
+        <f>VLOOKUP(C116,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>110</v>
+      </c>
+      <c r="B117" t="str">
+        <f>VLOOKUP(A117,Prds!$A$3:$G$198,2)</f>
+        <v>L1 II system/B2 bass</v>
+      </c>
+      <c r="C117">
+        <v>17</v>
+      </c>
+      <c r="D117" t="str">
+        <f>VLOOKUP(C117,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>111</v>
+      </c>
+      <c r="B118" t="str">
+        <f>VLOOKUP(A118,Prds!$A$3:$G$198,2)</f>
+        <v>L1 Compact Wireless package</v>
+      </c>
+      <c r="C118">
+        <v>17</v>
+      </c>
+      <c r="D118" t="str">
+        <f>VLOOKUP(C118,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>112</v>
+      </c>
+      <c r="B119" t="str">
+        <f>VLOOKUP(A119,Prds!$A$3:$G$198,2)</f>
+        <v>T4S ToneMatch mixer</v>
+      </c>
+      <c r="C119">
+        <v>17</v>
+      </c>
+      <c r="D119" t="str">
+        <f>VLOOKUP(C119,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>113</v>
+      </c>
+      <c r="B120" t="str">
+        <f>VLOOKUP(A120,Prds!$A$3:$G$198,2)</f>
+        <v>T8S ToneMatch mixer</v>
+      </c>
+      <c r="C120">
+        <v>17</v>
+      </c>
+      <c r="D120" t="str">
+        <f>VLOOKUP(C120,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>114</v>
+      </c>
+      <c r="B121" t="str">
+        <f>VLOOKUP(A121,Prds!$A$3:$G$198,2)</f>
+        <v>F1 Subwoofer</v>
+      </c>
+      <c r="C121">
+        <v>17</v>
+      </c>
+      <c r="D121" t="str">
+        <f>VLOOKUP(C121,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>115</v>
+      </c>
+      <c r="B122" t="str">
+        <f>VLOOKUP(A122,Prds!$A$3:$G$198,2)</f>
+        <v>L1 1S system/B2 bass</v>
+      </c>
+      <c r="C122">
+        <v>17</v>
+      </c>
+      <c r="D122" t="str">
+        <f>VLOOKUP(C122,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>116</v>
+      </c>
+      <c r="B123" t="str">
+        <f>VLOOKUP(A123,Prds!$A$3:$G$198,2)</f>
+        <v>L1 1S system/B1 bass</v>
+      </c>
+      <c r="C123">
+        <v>17</v>
+      </c>
+      <c r="D123" t="str">
+        <f>VLOOKUP(C123,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>117</v>
+      </c>
+      <c r="B124" t="str">
+        <f>VLOOKUP(A124,Prds!$A$3:$G$198,2)</f>
+        <v>L1 II system/B1 bass</v>
+      </c>
+      <c r="C124">
+        <v>17</v>
+      </c>
+      <c r="D124" t="str">
+        <f>VLOOKUP(C124,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>118</v>
+      </c>
+      <c r="B125" t="str">
+        <f>VLOOKUP(A125,Prds!$A$3:$G$198,2)</f>
+        <v>Two F1 Model 812 loudspeakers with F1 Subwoofer</v>
+      </c>
+      <c r="C125">
+        <v>17</v>
+      </c>
+      <c r="D125" t="str">
+        <f>VLOOKUP(C125,Cats!$A$3:$G$20,2)</f>
+        <v>Portable PA</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>76</v>
+      </c>
+      <c r="B126" t="str">
+        <f>VLOOKUP(A126,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Surround Speakers</v>
+      </c>
+      <c r="C126">
+        <v>18</v>
+      </c>
+      <c r="D126" t="str">
+        <f>VLOOKUP(C126,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>77</v>
+      </c>
+      <c r="B127" t="str">
+        <f>VLOOKUP(A127,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Bass Module 700</v>
+      </c>
+      <c r="C127">
+        <v>18</v>
+      </c>
+      <c r="D127" t="str">
+        <f>VLOOKUP(C127,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>78</v>
+      </c>
+      <c r="B128" t="str">
+        <f>VLOOKUP(A128,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Bass Module 500</v>
+      </c>
+      <c r="C128">
+        <v>18</v>
+      </c>
+      <c r="D128" t="str">
+        <f>VLOOKUP(C128,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>119</v>
+      </c>
+      <c r="B129" t="str">
+        <f>VLOOKUP(A129,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Revolve charging cradle</v>
+      </c>
+      <c r="C129">
+        <v>18</v>
+      </c>
+      <c r="D129" t="str">
+        <f>VLOOKUP(C129,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>120</v>
+      </c>
+      <c r="B130" t="str">
+        <f>VLOOKUP(A130,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Soundbar Wall Bracket</v>
+      </c>
+      <c r="C130">
+        <v>18</v>
+      </c>
+      <c r="D130" t="str">
+        <f>VLOOKUP(C130,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>121</v>
+      </c>
+      <c r="B131" t="str">
+        <f>VLOOKUP(A131,Prds!$A$3:$G$198,2)</f>
+        <v>Bose Soundbar Universal Remote</v>
+      </c>
+      <c r="C131">
+        <v>18</v>
+      </c>
+      <c r="D131" t="str">
+        <f>VLOOKUP(C131,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>122</v>
+      </c>
+      <c r="B132" t="str">
+        <f>VLOOKUP(A132,Prds!$A$3:$G$198,2)</f>
+        <v>SoundXtra TV stand for SoundTouch 300</v>
+      </c>
+      <c r="C132">
+        <v>18</v>
+      </c>
+      <c r="D132" t="str">
+        <f>VLOOKUP(C132,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>123</v>
+      </c>
+      <c r="B133" t="str">
+        <f>VLOOKUP(A133,Prds!$A$3:$G$198,2)</f>
+        <v>S1 Pro Slip Cover</v>
+      </c>
+      <c r="C133">
+        <v>18</v>
+      </c>
+      <c r="D133" t="str">
+        <f>VLOOKUP(C133,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>124</v>
+      </c>
+      <c r="B134" t="str">
+        <f>VLOOKUP(A134,Prds!$A$3:$G$198,2)</f>
+        <v>S1 Pro Backpack</v>
+      </c>
+      <c r="C134">
+        <v>18</v>
+      </c>
+      <c r="D134" t="str">
+        <f>VLOOKUP(C134,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>125</v>
+      </c>
+      <c r="B135" t="str">
+        <f>VLOOKUP(A135,Prds!$A$3:$G$198,2)</f>
+        <v>SoundXtra floor stand for SoundTouch 20</v>
+      </c>
+      <c r="C135">
+        <v>18</v>
+      </c>
+      <c r="D135" t="str">
+        <f>VLOOKUP(C135,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>126</v>
+      </c>
+      <c r="B136" t="str">
+        <f>VLOOKUP(A136,Prds!$A$3:$G$198,2)</f>
+        <v>Wave FM antenna</v>
+      </c>
+      <c r="C136">
+        <v>18</v>
+      </c>
+      <c r="D136" t="str">
+        <f>VLOOKUP(C136,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>127</v>
+      </c>
+      <c r="B137" t="str">
+        <f>VLOOKUP(A137,Prds!$A$3:$G$198,2)</f>
+        <v>RC-PWS III universal remote</v>
+      </c>
+      <c r="C137">
+        <v>18</v>
+      </c>
+      <c r="D137" t="str">
+        <f>VLOOKUP(C137,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>128</v>
+      </c>
+      <c r="B138" t="str">
+        <f>VLOOKUP(A138,Prds!$A$3:$G$198,2)</f>
+        <v>UB-20 II wall/ceiling bracket</v>
+      </c>
+      <c r="C138">
+        <v>18</v>
+      </c>
+      <c r="D138" t="str">
+        <f>VLOOKUP(C138,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>129</v>
+      </c>
+      <c r="B139" t="str">
+        <f>VLOOKUP(A139,Prds!$A$3:$G$198,2)</f>
+        <v>UFS-20 II floorstands</v>
+      </c>
+      <c r="C139">
+        <v>18</v>
+      </c>
+      <c r="D139" t="str">
+        <f>VLOOKUP(C139,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>130</v>
+      </c>
+      <c r="B140" t="str">
+        <f>VLOOKUP(A140,Prds!$A$3:$G$198,2)</f>
+        <v>SoundWear Companion cover</v>
+      </c>
+      <c r="C140">
+        <v>18</v>
+      </c>
+      <c r="D140" t="str">
+        <f>VLOOKUP(C140,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>112</v>
+      </c>
+      <c r="B141" t="str">
+        <f>VLOOKUP(A141,Prds!$A$3:$G$198,2)</f>
+        <v>T4S ToneMatch mixer</v>
+      </c>
+      <c r="C141">
+        <v>18</v>
+      </c>
+      <c r="D141" t="str">
+        <f>VLOOKUP(C141,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>131</v>
+      </c>
+      <c r="B142" t="str">
+        <f>VLOOKUP(A142,Prds!$A$3:$G$198,2)</f>
+        <v>Speaker wire adapter kot</v>
+      </c>
+      <c r="C142">
+        <v>18</v>
+      </c>
+      <c r="D142" t="str">
+        <f>VLOOKUP(C142,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>132</v>
+      </c>
+      <c r="B143" t="str">
+        <f>VLOOKUP(A143,Prds!$A$3:$G$198,2)</f>
+        <v>B1 bass module</v>
+      </c>
+      <c r="C143">
+        <v>18</v>
+      </c>
+      <c r="D143" t="str">
+        <f>VLOOKUP(C143,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>113</v>
+      </c>
+      <c r="B144" t="str">
+        <f>VLOOKUP(A144,Prds!$A$3:$G$198,2)</f>
+        <v>T8S ToneMatch mixer</v>
+      </c>
+      <c r="C144">
+        <v>18</v>
+      </c>
+      <c r="D144" t="str">
+        <f>VLOOKUP(C144,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>133</v>
+      </c>
+      <c r="B145" t="str">
+        <f>VLOOKUP(A145,Prds!$A$3:$G$198,2)</f>
+        <v>SlideConnect wall bracket</v>
+      </c>
+      <c r="C145">
+        <v>18</v>
+      </c>
+      <c r="D145" t="str">
+        <f>VLOOKUP(C145,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>134</v>
+      </c>
+      <c r="B146" t="str">
+        <f>VLOOKUP(A146,Prds!$A$3:$G$198,2)</f>
+        <v>WB-300 wall bracket</v>
+      </c>
+      <c r="C146">
+        <v>18</v>
+      </c>
+      <c r="D146" t="str">
+        <f>VLOOKUP(C146,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>135</v>
+      </c>
+      <c r="B147" t="str">
+        <f>VLOOKUP(A147,Prds!$A$3:$G$198,2)</f>
+        <v>WB-120 wall-mount kit</v>
+      </c>
+      <c r="C147">
+        <v>18</v>
+      </c>
+      <c r="D147" t="str">
+        <f>VLOOKUP(C147,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>114</v>
+      </c>
+      <c r="B148" t="str">
+        <f>VLOOKUP(A148,Prds!$A$3:$G$198,2)</f>
+        <v>F1 Subwoofer</v>
+      </c>
+      <c r="C148">
+        <v>18</v>
+      </c>
+      <c r="D148" t="str">
+        <f>VLOOKUP(C148,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>136</v>
+      </c>
+      <c r="B149" t="str">
+        <f>VLOOKUP(A149,Prds!$A$3:$G$198,2)</f>
+        <v>L1 Compact microphone accessory pack</v>
+      </c>
+      <c r="C149">
+        <v>18</v>
+      </c>
+      <c r="D149" t="str">
+        <f>VLOOKUP(C149,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>137</v>
+      </c>
+      <c r="B150" t="str">
+        <f>VLOOKUP(A150,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Mini travel bag</v>
+      </c>
+      <c r="C150">
+        <v>18</v>
+      </c>
+      <c r="D150" t="str">
+        <f>VLOOKUP(C150,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>138</v>
+      </c>
+      <c r="B151" t="str">
+        <f>VLOOKUP(A151,Prds!$A$3:$G$198,2)</f>
+        <v>UTS-20 II table stand</v>
+      </c>
+      <c r="C151">
+        <v>18</v>
+      </c>
+      <c r="D151" t="str">
+        <f>VLOOKUP(C151,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>139</v>
+      </c>
+      <c r="B152" t="str">
+        <f>VLOOKUP(A152,Prds!$A$3:$G$198,2)</f>
+        <v>CineMate speaker wire adapter kit</v>
+      </c>
+      <c r="C152">
+        <v>18</v>
+      </c>
+      <c r="D152" t="str">
+        <f>VLOOKUP(C152,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>140</v>
+      </c>
+      <c r="B153" t="str">
+        <f>VLOOKUP(A153,Prds!$A$3:$G$198,2)</f>
+        <v>B1/B2 4-pin cable</v>
+      </c>
+      <c r="C153">
+        <v>18</v>
+      </c>
+      <c r="D153" t="str">
+        <f>VLOOKUP(C153,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>141</v>
+      </c>
+      <c r="B154" t="str">
+        <f>VLOOKUP(A154,Prds!$A$3:$G$198,2)</f>
+        <v>SoundXtra TV mount for SoundTouch 300</v>
+      </c>
+      <c r="C154">
+        <v>18</v>
+      </c>
+      <c r="D154" t="str">
+        <f>VLOOKUP(C154,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>142</v>
+      </c>
+      <c r="B155" t="str">
+        <f>VLOOKUP(A155,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink speaker III cover</v>
+      </c>
+      <c r="C155">
+        <v>18</v>
+      </c>
+      <c r="D155" t="str">
+        <f>VLOOKUP(C155,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>143</v>
+      </c>
+      <c r="B156" t="str">
+        <f>VLOOKUP(A156,Prds!$A$3:$G$198,2)</f>
+        <v>PackLite A1 power amplifier</v>
+      </c>
+      <c r="C156">
+        <v>18</v>
+      </c>
+      <c r="D156" t="str">
+        <f>VLOOKUP(C156,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>144</v>
+      </c>
+      <c r="B157" t="str">
+        <f>VLOOKUP(A157,Prds!$A$3:$G$198,2)</f>
+        <v>WB-3 bookshelf speaker wall brackets</v>
+      </c>
+      <c r="C157">
+        <v>18</v>
+      </c>
+      <c r="D157" t="str">
+        <f>VLOOKUP(C157,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>145</v>
+      </c>
+      <c r="B158" t="str">
+        <f>VLOOKUP(A158,Prds!$A$3:$G$198,2)</f>
+        <v>B2 bass module</v>
+      </c>
+      <c r="C158">
+        <v>18</v>
+      </c>
+      <c r="D158" t="str">
+        <f>VLOOKUP(C158,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>146</v>
+      </c>
+      <c r="B159" t="str">
+        <f>VLOOKUP(A159,Prds!$A$3:$G$198,2)</f>
+        <v>ToneMatch mixer power supply</v>
+      </c>
+      <c r="C159">
+        <v>18</v>
+      </c>
+      <c r="D159" t="str">
+        <f>VLOOKUP(C159,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>147</v>
+      </c>
+      <c r="B160" t="str">
+        <f>VLOOKUP(A160,Prds!$A$3:$G$198,2)</f>
+        <v>SoundLink Revolve and Soundlink Revolve+ wall adapter</v>
+      </c>
+      <c r="C160">
+        <v>18</v>
+      </c>
+      <c r="D160" t="str">
+        <f>VLOOKUP(C160,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>148</v>
+      </c>
+      <c r="B161" t="str">
+        <f>VLOOKUP(A161,Prds!$A$3:$G$198,2)</f>
+        <v>FS-01 bookshelf speaker floorstands</v>
+      </c>
+      <c r="C161">
+        <v>18</v>
+      </c>
+      <c r="D161" t="str">
+        <f>VLOOKUP(C161,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>149</v>
+      </c>
+      <c r="B162" t="str">
+        <f>VLOOKUP(A162,Prds!$A$3:$G$198,2)</f>
+        <v>Home theater speaker extension cable</v>
+      </c>
+      <c r="C162">
+        <v>18</v>
+      </c>
+      <c r="D162" t="str">
+        <f>VLOOKUP(C162,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>150</v>
+      </c>
+      <c r="B163" t="str">
+        <f>VLOOKUP(A163,Prds!$A$3:$G$198,2)</f>
+        <v>Lifestyle 600/650 home entertainment system remote control</v>
+      </c>
+      <c r="C163">
+        <v>18</v>
+      </c>
+      <c r="D163" t="str">
+        <f>VLOOKUP(C163,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>151</v>
+      </c>
+      <c r="B164" t="str">
+        <f>VLOOKUP(A164,Prds!$A$3:$G$198,2)</f>
+        <v>SoundTouch II remote</v>
+      </c>
+      <c r="C164">
+        <v>18</v>
+      </c>
+      <c r="D164" t="str">
+        <f>VLOOKUP(C164,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>152</v>
+      </c>
+      <c r="B165" t="str">
+        <f>VLOOKUP(A165,Prds!$A$3:$G$198,2)</f>
+        <v>OmniJewel center channel wire adapter</v>
+      </c>
+      <c r="C165">
+        <v>18</v>
+      </c>
+      <c r="D165" t="str">
+        <f>VLOOKUP(C165,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>153</v>
+      </c>
+      <c r="B166" t="str">
+        <f>VLOOKUP(A166,Prds!$A$3:$G$198,2)</f>
+        <v>SoundXtra wall mount for SoundTouch 10</v>
+      </c>
+      <c r="C166">
+        <v>18</v>
+      </c>
+      <c r="D166" t="str">
+        <f>VLOOKUP(C166,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>154</v>
+      </c>
+      <c r="B167" t="str">
+        <f>VLOOKUP(A167,Prds!$A$3:$G$198,2)</f>
+        <v>791 in-ceiling speakers II rough-in kit</v>
+      </c>
+      <c r="C167">
+        <v>18</v>
+      </c>
+      <c r="D167" t="str">
+        <f>VLOOKUP(C167,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>155</v>
+      </c>
+      <c r="B168" t="str">
+        <f>VLOOKUP(A168,Prds!$A$3:$G$198,2)</f>
+        <v>WB-135 wall mount kit</v>
+      </c>
+      <c r="C168">
+        <v>18</v>
+      </c>
+      <c r="D168" t="str">
+        <f>VLOOKUP(C168,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>156</v>
+      </c>
+      <c r="B169" t="str">
+        <f>VLOOKUP(A169,Prds!$A$3:$G$198,2)</f>
+        <v>CineMate home theater system-Interface Module</v>
+      </c>
+      <c r="C169">
+        <v>18</v>
+      </c>
+      <c r="D169" t="str">
+        <f>VLOOKUP(C169,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>157</v>
+      </c>
+      <c r="B170" t="str">
+        <f>VLOOKUP(A170,Prds!$A$3:$G$198,2)</f>
+        <v>F1 Model 812 travel bag</v>
+      </c>
+      <c r="C170">
+        <v>18</v>
+      </c>
+      <c r="D170" t="str">
+        <f>VLOOKUP(C170,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>158</v>
+      </c>
+      <c r="B171" t="str">
+        <f>VLOOKUP(A171,Prds!$A$3:$G$198,2)</f>
+        <v>891 in-wall speakers rough-in kit</v>
+      </c>
+      <c r="C171">
+        <v>18</v>
+      </c>
+      <c r="D171" t="str">
+        <f>VLOOKUP(C171,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>159</v>
+      </c>
+      <c r="B172" t="str">
+        <f>VLOOKUP(A172,Prds!$A$3:$G$198,2)</f>
+        <v>SoundXtra floor stand for SoundTouch 10</v>
+      </c>
+      <c r="C172">
+        <v>18</v>
+      </c>
+      <c r="D172" t="str">
+        <f>VLOOKUP(C172,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>160</v>
+      </c>
+      <c r="B173" t="str">
+        <f>VLOOKUP(A173,Prds!$A$3:$G$198,2)</f>
+        <v>SoundXtra floor stand for SoundTouch 30</v>
+      </c>
+      <c r="C173">
+        <v>18</v>
+      </c>
+      <c r="D173" t="str">
+        <f>VLOOKUP(C173,Cats!$A$3:$G$20,2)</f>
+        <v>Speaker Accesories</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"(" &amp; Prds!A3 &amp; ",'"&amp; Prds!B3 &amp;"','"&amp;Prds!C3&amp;"',"&amp;Prds!D3&amp;","&amp;Prds!F3&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(1,'QuietComfort 35 wireless headphones II','quietcomfort-35-wireless-headphones-ii',349.95,299.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"(" &amp; Prds!A4 &amp; ",'"&amp; Prds!B4 &amp;"','"&amp;Prds!C4&amp;"',"&amp;Prds!D4&amp;","&amp;Prds!F4&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(2,'Custom QuietComfort 35 wireless headphones II','custom-quietcomfort-35-wireless-headphones-ii',399.45,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>"(" &amp; Prds!A5 &amp; ",'"&amp; Prds!B5 &amp;"','"&amp;Prds!C5&amp;"',"&amp;Prds!D5&amp;","&amp;Prds!F5&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(3,'QC25 noise cancelling headphones Apple devices','qc25-noise-cancelling-headphones-apple-devices',179.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>"(" &amp; Prds!A6 &amp; ",'"&amp; Prds!B6 &amp;"','"&amp;Prds!C6&amp;"',"&amp;Prds!D6&amp;","&amp;Prds!F6&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(4,'QuietControl 30 wireless headphones','quietcontrol-30-wireless-headphones',299.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"(" &amp; Prds!A7 &amp; ",'"&amp; Prds!B7 &amp;"','"&amp;Prds!C7&amp;"',"&amp;Prds!D7&amp;","&amp;Prds!F7&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(5,'QC20 noise cancelling headphones Apple devices','qc20-noise-cancelling-headphones-apple-devices',249.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>"(" &amp; Prds!A8 &amp; ",'"&amp; Prds!B8 &amp;"','"&amp;Prds!C8&amp;"',"&amp;Prds!D8&amp;","&amp;Prds!F8&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(6,'QC20 noise cancelling headphones Samsung/Android devices','qc20-noise-cancelling-headphones-samsung-android-devices',249.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"(" &amp; Prds!A9 &amp; ",'"&amp; Prds!B9 &amp;"','"&amp;Prds!C9&amp;"',"&amp;Prds!D9&amp;","&amp;Prds!F9&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(7,'SoundSport Free wireless headphones','soundsport-free-wireless-headphones',199.95,169.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>"(" &amp; Prds!A10 &amp; ",'"&amp; Prds!B10 &amp;"','"&amp;Prds!C10&amp;"',"&amp;Prds!D10&amp;","&amp;Prds!F10&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(8,'SoundSport wireless headphones','soundsport-wireless-headphones',149.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>"(" &amp; Prds!A11 &amp; ",'"&amp; Prds!B11 &amp;"','"&amp;Prds!C11&amp;"',"&amp;Prds!D11&amp;","&amp;Prds!F11&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(9,'SoundLink around-ear wireless headphones II','soundlink-around-ear-wireless-headphones-ii',229.95,199.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>"(" &amp; Prds!A12 &amp; ",'"&amp; Prds!B12 &amp;"','"&amp;Prds!C12&amp;"',"&amp;Prds!D12&amp;","&amp;Prds!F12&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(10,'SoundWear Companion speaker','soundwear-companion-speaker',299.95,249.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"(" &amp; Prds!A13 &amp; ",'"&amp; Prds!B13 &amp;"','"&amp;Prds!C13&amp;"',"&amp;Prds!D13&amp;","&amp;Prds!F13&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(11,'Bose on-ear wireless headphones','bose-on-ear-wireless-headphones',179.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>"(" &amp; Prds!A14 &amp; ",'"&amp; Prds!B14 &amp;"','"&amp;Prds!C14&amp;"',"&amp;Prds!D14&amp;","&amp;Prds!F14&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(12,'SoundSport Pulse wireless headphones','soundsport-pulse-wireless-headphones',199.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"(" &amp; Prds!A15 &amp; ",'"&amp; Prds!B15 &amp;"','"&amp;Prds!C15&amp;"',"&amp;Prds!D15&amp;","&amp;Prds!F15&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(13,'BOSEbuild Headphones','bosebuild-headphones',149.95,119.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>"(" &amp; Prds!A16 &amp; ",'"&amp; Prds!B16 &amp;"','"&amp;Prds!C16&amp;"',"&amp;Prds!D16&amp;","&amp;Prds!F16&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(14,'SoundSport in-ear headphones Apple devices','soundsport-in-ear-headphones-apple-devices',99.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>"(" &amp; Prds!A17 &amp; ",'"&amp; Prds!B17 &amp;"','"&amp;Prds!C17&amp;"',"&amp;Prds!D17&amp;","&amp;Prds!F17&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(15,'SoundSport in-ear headphones Samsung/Android devices','soundsport-in-ear-headphones-samsung-android-devices',99.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>"(" &amp; Prds!A18 &amp; ",'"&amp; Prds!B18 &amp;"','"&amp;Prds!C18&amp;"',"&amp;Prds!D18&amp;","&amp;Prds!F18&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(16,'Proflight aviation headset','proflight-aviation-headset',999.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>"(" &amp; Prds!A19 &amp; ",'"&amp; Prds!B19 &amp;"','"&amp;Prds!C19&amp;"',"&amp;Prds!D19&amp;","&amp;Prds!F19&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(17,'A20 aviation headset','a20-aviation-headset',999.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>"(" &amp; Prds!A20 &amp; ",'"&amp; Prds!B20 &amp;"','"&amp;Prds!C20&amp;"',"&amp;Prds!D20&amp;","&amp;Prds!F20&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(18,'Bose noise-masking sleepbuds','bose-noise-masking-sleepbuds',249.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>"(" &amp; Prds!A21 &amp; ",'"&amp; Prds!B21 &amp;"','"&amp;Prds!C21&amp;"',"&amp;Prds!D21&amp;","&amp;Prds!F21&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(19,'Bose Hearphones','bose-hearphones',499.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>"(" &amp; Prds!A22 &amp; ",'"&amp; Prds!B22 &amp;"','"&amp;Prds!C22&amp;"',"&amp;Prds!D22&amp;","&amp;Prds!F22&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(20,'ProFlight accessory kit','proflight-accessory-kit',31.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>"(" &amp; Prds!A23 &amp; ",'"&amp; Prds!B23 &amp;"','"&amp;Prds!C23&amp;"',"&amp;Prds!D23&amp;","&amp;Prds!F23&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(21,'ProFlight carry case','proflight-carry-case',24.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>"(" &amp; Prds!A24 &amp; ",'"&amp; Prds!B24 &amp;"','"&amp;Prds!C24&amp;"',"&amp;Prds!D24&amp;","&amp;Prds!F24&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(22,'ProFlight Headset cable, 5-pin XLR','proflight-headset-cable-5-pin-xlr',295.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>"(" &amp; Prds!A25 &amp; ",'"&amp; Prds!B25 &amp;"','"&amp;Prds!C25&amp;"',"&amp;Prds!D25&amp;","&amp;Prds!F25&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(23,'ProFlight control module lanyard','proflight-control-module-lanyard',4.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>"(" &amp; Prds!A26 &amp; ",'"&amp; Prds!B26 &amp;"','"&amp;Prds!C26&amp;"',"&amp;Prds!D26&amp;","&amp;Prds!F26&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(24,'ProFlight termination cap','proflight-termination-cap',4.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>"(" &amp; Prds!A27 &amp; ",'"&amp; Prds!B27 &amp;"','"&amp;Prds!C27&amp;"',"&amp;Prds!D27&amp;","&amp;Prds!F27&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(25,'ProFlight microphone windscreen','proflight-microphone-windscreen',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>"(" &amp; Prds!A28 &amp; ",'"&amp; Prds!B28 &amp;"','"&amp;Prds!C28&amp;"',"&amp;Prds!D28&amp;","&amp;Prds!F28&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(26,'ProFlight headband pad','proflight-headband-pad',12.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>"(" &amp; Prds!A29 &amp; ",'"&amp; Prds!B29 &amp;"','"&amp;Prds!C29&amp;"',"&amp;Prds!D29&amp;","&amp;Prds!F29&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(27,'ProFlight Headset cable, 6-pin Lemo','proflight-headset-cable-6-pin-lemo',295.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>"(" &amp; Prds!A30 &amp; ",'"&amp; Prds!B30 &amp;"','"&amp;Prds!C30&amp;"',"&amp;Prds!D30&amp;","&amp;Prds!F30&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(28,'ProFlight side cushions','proflight-side-cushions',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>"(" &amp; Prds!A31 &amp; ",'"&amp; Prds!B31 &amp;"','"&amp;Prds!C31&amp;"',"&amp;Prds!D31&amp;","&amp;Prds!F31&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(29,'ProFlight Headset cable, dual plugs','proflight-headset-cable-dual-plugs',295.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>"(" &amp; Prds!A32 &amp; ",'"&amp; Prds!B32 &amp;"','"&amp;Prds!C32&amp;"',"&amp;Prds!D32&amp;","&amp;Prds!F32&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(30,'StayHear+ Sleep tips (2 pairs)','stayhearplus-sleep-tips-2-pairs',7.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>"(" &amp; Prds!A33 &amp; ",'"&amp; Prds!B33 &amp;"','"&amp;Prds!C33&amp;"',"&amp;Prds!D33&amp;","&amp;Prds!F33&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(31,'QuietComfort 15 and 2 headphones ear cushion kit','quietcomfort-15-and-2-headphones-ear-cushion-kit',35,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>"(" &amp; Prds!A34 &amp; ",'"&amp; Prds!B34 &amp;"','"&amp;Prds!C34&amp;"',"&amp;Prds!D34&amp;","&amp;Prds!F34&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(32,'SoundLink on-ear cushion kit','soundlink-on-ear-cushion-kit',24.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>"(" &amp; Prds!A35 &amp; ",'"&amp; Prds!B35 &amp;"','"&amp;Prds!C35&amp;"',"&amp;Prds!D35&amp;","&amp;Prds!F35&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(33,'StayHear+ Sport tips (2 pairs)','stayhearplus-sport-tips-2-pairs',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>"(" &amp; Prds!A36 &amp; ",'"&amp; Prds!B36 &amp;"','"&amp;Prds!C36&amp;"',"&amp;Prds!D36&amp;","&amp;Prds!F36&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(34,'QC airline adapter','qc-airline-adapter',7.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>"(" &amp; Prds!A37 &amp; ",'"&amp; Prds!B37 &amp;"','"&amp;Prds!C37&amp;"',"&amp;Prds!D37&amp;","&amp;Prds!F37&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(35,'QC35 ear cushion kit','qc35-ear-cushion-kit',34.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>"(" &amp; Prds!A38 &amp; ",'"&amp; Prds!B38 &amp;"','"&amp;Prds!C38&amp;"',"&amp;Prds!D38&amp;","&amp;Prds!F38&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(36,'SoundLink wireless headphones II audio cable','soundlink-wireless-headphones-ii-audio-cable',6.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>"(" &amp; Prds!A39 &amp; ",'"&amp; Prds!B39 &amp;"','"&amp;Prds!C39&amp;"',"&amp;Prds!D39&amp;","&amp;Prds!F39&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(37,'SoundSport charging case','soundsport-charging-case',49.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>"(" &amp; Prds!A40 &amp; ",'"&amp; Prds!B40 &amp;"','"&amp;Prds!C40&amp;"',"&amp;Prds!D40&amp;","&amp;Prds!F40&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(38,'StayHear tips (2 pr)','stayhear-tips-2-pr',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>"(" &amp; Prds!A41 &amp; ",'"&amp; Prds!B41 &amp;"','"&amp;Prds!C41&amp;"',"&amp;Prds!D41&amp;","&amp;Prds!F41&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(39,'QC25 ear cushion kit','qc25-ear-cushion-kit',34.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>"(" &amp; Prds!A42 &amp; ",'"&amp; Prds!B42 &amp;"','"&amp;Prds!C42&amp;"',"&amp;Prds!D42&amp;","&amp;Prds!F42&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(40,'QC25 inline mic/remote Samsung and Android devices','qc25-inline-mic-remote-samsung-and-android-devices',29.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>"(" &amp; Prds!A43 &amp; ",'"&amp; Prds!B43 &amp;"','"&amp;Prds!C43&amp;"',"&amp;Prds!D43&amp;","&amp;Prds!F43&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(41,'USB cable','usb-cable',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>"(" &amp; Prds!A44 &amp; ",'"&amp; Prds!B44 &amp;"','"&amp;Prds!C44&amp;"',"&amp;Prds!D44&amp;","&amp;Prds!F44&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(42,'SoundLink wireless headphones II ear cushion kit','soundlink-wireless-headphones-ii-ear-cushion-kit',24.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>"(" &amp; Prds!A45 &amp; ",'"&amp; Prds!B45 &amp;"','"&amp;Prds!C45&amp;"',"&amp;Prds!D45&amp;","&amp;Prds!F45&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(43,'SoundSport wireless headphones carry case','soundsport-wireless-headphones-carry-case',12.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>"(" &amp; Prds!A46 &amp; ",'"&amp; Prds!B46 &amp;"','"&amp;Prds!C46&amp;"',"&amp;Prds!D46&amp;","&amp;Prds!F46&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(44,'SoundSport wireless headphones clothing clip','soundsport-wireless-headphones-clothing-clip',3.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>"(" &amp; Prds!A47 &amp; ",'"&amp; Prds!B47 &amp;"','"&amp;Prds!C47&amp;"',"&amp;Prds!D47&amp;","&amp;Prds!F47&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(45,'SoundSport Free portable charging case','soundsport-free-portable-charging-case',49.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>"(" &amp; Prds!A48 &amp; ",'"&amp; Prds!B48 &amp;"','"&amp;Prds!C48&amp;"',"&amp;Prds!D48&amp;","&amp;Prds!F48&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(46,'QC35 carry case','qc35-carry-case',24.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>"(" &amp; Prds!A49 &amp; ",'"&amp; Prds!B49 &amp;"','"&amp;Prds!C49&amp;"',"&amp;Prds!D49&amp;","&amp;Prds!F49&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(47,'QC20 headphones clothing clip','qc20-headphones-clothing-clip',3.99,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>"(" &amp; Prds!A50 &amp; ",'"&amp; Prds!B50 &amp;"','"&amp;Prds!C50&amp;"',"&amp;Prds!D50&amp;","&amp;Prds!F50&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(48,'Wall charger plus international adapters','wall-charger-plus-international-adapters',19.99,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>"(" &amp; Prds!A51 &amp; ",'"&amp; Prds!B51 &amp;"','"&amp;Prds!C51&amp;"',"&amp;Prds!D51&amp;","&amp;Prds!F51&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(49,'SoundLink on-ear audio cable','soundlink-on-ear-audio-cable',6.99,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>"(" &amp; Prds!A52 &amp; ",'"&amp; Prds!B52 &amp;"','"&amp;Prds!C52&amp;"',"&amp;Prds!D52&amp;","&amp;Prds!F52&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(50,'QC25 inline mic/remote Apple devices','qc25-inline-mic-remote-apple-devices',29.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>"(" &amp; Prds!A53 &amp; ",'"&amp; Prds!B53 &amp;"','"&amp;Prds!C53&amp;"',"&amp;Prds!D53&amp;","&amp;Prds!F53&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(51,'QuietComfort 15 audio cable','quietcomfort-15-audio-cable',15,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>"(" &amp; Prds!A54 &amp; ",'"&amp; Prds!B54 &amp;"','"&amp;Prds!C54&amp;"',"&amp;Prds!D54&amp;","&amp;Prds!F54&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(52,'A20 ear cushions','a20-ear-cushions',29.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>"(" &amp; Prds!A55 &amp; ",'"&amp; Prds!B55 &amp;"','"&amp;Prds!C55&amp;"',"&amp;Prds!D55&amp;","&amp;Prds!F55&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(53,'AE2 headphones replacement audio cable','ae2-headphones-replacement-audio-cable',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>"(" &amp; Prds!A56 &amp; ",'"&amp; Prds!B56 &amp;"','"&amp;Prds!C56&amp;"',"&amp;Prds!D56&amp;","&amp;Prds!F56&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(54,'StayHear+ tips (2 pr)','stayhearplus-tips-2-pr',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>"(" &amp; Prds!A57 &amp; ",'"&amp; Prds!B57 &amp;"','"&amp;Prds!C57&amp;"',"&amp;Prds!D57&amp;","&amp;Prds!F57&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(55,'QuietControl Stayhear+ tips (2 pairs)','quietcontrol-stayhearplus-tips-2-pairs',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>"(" &amp; Prds!A58 &amp; ",'"&amp; Prds!B58 &amp;"','"&amp;Prds!C58&amp;"',"&amp;Prds!D58&amp;","&amp;Prds!F58&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(56,'QuietComfort 3 ear cushion kit','quietcomfort-3-ear-cushion-kit',35,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>"(" &amp; Prds!A59 &amp; ",'"&amp; Prds!B59 &amp;"','"&amp;Prds!C59&amp;"',"&amp;Prds!D59&amp;","&amp;Prds!F59&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(57,'QC20 carry case','qc20-carry-case',14.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>"(" &amp; Prds!A60 &amp; ",'"&amp; Prds!B60 &amp;"','"&amp;Prds!C60&amp;"',"&amp;Prds!D60&amp;","&amp;Prds!F60&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(58,'SoundLink wireless headphones II carry case','soundlink-wireless-headphones-ii-carry-case',19.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>"(" &amp; Prds!A61 &amp; ",'"&amp; Prds!B61 &amp;"','"&amp;Prds!C61&amp;"',"&amp;Prds!D61&amp;","&amp;Prds!F61&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(59,'StayHear Ultra tips (2 pr)','stayhear-ultra-tips-2-pr',9.99,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>"(" &amp; Prds!A62 &amp; ",'"&amp; Prds!B62 &amp;"','"&amp;Prds!C62&amp;"',"&amp;Prds!D62&amp;","&amp;Prds!F62&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(60,'SoundSport Pulse Stayhear+ tips (2 pairs) ','soundsport-pulse-stayhearplus-tips-2-pairs-',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>"(" &amp; Prds!A63 &amp; ",'"&amp; Prds!B63 &amp;"','"&amp;Prds!C63&amp;"',"&amp;Prds!D63&amp;","&amp;Prds!F63&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(61,'QuietComfort 3 audio cable','quietcomfort-3-audio-cable',15,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>"(" &amp; Prds!A64 &amp; ",'"&amp; Prds!B64 &amp;"','"&amp;Prds!C64&amp;"',"&amp;Prds!D64&amp;","&amp;Prds!F64&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(62,'6-pin to dual G/A plug adapter','6-pin-to-dual-g-a-plug-adapter',59.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>"(" &amp; Prds!A65 &amp; ",'"&amp; Prds!B65 &amp;"','"&amp;Prds!C65&amp;"',"&amp;Prds!D65&amp;","&amp;Prds!F65&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(63,'SoundSport carry case','soundsport-carry-case',12.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>"(" &amp; Prds!A66 &amp; ",'"&amp; Prds!B66 &amp;"','"&amp;Prds!C66&amp;"',"&amp;Prds!D66&amp;","&amp;Prds!F66&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(64,'A20 Headset high impedance microphone windscreen','a20-headset-high-impedance-microphone-windscreen',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>"(" &amp; Prds!A67 &amp; ",'"&amp; Prds!B67 &amp;"','"&amp;Prds!C67&amp;"',"&amp;Prds!D67&amp;","&amp;Prds!F67&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(65,'SoundLink on-ear carry case','soundlink-on-ear-carry-case',19.99,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>"(" &amp; Prds!A68 &amp; ",'"&amp; Prds!B68 &amp;"','"&amp;Prds!C68&amp;"',"&amp;Prds!D68&amp;","&amp;Prds!F68&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(66,'SoundLink Color Bluetooth speaker II','soundlink-color-bluetooth-speaker-ii',129.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>"(" &amp; Prds!A69 &amp; ",'"&amp; Prds!B69 &amp;"','"&amp;Prds!C69&amp;"',"&amp;Prds!D69&amp;","&amp;Prds!F69&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(67,'SoundLink Revolve+ Bluetooth speaker','soundlink-revolveplus-bluetooth-speaker',299.95,269.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>"(" &amp; Prds!A70 &amp; ",'"&amp; Prds!B70 &amp;"','"&amp;Prds!C70&amp;"',"&amp;Prds!D70&amp;","&amp;Prds!F70&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(68,'SoundLink Micro Bluetooth speaker','soundlink-micro-bluetooth-speaker',99.95,79.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>"(" &amp; Prds!A71 &amp; ",'"&amp; Prds!B71 &amp;"','"&amp;Prds!C71&amp;"',"&amp;Prds!D71&amp;","&amp;Prds!F71&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(69,'SoundLink Mini Bluetooth speaker II','soundlink-mini-bluetooth-speaker-ii',199.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>"(" &amp; Prds!A72 &amp; ",'"&amp; Prds!B72 &amp;"','"&amp;Prds!C72&amp;"',"&amp;Prds!D72&amp;","&amp;Prds!F72&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(70,'BOSEbuild Speaker Cube','bosebuild-speaker-cube',99.95,69.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>"(" &amp; Prds!A73 &amp; ",'"&amp; Prds!B73 &amp;"','"&amp;Prds!C73&amp;"',"&amp;Prds!D73&amp;","&amp;Prds!F73&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(71,'SoundLink Revolve Bluetooth speaker','soundlink-revolve-bluetooth-speaker',199.95,179.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>"(" &amp; Prds!A74 &amp; ",'"&amp; Prds!B74 &amp;"','"&amp;Prds!C74&amp;"',"&amp;Prds!D74&amp;","&amp;Prds!F74&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(72,'S1 Pro system','s1-pro-system',599.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>"(" &amp; Prds!A75 &amp; ",'"&amp; Prds!B75 &amp;"','"&amp;Prds!C75&amp;"',"&amp;Prds!D75&amp;","&amp;Prds!F75&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(73,'Bose Home Speaker 500','bose-home-speaker-500',399.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>"(" &amp; Prds!A76 &amp; ",'"&amp; Prds!B76 &amp;"','"&amp;Prds!C76&amp;"',"&amp;Prds!D76&amp;","&amp;Prds!F76&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(74,'Bose Soundbar 700','bose-soundbar-700',799.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>"(" &amp; Prds!A77 &amp; ",'"&amp; Prds!B77 &amp;"','"&amp;Prds!C77&amp;"',"&amp;Prds!D77&amp;","&amp;Prds!F77&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(75,'Bose Soundbar 500','bose-soundbar-500',549.95,499.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>"(" &amp; Prds!A78 &amp; ",'"&amp; Prds!B78 &amp;"','"&amp;Prds!C78&amp;"',"&amp;Prds!D78&amp;","&amp;Prds!F78&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(76,'Bose Surround Speakers','bose-surround-speakers',299.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>"(" &amp; Prds!A79 &amp; ",'"&amp; Prds!B79 &amp;"','"&amp;Prds!C79&amp;"',"&amp;Prds!D79&amp;","&amp;Prds!F79&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(77,'Bose Bass Module 700','bose-bass-module-700',699.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>"(" &amp; Prds!A80 &amp; ",'"&amp; Prds!B80 &amp;"','"&amp;Prds!C80&amp;"',"&amp;Prds!D80&amp;","&amp;Prds!F80&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(78,'Bose Bass Module 500','bose-bass-module-500',399.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>"(" &amp; Prds!A81 &amp; ",'"&amp; Prds!B81 &amp;"','"&amp;Prds!C81&amp;"',"&amp;Prds!D81&amp;","&amp;Prds!F81&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(79,'SoundTouch 10 wireless speaker','soundtouch-10-wireless-speaker',199.95,169.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>"(" &amp; Prds!A82 &amp; ",'"&amp; Prds!B82 &amp;"','"&amp;Prds!C82&amp;"',"&amp;Prds!D82&amp;","&amp;Prds!F82&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(80,'SoundTouch 20 wireless speaker','soundtouch-20-wireless-speaker',349.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>"(" &amp; Prds!A83 &amp; ",'"&amp; Prds!B83 &amp;"','"&amp;Prds!C83&amp;"',"&amp;Prds!D83&amp;","&amp;Prds!F83&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(81,'SoundTouch 30 wireless speaker','soundtouch-30-wireless-speaker',499.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>"(" &amp; Prds!A84 &amp; ",'"&amp; Prds!B84 &amp;"','"&amp;Prds!C84&amp;"',"&amp;Prds!D84&amp;","&amp;Prds!F84&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(82,'SoundTouch Wireless Link adapter','soundtouch-wireless-link-adapter',149.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>"(" &amp; Prds!A85 &amp; ",'"&amp; Prds!B85 &amp;"','"&amp;Prds!C85&amp;"',"&amp;Prds!D85&amp;","&amp;Prds!F85&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(83,'SoundTouch SA-5 amplifier','soundtouch-sa-5-amplifier',499.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>"(" &amp; Prds!A86 &amp; ",'"&amp; Prds!B86 &amp;"','"&amp;Prds!C86&amp;"',"&amp;Prds!D86&amp;","&amp;Prds!F86&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(84,'SoundTouch outdoor wireless system with 251 speakers','soundtouch-outdoor-wireless-system-with-251-speakers',898.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>"(" &amp; Prds!A87 &amp; ",'"&amp; Prds!B87 &amp;"','"&amp;Prds!C87&amp;"',"&amp;Prds!D87&amp;","&amp;Prds!F87&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(85,'Bose Solo 5 TV sound system','bose-solo-5-tv-sound-system',249.95,199.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>"(" &amp; Prds!A88 &amp; ",'"&amp; Prds!B88 &amp;"','"&amp;Prds!C88&amp;"',"&amp;Prds!D88&amp;","&amp;Prds!F88&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(86,'Acoustimass 10 home theater speaker system','acoustimass-10-home-theater-speaker-system',999.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>"(" &amp; Prds!A89 &amp; ",'"&amp; Prds!B89 &amp;"','"&amp;Prds!C89&amp;"',"&amp;Prds!D89&amp;","&amp;Prds!F89&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(87,'Lifestyle 650 home entertainment system','lifestyle-650-home-entertainment-system',3999.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>"(" &amp; Prds!A90 &amp; ",'"&amp; Prds!B90 &amp;"','"&amp;Prds!C90&amp;"',"&amp;Prds!D90&amp;","&amp;Prds!F90&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(88,'Lifestyle 600 home entertainment system','lifestyle-600-home-entertainment-system',2999.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>"(" &amp; Prds!A91 &amp; ",'"&amp; Prds!B91 &amp;"','"&amp;Prds!C91&amp;"',"&amp;Prds!D91&amp;","&amp;Prds!F91&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(89,'SoundTouch 300 soundbar','soundtouch-300-soundbar',699.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>"(" &amp; Prds!A92 &amp; ",'"&amp; Prds!B92 &amp;"','"&amp;Prds!C92&amp;"',"&amp;Prds!D92&amp;","&amp;Prds!F92&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(90,'Wave system IV','wave-system-iv',499.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>"(" &amp; Prds!A93 &amp; ",'"&amp; Prds!B93 &amp;"','"&amp;Prds!C93&amp;"',"&amp;Prds!D93&amp;","&amp;Prds!F93&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(91,'Wave SoundTouch music system IV','wave-soundtouch-music-system-iv',599.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>"(" &amp; Prds!A94 &amp; ",'"&amp; Prds!B94 &amp;"','"&amp;Prds!C94&amp;"',"&amp;Prds!D94&amp;","&amp;Prds!F94&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(92,'Companion 2 computer speakers','companion-2-computer-speakers',99.95,89.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>"(" &amp; Prds!A95 &amp; ",'"&amp; Prds!B95 &amp;"','"&amp;Prds!C95&amp;"',"&amp;Prds!D95&amp;","&amp;Prds!F95&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(93,'Acoustimass 5 stereo speaker system','acoustimass-5-stereo-speaker-system',399.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>"(" &amp; Prds!A96 &amp; ",'"&amp; Prds!B96 &amp;"','"&amp;Prds!C96&amp;"',"&amp;Prds!D96&amp;","&amp;Prds!F96&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(94,'301 bookshelf speakers','301-bookshelf-speakers',328.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>"(" &amp; Prds!A97 &amp; ",'"&amp; Prds!B97 &amp;"','"&amp;Prds!C97&amp;"',"&amp;Prds!D97&amp;","&amp;Prds!F97&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(96,'Companion 20 computer speakers','companion-20-computer-speakers',249.95,224.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>"(" &amp; Prds!A98 &amp; ",'"&amp; Prds!B98 &amp;"','"&amp;Prds!C98&amp;"',"&amp;Prds!D98&amp;","&amp;Prds!F98&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(97,'151 outdoor speakers','151-outdoor-speakers',278.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>"(" &amp; Prds!A99 &amp; ",'"&amp; Prds!B99 &amp;"','"&amp;Prds!C99&amp;"',"&amp;Prds!D99&amp;","&amp;Prds!F99&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(98,'161 bookshelf speakers','161-bookshelf-speakers',158.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>"(" &amp; Prds!A100 &amp; ",'"&amp; Prds!B100 &amp;"','"&amp;Prds!C100&amp;"',"&amp;Prds!D100&amp;","&amp;Prds!F100&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(99,'791 in-ceiling speakers II','791-in-ceiling-speakers-ii',599.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>"(" &amp; Prds!A101 &amp; ",'"&amp; Prds!B101 &amp;"','"&amp;Prds!C101&amp;"',"&amp;Prds!D101&amp;","&amp;Prds!F101&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(100,'Free Space 51 outdoor speakers','free-space-51-outdoor-speakers',449.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>"(" &amp; Prds!A102 &amp; ",'"&amp; Prds!B102 &amp;"','"&amp;Prds!C102&amp;"',"&amp;Prds!D102&amp;","&amp;Prds!F102&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(101,'251 outdoor speakers','251-outdoor-speakers',398.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>"(" &amp; Prds!A103 &amp; ",'"&amp; Prds!B103 &amp;"','"&amp;Prds!C103&amp;"',"&amp;Prds!D103&amp;","&amp;Prds!F103&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(103,'201 bookshelf speakers','201-bookshelf-speakers',218.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>"(" &amp; Prds!A104 &amp; ",'"&amp; Prds!B104 &amp;"','"&amp;Prds!C104&amp;"',"&amp;Prds!D104&amp;","&amp;Prds!F104&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(104,'891 in-wall speakers','891-in-wall-speakers',599.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>"(" &amp; Prds!A105 &amp; ",'"&amp; Prds!B105 &amp;"','"&amp;Prds!C105&amp;"',"&amp;Prds!D105&amp;","&amp;Prds!F105&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(105,'591 in-ceiling speakers','591-in-ceiling-speakers',449.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>"(" &amp; Prds!A106 &amp; ",'"&amp; Prds!B106 &amp;"','"&amp;Prds!C106&amp;"',"&amp;Prds!D106&amp;","&amp;Prds!F106&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(106,'691 in-wall speakers','691-in-wall-speakers',449.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>"(" &amp; Prds!A107 &amp; ",'"&amp; Prds!B107 &amp;"','"&amp;Prds!C107&amp;"',"&amp;Prds!D107&amp;","&amp;Prds!F107&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(107,'L1 Compact system','l1-compact-system',849.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>"(" &amp; Prds!A108 &amp; ",'"&amp; Prds!B108 &amp;"','"&amp;Prds!C108&amp;"',"&amp;Prds!D108&amp;","&amp;Prds!F108&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(108,'F1 Model 812 loudspeaker with F1 Subwoofer','f1-model-812-loudspeaker-with-f1-subwoofer',2399.9,2039.91,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>"(" &amp; Prds!A109 &amp; ",'"&amp; Prds!B109 &amp;"','"&amp;Prds!C109&amp;"',"&amp;Prds!D109&amp;","&amp;Prds!F109&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(109,'F1 Model 812 Flexible Array loudspeaker','f1-model-812-flexible-array-loudspeaker',1199.95,1019.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>"(" &amp; Prds!A110 &amp; ",'"&amp; Prds!B110 &amp;"','"&amp;Prds!C110&amp;"',"&amp;Prds!D110&amp;","&amp;Prds!F110&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(110,'L1 II system/B2 bass','l1-ii-system-b2-bass',2699.95,2294.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>"(" &amp; Prds!A111 &amp; ",'"&amp; Prds!B111 &amp;"','"&amp;Prds!C111&amp;"',"&amp;Prds!D111&amp;","&amp;Prds!F111&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(111,'L1 Compact Wireless package','l1-compact-wireless-package',1099.95,934.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>"(" &amp; Prds!A112 &amp; ",'"&amp; Prds!B112 &amp;"','"&amp;Prds!C112&amp;"',"&amp;Prds!D112&amp;","&amp;Prds!F112&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(112,'T4S ToneMatch mixer','t4s-tonematch-mixer',599.95,509.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>"(" &amp; Prds!A113 &amp; ",'"&amp; Prds!B113 &amp;"','"&amp;Prds!C113&amp;"',"&amp;Prds!D113&amp;","&amp;Prds!F113&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(113,'T8S ToneMatch mixer','t8s-tonematch-mixer',899.95,764.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>"(" &amp; Prds!A114 &amp; ",'"&amp; Prds!B114 &amp;"','"&amp;Prds!C114&amp;"',"&amp;Prds!D114&amp;","&amp;Prds!F114&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(114,'F1 Subwoofer','f1-subwoofer',1199.95,1019.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>"(" &amp; Prds!A115 &amp; ",'"&amp; Prds!B115 &amp;"','"&amp;Prds!C115&amp;"',"&amp;Prds!D115&amp;","&amp;Prds!F115&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(115,'L1 1S system/B2 bass','l1-1s-system-b2-bass',1999.95,1699.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>"(" &amp; Prds!A116 &amp; ",'"&amp; Prds!B116 &amp;"','"&amp;Prds!C116&amp;"',"&amp;Prds!D116&amp;","&amp;Prds!F116&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(116,'L1 1S system/B1 bass','l1-1s-system-b1-bass',1799.95,1529.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>"(" &amp; Prds!A117 &amp; ",'"&amp; Prds!B117 &amp;"','"&amp;Prds!C117&amp;"',"&amp;Prds!D117&amp;","&amp;Prds!F117&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(117,'L1 II system/B1 bass','l1-ii-system-b1-bass',2499.95,2124.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>"(" &amp; Prds!A118 &amp; ",'"&amp; Prds!B118 &amp;"','"&amp;Prds!C118&amp;"',"&amp;Prds!D118&amp;","&amp;Prds!F118&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(118,'Two F1 Model 812 loudspeakers with F1 Subwoofer','two-f1-model-812-loudspeakers-with-f1-subwoofer',3599.95,3057.87,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>"(" &amp; Prds!A119 &amp; ",'"&amp; Prds!B119 &amp;"','"&amp;Prds!C119&amp;"',"&amp;Prds!D119&amp;","&amp;Prds!F119&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(119,'SoundLink Revolve charging cradle','soundlink-revolve-charging-cradle',29.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>"(" &amp; Prds!A120 &amp; ",'"&amp; Prds!B120 &amp;"','"&amp;Prds!C120&amp;"',"&amp;Prds!D120&amp;","&amp;Prds!F120&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(120,'Bose Soundbar Wall Bracket','bose-soundbar-wall-bracket',39.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>"(" &amp; Prds!A121 &amp; ",'"&amp; Prds!B121 &amp;"','"&amp;Prds!C121&amp;"',"&amp;Prds!D121&amp;","&amp;Prds!F121&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(121,'Bose Soundbar Universal Remote','bose-soundbar-universal-remote',49.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>"(" &amp; Prds!A122 &amp; ",'"&amp; Prds!B122 &amp;"','"&amp;Prds!C122&amp;"',"&amp;Prds!D122&amp;","&amp;Prds!F122&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(122,'SoundXtra TV stand for SoundTouch 300','soundxtra-tv-stand-for-soundtouch-300',129.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>"(" &amp; Prds!A123 &amp; ",'"&amp; Prds!B123 &amp;"','"&amp;Prds!C123&amp;"',"&amp;Prds!D123&amp;","&amp;Prds!F123&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(123,'S1 Pro Slip Cover','s1-pro-slip-cover',29.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>"(" &amp; Prds!A124 &amp; ",'"&amp; Prds!B124 &amp;"','"&amp;Prds!C124&amp;"',"&amp;Prds!D124&amp;","&amp;Prds!F124&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(124,'S1 Pro Backpack','s1-pro-backpack',149.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>"(" &amp; Prds!A125 &amp; ",'"&amp; Prds!B125 &amp;"','"&amp;Prds!C125&amp;"',"&amp;Prds!D125&amp;","&amp;Prds!F125&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(125,'SoundXtra floor stand for SoundTouch 20','soundxtra-floor-stand-for-soundtouch-20',129.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>"(" &amp; Prds!A126 &amp; ",'"&amp; Prds!B126 &amp;"','"&amp;Prds!C126&amp;"',"&amp;Prds!D126&amp;","&amp;Prds!F126&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(126,'Wave FM antenna','wave-fm-antenna',9.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>"(" &amp; Prds!A127 &amp; ",'"&amp; Prds!B127 &amp;"','"&amp;Prds!C127&amp;"',"&amp;Prds!D127&amp;","&amp;Prds!F127&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(127,'RC-PWS III universal remote','rc-pws-iii-universal-remote',29.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>"(" &amp; Prds!A128 &amp; ",'"&amp; Prds!B128 &amp;"','"&amp;Prds!C128&amp;"',"&amp;Prds!D128&amp;","&amp;Prds!F128&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(128,'UB-20 II wall/ceiling bracket','ub-20-ii-wall-ceiling-bracket',34.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>"(" &amp; Prds!A129 &amp; ",'"&amp; Prds!B129 &amp;"','"&amp;Prds!C129&amp;"',"&amp;Prds!D129&amp;","&amp;Prds!F129&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(129,'UFS-20 II floorstands','ufs-20-ii-floorstands',119.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>"(" &amp; Prds!A130 &amp; ",'"&amp; Prds!B130 &amp;"','"&amp;Prds!C130&amp;"',"&amp;Prds!D130&amp;","&amp;Prds!F130&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(130,'SoundWear Companion cover','soundwear-companion-cover',29.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>"(" &amp; Prds!A131 &amp; ",'"&amp; Prds!B131 &amp;"','"&amp;Prds!C131&amp;"',"&amp;Prds!D131&amp;","&amp;Prds!F131&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(131,'Speaker wire adapter kot','speaker-wire-adapter-kot',39.99,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>"(" &amp; Prds!A132 &amp; ",'"&amp; Prds!B132 &amp;"','"&amp;Prds!C132&amp;"',"&amp;Prds!D132&amp;","&amp;Prds!F132&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(132,'B1 bass module','b1-bass-module',299.95,254.96,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>"(" &amp; Prds!A133 &amp; ",'"&amp; Prds!B133 &amp;"','"&amp;Prds!C133&amp;"',"&amp;Prds!D133&amp;","&amp;Prds!F133&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(133,'SlideConnect wall bracket','slideconnect-wall-bracket',35.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>"(" &amp; Prds!A134 &amp; ",'"&amp; Prds!B134 &amp;"','"&amp;Prds!C134&amp;"',"&amp;Prds!D134&amp;","&amp;Prds!F134&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(134,'WB-300 wall bracket','wb-300-wall-bracket',39.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>"(" &amp; Prds!A135 &amp; ",'"&amp; Prds!B135 &amp;"','"&amp;Prds!C135&amp;"',"&amp;Prds!D135&amp;","&amp;Prds!F135&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(135,'WB-120 wall-mount kit','wb-120-wall-mount-kit',24.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>"(" &amp; Prds!A136 &amp; ",'"&amp; Prds!B136 &amp;"','"&amp;Prds!C136&amp;"',"&amp;Prds!D136&amp;","&amp;Prds!F136&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(136,'L1 Compact microphone accessory pack','l1-compact-microphone-accessory-pack',149.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>"(" &amp; Prds!A137 &amp; ",'"&amp; Prds!B137 &amp;"','"&amp;Prds!C137&amp;"',"&amp;Prds!D137&amp;","&amp;Prds!F137&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(137,'SoundLink Mini travel bag','soundlink-mini-travel-bag',44.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>"(" &amp; Prds!A138 &amp; ",'"&amp; Prds!B138 &amp;"','"&amp;Prds!C138&amp;"',"&amp;Prds!D138&amp;","&amp;Prds!F138&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(138,'UTS-20 II table stand','uts-20-ii-table-stand',34.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>"(" &amp; Prds!A139 &amp; ",'"&amp; Prds!B139 &amp;"','"&amp;Prds!C139&amp;"',"&amp;Prds!D139&amp;","&amp;Prds!F139&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(139,'CineMate speaker wire adapter kit','cinemate-speaker-wire-adapter-kit',39.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>"(" &amp; Prds!A140 &amp; ",'"&amp; Prds!B140 &amp;"','"&amp;Prds!C140&amp;"',"&amp;Prds!D140&amp;","&amp;Prds!F140&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(140,'B1/B2 4-pin cable','b1-b2-4-pin-cable',29.99,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>"(" &amp; Prds!A141 &amp; ",'"&amp; Prds!B141 &amp;"','"&amp;Prds!C141&amp;"',"&amp;Prds!D141&amp;","&amp;Prds!F141&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(141,'SoundXtra TV mount for SoundTouch 300','soundxtra-tv-mount-for-soundtouch-300',119.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>"(" &amp; Prds!A142 &amp; ",'"&amp; Prds!B142 &amp;"','"&amp;Prds!C142&amp;"',"&amp;Prds!D142&amp;","&amp;Prds!F142&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(142,'SoundLink speaker III cover','soundlink-speaker-iii-cover',34.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>"(" &amp; Prds!A143 &amp; ",'"&amp; Prds!B143 &amp;"','"&amp;Prds!C143&amp;"',"&amp;Prds!D143&amp;","&amp;Prds!F143&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(143,'PackLite A1 power amplifier','packlite-a1-power-amplifier',399.95,339.95,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>"(" &amp; Prds!A144 &amp; ",'"&amp; Prds!B144 &amp;"','"&amp;Prds!C144&amp;"',"&amp;Prds!D144&amp;","&amp;Prds!F144&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(144,'WB-3 bookshelf speaker wall brackets','wb-3-bookshelf-speaker-wall-brackets',19.98,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>"(" &amp; Prds!A145 &amp; ",'"&amp; Prds!B145 &amp;"','"&amp;Prds!C145&amp;"',"&amp;Prds!D145&amp;","&amp;Prds!F145&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(145,'B2 bass module','b2-bass-module',424.96,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>"(" &amp; Prds!A146 &amp; ",'"&amp; Prds!B146 &amp;"','"&amp;Prds!C146&amp;"',"&amp;Prds!D146&amp;","&amp;Prds!F146&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(146,'ToneMatch mixer power supply','tonematch-mixer-power-supply',50.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>"(" &amp; Prds!A147 &amp; ",'"&amp; Prds!B147 &amp;"','"&amp;Prds!C147&amp;"',"&amp;Prds!D147&amp;","&amp;Prds!F147&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(147,'SoundLink Revolve and Soundlink Revolve+ wall adapter','soundlink-revolve-and-soundlink-revolveplus-wall-adapter',24.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>"(" &amp; Prds!A148 &amp; ",'"&amp; Prds!B148 &amp;"','"&amp;Prds!C148&amp;"',"&amp;Prds!D148&amp;","&amp;Prds!F148&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(148,'FS-01 bookshelf speaker floorstands','fs-01-bookshelf-speaker-floorstands',89.98,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>"(" &amp; Prds!A149 &amp; ",'"&amp; Prds!B149 &amp;"','"&amp;Prds!C149&amp;"',"&amp;Prds!D149&amp;","&amp;Prds!F149&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(149,'Home theater speaker extension cable','home-theater-speaker-extension-cable',14.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>"(" &amp; Prds!A150 &amp; ",'"&amp; Prds!B150 &amp;"','"&amp;Prds!C150&amp;"',"&amp;Prds!D150&amp;","&amp;Prds!F150&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(150,'Lifestyle 600/650 home entertainment system remote control','lifestyle-600-650-home-entertainment-system-remote-control',99.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>"(" &amp; Prds!A151 &amp; ",'"&amp; Prds!B151 &amp;"','"&amp;Prds!C151&amp;"',"&amp;Prds!D151&amp;","&amp;Prds!F151&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(151,'SoundTouch II remote','soundtouch-ii-remote',14.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>"(" &amp; Prds!A152 &amp; ",'"&amp; Prds!B152 &amp;"','"&amp;Prds!C152&amp;"',"&amp;Prds!D152&amp;","&amp;Prds!F152&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(152,'OmniJewel center channel wire adapter','omnijewel-center-channel-wire-adapter',5.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>"(" &amp; Prds!A153 &amp; ",'"&amp; Prds!B153 &amp;"','"&amp;Prds!C153&amp;"',"&amp;Prds!D153&amp;","&amp;Prds!F153&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(153,'SoundXtra wall mount for SoundTouch 10','soundxtra-wall-mount-for-soundtouch-10',44.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>"(" &amp; Prds!A154 &amp; ",'"&amp; Prds!B154 &amp;"','"&amp;Prds!C154&amp;"',"&amp;Prds!D154&amp;","&amp;Prds!F154&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(154,'791 in-ceiling speakers II rough-in kit','791-in-ceiling-speakers-ii-rough-in-kit',64.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>"(" &amp; Prds!A155 &amp; ",'"&amp; Prds!B155 &amp;"','"&amp;Prds!C155&amp;"',"&amp;Prds!D155&amp;","&amp;Prds!F155&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(155,'WB-135 wall mount kit','wb-135-wall-mount-kit',49.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>"(" &amp; Prds!A156 &amp; ",'"&amp; Prds!B156 &amp;"','"&amp;Prds!C156&amp;"',"&amp;Prds!D156&amp;","&amp;Prds!F156&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(156,'CineMate home theater system-Interface Module','cinemate-home-theater-system-interface-module',79.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>"(" &amp; Prds!A157 &amp; ",'"&amp; Prds!B157 &amp;"','"&amp;Prds!C157&amp;"',"&amp;Prds!D157&amp;","&amp;Prds!F157&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(157,'F1 Model 812 travel bag','f1-model-812-travel-bag',139,118.15,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>"(" &amp; Prds!A158 &amp; ",'"&amp; Prds!B158 &amp;"','"&amp;Prds!C158&amp;"',"&amp;Prds!D158&amp;","&amp;Prds!F158&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(158,'891 in-wall speakers rough-in kit','891-in-wall-speakers-rough-in-kit',64.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>"(" &amp; Prds!A159 &amp; ",'"&amp; Prds!B159 &amp;"','"&amp;Prds!C159&amp;"',"&amp;Prds!D159&amp;","&amp;Prds!F159&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(159,'SoundXtra floor stand for SoundTouch 10','soundxtra-floor-stand-for-soundtouch-10',99.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>"(" &amp; Prds!A160 &amp; ",'"&amp; Prds!B160 &amp;"','"&amp;Prds!C160&amp;"',"&amp;Prds!D160&amp;","&amp;Prds!F160&amp;",100,'"&amp;PDesc!$A$1&amp;"'),"</f>
+        <v>(160,'SoundXtra floor stand for SoundTouch 30','soundxtra-floor-stand-for-soundtouch-30',169.95,NULL,100,'&lt;h2&gt;Bacon ipsum&lt;/h2&gt;
+&lt;p&gt;Dolor amet ball tip ham hock tail, jerky pork loin beef ribs landjaeger fatback tri-tip ribeye andouille t-bone. Doner biltong andouille kevin turkey picanha venison t-bone turducken pork pancetta. Pig landjaeger t-bone burgdoggen pastrami sausage. Meatloaf short ribs shoulder t-bone burgdoggen short loin jerky. Landjaeger cow beef, strip steak pig jowl turkey frankfurter pork loin bacon prosciutto porchetta.&lt;/p&gt;
+&lt;h2&gt;Shankle pancetta&lt;/h2&gt;
+&lt;p&gt;Landjaeger turkey brisket sirloin strip steak sausage pastrami chicken kielbasa ham ball tip drumstick. Hamburger pork chop prosciutto shank shankle, fatback doner. Ham hock strip steak meatball venison, sausage tongue jerky bacon pastrami. Ground round picanha shoulder landjaeger.&lt;/p&gt;
+&lt;h2&gt;Cupim tenderloin beef&lt;/h2&gt;
+&lt;p&gt;Shoulder. Drumstick tri-tip beef ribs, jerky alcatra turducken short ribs biltong chicken. Kielbasa t-bone alcatra beef ribs biltong chicken salami landjaeger pancetta pork belly. Short ribs tongue shankle alcatra hamburger cow. Turkey short loin shankle hamburger doner biltong swine pig ham strip steak andouille.&lt;/p&gt;
+&lt;h2&gt;Shankle tail prosciutto fatback&lt;/h2&gt;
+&lt;p&gt;Turducken pork short ribs short loin, rump leberkas bresaola kielbasa capicola flank t-bone. Capicola jerky bacon pig meatloaf, ham pork belly short loin pork chop. Picanha venison andouille meatball shankle. Short loin ham venison, ball tip t-bone turkey pork chop filet mignon bacon doner. Jowl beef ribs jerky short ribs turducken filet mignon pig venison beef corned beef t-bone.&lt;/p&gt;
+&lt;h2&gt;Short ribs&lt;/h2&gt;
+&lt;p&gt;swine tongue pork chop, boudin pork belly porchetta picanha buffalo doner ham flank meatloaf chuck. Ham hock doner flank, turkey tail chuck pastrami short loin shoulder pork chop bacon frankfurter. Cupim sausage pork leberkas alcatra corned beef turducken ball tip rump shankle chicken spare ribs tenderloin jowl prosciutto. Filet mignon cow meatloaf drumstick pork chop pancetta. Jerky chuck biltong, sausage alcatra t-bone pastrami capicola bacon beef ribeye tongue.&lt;/p&gt;'),</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Products.xlsx
+++ b/docs/Products.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cats" sheetId="1" r:id="rId1"/>
     <sheet name="Prds" sheetId="2" r:id="rId2"/>
     <sheet name="PDesc" sheetId="5" r:id="rId3"/>
     <sheet name="ProdCats" sheetId="3" r:id="rId4"/>
-    <sheet name="CSQL" sheetId="4" r:id="rId5"/>
+    <sheet name="PSQL" sheetId="4" r:id="rId5"/>
+    <sheet name="PPHP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -7469,7 +7470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
@@ -9853,4 +9854,967 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A158" sqref="A1:A158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A3&amp;",'name'=&gt;'"&amp;Prds!B3&amp;"','slug'=&gt;'"&amp;Prds!C3&amp;"','org_price'=&gt;"&amp;Prds!D3&amp;",'dct_price'=&gt;"&amp;Prds!F3&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;1,'name'=&gt;'QuietComfort 35 wireless headphones II','slug'=&gt;'quietcomfort-35-wireless-headphones-ii','org_price'=&gt;349.95,'dct_price'=&gt;299.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A4&amp;",'name'=&gt;'"&amp;Prds!B4&amp;"','slug'=&gt;'"&amp;Prds!C4&amp;"','org_price'=&gt;"&amp;Prds!D4&amp;",'dct_price'=&gt;"&amp;Prds!F4&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;2,'name'=&gt;'Custom QuietComfort 35 wireless headphones II','slug'=&gt;'custom-quietcomfort-35-wireless-headphones-ii','org_price'=&gt;399.45,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A5&amp;",'name'=&gt;'"&amp;Prds!B5&amp;"','slug'=&gt;'"&amp;Prds!C5&amp;"','org_price'=&gt;"&amp;Prds!D5&amp;",'dct_price'=&gt;"&amp;Prds!F5&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;3,'name'=&gt;'QC25 noise cancelling headphones Apple devices','slug'=&gt;'qc25-noise-cancelling-headphones-apple-devices','org_price'=&gt;179.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A6&amp;",'name'=&gt;'"&amp;Prds!B6&amp;"','slug'=&gt;'"&amp;Prds!C6&amp;"','org_price'=&gt;"&amp;Prds!D6&amp;",'dct_price'=&gt;"&amp;Prds!F6&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;4,'name'=&gt;'QuietControl 30 wireless headphones','slug'=&gt;'quietcontrol-30-wireless-headphones','org_price'=&gt;299.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A7&amp;",'name'=&gt;'"&amp;Prds!B7&amp;"','slug'=&gt;'"&amp;Prds!C7&amp;"','org_price'=&gt;"&amp;Prds!D7&amp;",'dct_price'=&gt;"&amp;Prds!F7&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;5,'name'=&gt;'QC20 noise cancelling headphones Apple devices','slug'=&gt;'qc20-noise-cancelling-headphones-apple-devices','org_price'=&gt;249.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A8&amp;",'name'=&gt;'"&amp;Prds!B8&amp;"','slug'=&gt;'"&amp;Prds!C8&amp;"','org_price'=&gt;"&amp;Prds!D8&amp;",'dct_price'=&gt;"&amp;Prds!F8&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;6,'name'=&gt;'QC20 noise cancelling headphones Samsung/Android devices','slug'=&gt;'qc20-noise-cancelling-headphones-samsung-android-devices','org_price'=&gt;249.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A9&amp;",'name'=&gt;'"&amp;Prds!B9&amp;"','slug'=&gt;'"&amp;Prds!C9&amp;"','org_price'=&gt;"&amp;Prds!D9&amp;",'dct_price'=&gt;"&amp;Prds!F9&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;7,'name'=&gt;'SoundSport Free wireless headphones','slug'=&gt;'soundsport-free-wireless-headphones','org_price'=&gt;199.95,'dct_price'=&gt;169.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A10&amp;",'name'=&gt;'"&amp;Prds!B10&amp;"','slug'=&gt;'"&amp;Prds!C10&amp;"','org_price'=&gt;"&amp;Prds!D10&amp;",'dct_price'=&gt;"&amp;Prds!F10&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;8,'name'=&gt;'SoundSport wireless headphones','slug'=&gt;'soundsport-wireless-headphones','org_price'=&gt;149.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A11&amp;",'name'=&gt;'"&amp;Prds!B11&amp;"','slug'=&gt;'"&amp;Prds!C11&amp;"','org_price'=&gt;"&amp;Prds!D11&amp;",'dct_price'=&gt;"&amp;Prds!F11&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;9,'name'=&gt;'SoundLink around-ear wireless headphones II','slug'=&gt;'soundlink-around-ear-wireless-headphones-ii','org_price'=&gt;229.95,'dct_price'=&gt;199.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A12&amp;",'name'=&gt;'"&amp;Prds!B12&amp;"','slug'=&gt;'"&amp;Prds!C12&amp;"','org_price'=&gt;"&amp;Prds!D12&amp;",'dct_price'=&gt;"&amp;Prds!F12&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;10,'name'=&gt;'SoundWear Companion speaker','slug'=&gt;'soundwear-companion-speaker','org_price'=&gt;299.95,'dct_price'=&gt;249.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A13&amp;",'name'=&gt;'"&amp;Prds!B13&amp;"','slug'=&gt;'"&amp;Prds!C13&amp;"','org_price'=&gt;"&amp;Prds!D13&amp;",'dct_price'=&gt;"&amp;Prds!F13&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;11,'name'=&gt;'Bose on-ear wireless headphones','slug'=&gt;'bose-on-ear-wireless-headphones','org_price'=&gt;179.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A14&amp;",'name'=&gt;'"&amp;Prds!B14&amp;"','slug'=&gt;'"&amp;Prds!C14&amp;"','org_price'=&gt;"&amp;Prds!D14&amp;",'dct_price'=&gt;"&amp;Prds!F14&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;12,'name'=&gt;'SoundSport Pulse wireless headphones','slug'=&gt;'soundsport-pulse-wireless-headphones','org_price'=&gt;199.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A15&amp;",'name'=&gt;'"&amp;Prds!B15&amp;"','slug'=&gt;'"&amp;Prds!C15&amp;"','org_price'=&gt;"&amp;Prds!D15&amp;",'dct_price'=&gt;"&amp;Prds!F15&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;13,'name'=&gt;'BOSEbuild Headphones','slug'=&gt;'bosebuild-headphones','org_price'=&gt;149.95,'dct_price'=&gt;119.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A16&amp;",'name'=&gt;'"&amp;Prds!B16&amp;"','slug'=&gt;'"&amp;Prds!C16&amp;"','org_price'=&gt;"&amp;Prds!D16&amp;",'dct_price'=&gt;"&amp;Prds!F16&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;14,'name'=&gt;'SoundSport in-ear headphones Apple devices','slug'=&gt;'soundsport-in-ear-headphones-apple-devices','org_price'=&gt;99.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A17&amp;",'name'=&gt;'"&amp;Prds!B17&amp;"','slug'=&gt;'"&amp;Prds!C17&amp;"','org_price'=&gt;"&amp;Prds!D17&amp;",'dct_price'=&gt;"&amp;Prds!F17&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;15,'name'=&gt;'SoundSport in-ear headphones Samsung/Android devices','slug'=&gt;'soundsport-in-ear-headphones-samsung-android-devices','org_price'=&gt;99.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A18&amp;",'name'=&gt;'"&amp;Prds!B18&amp;"','slug'=&gt;'"&amp;Prds!C18&amp;"','org_price'=&gt;"&amp;Prds!D18&amp;",'dct_price'=&gt;"&amp;Prds!F18&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;16,'name'=&gt;'Proflight aviation headset','slug'=&gt;'proflight-aviation-headset','org_price'=&gt;999.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A19&amp;",'name'=&gt;'"&amp;Prds!B19&amp;"','slug'=&gt;'"&amp;Prds!C19&amp;"','org_price'=&gt;"&amp;Prds!D19&amp;",'dct_price'=&gt;"&amp;Prds!F19&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;17,'name'=&gt;'A20 aviation headset','slug'=&gt;'a20-aviation-headset','org_price'=&gt;999.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A20&amp;",'name'=&gt;'"&amp;Prds!B20&amp;"','slug'=&gt;'"&amp;Prds!C20&amp;"','org_price'=&gt;"&amp;Prds!D20&amp;",'dct_price'=&gt;"&amp;Prds!F20&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;18,'name'=&gt;'Bose noise-masking sleepbuds','slug'=&gt;'bose-noise-masking-sleepbuds','org_price'=&gt;249.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A21&amp;",'name'=&gt;'"&amp;Prds!B21&amp;"','slug'=&gt;'"&amp;Prds!C21&amp;"','org_price'=&gt;"&amp;Prds!D21&amp;",'dct_price'=&gt;"&amp;Prds!F21&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;19,'name'=&gt;'Bose Hearphones','slug'=&gt;'bose-hearphones','org_price'=&gt;499.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A22&amp;",'name'=&gt;'"&amp;Prds!B22&amp;"','slug'=&gt;'"&amp;Prds!C22&amp;"','org_price'=&gt;"&amp;Prds!D22&amp;",'dct_price'=&gt;"&amp;Prds!F22&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;20,'name'=&gt;'ProFlight accessory kit','slug'=&gt;'proflight-accessory-kit','org_price'=&gt;31.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A23&amp;",'name'=&gt;'"&amp;Prds!B23&amp;"','slug'=&gt;'"&amp;Prds!C23&amp;"','org_price'=&gt;"&amp;Prds!D23&amp;",'dct_price'=&gt;"&amp;Prds!F23&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;21,'name'=&gt;'ProFlight carry case','slug'=&gt;'proflight-carry-case','org_price'=&gt;24.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A24&amp;",'name'=&gt;'"&amp;Prds!B24&amp;"','slug'=&gt;'"&amp;Prds!C24&amp;"','org_price'=&gt;"&amp;Prds!D24&amp;",'dct_price'=&gt;"&amp;Prds!F24&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;22,'name'=&gt;'ProFlight Headset cable, 5-pin XLR','slug'=&gt;'proflight-headset-cable-5-pin-xlr','org_price'=&gt;295.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A25&amp;",'name'=&gt;'"&amp;Prds!B25&amp;"','slug'=&gt;'"&amp;Prds!C25&amp;"','org_price'=&gt;"&amp;Prds!D25&amp;",'dct_price'=&gt;"&amp;Prds!F25&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;23,'name'=&gt;'ProFlight control module lanyard','slug'=&gt;'proflight-control-module-lanyard','org_price'=&gt;4.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A26&amp;",'name'=&gt;'"&amp;Prds!B26&amp;"','slug'=&gt;'"&amp;Prds!C26&amp;"','org_price'=&gt;"&amp;Prds!D26&amp;",'dct_price'=&gt;"&amp;Prds!F26&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;24,'name'=&gt;'ProFlight termination cap','slug'=&gt;'proflight-termination-cap','org_price'=&gt;4.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A27&amp;",'name'=&gt;'"&amp;Prds!B27&amp;"','slug'=&gt;'"&amp;Prds!C27&amp;"','org_price'=&gt;"&amp;Prds!D27&amp;",'dct_price'=&gt;"&amp;Prds!F27&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;25,'name'=&gt;'ProFlight microphone windscreen','slug'=&gt;'proflight-microphone-windscreen','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A28&amp;",'name'=&gt;'"&amp;Prds!B28&amp;"','slug'=&gt;'"&amp;Prds!C28&amp;"','org_price'=&gt;"&amp;Prds!D28&amp;",'dct_price'=&gt;"&amp;Prds!F28&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;26,'name'=&gt;'ProFlight headband pad','slug'=&gt;'proflight-headband-pad','org_price'=&gt;12.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A29&amp;",'name'=&gt;'"&amp;Prds!B29&amp;"','slug'=&gt;'"&amp;Prds!C29&amp;"','org_price'=&gt;"&amp;Prds!D29&amp;",'dct_price'=&gt;"&amp;Prds!F29&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;27,'name'=&gt;'ProFlight Headset cable, 6-pin Lemo','slug'=&gt;'proflight-headset-cable-6-pin-lemo','org_price'=&gt;295.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A30&amp;",'name'=&gt;'"&amp;Prds!B30&amp;"','slug'=&gt;'"&amp;Prds!C30&amp;"','org_price'=&gt;"&amp;Prds!D30&amp;",'dct_price'=&gt;"&amp;Prds!F30&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;28,'name'=&gt;'ProFlight side cushions','slug'=&gt;'proflight-side-cushions','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A31&amp;",'name'=&gt;'"&amp;Prds!B31&amp;"','slug'=&gt;'"&amp;Prds!C31&amp;"','org_price'=&gt;"&amp;Prds!D31&amp;",'dct_price'=&gt;"&amp;Prds!F31&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;29,'name'=&gt;'ProFlight Headset cable, dual plugs','slug'=&gt;'proflight-headset-cable-dual-plugs','org_price'=&gt;295.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A32&amp;",'name'=&gt;'"&amp;Prds!B32&amp;"','slug'=&gt;'"&amp;Prds!C32&amp;"','org_price'=&gt;"&amp;Prds!D32&amp;",'dct_price'=&gt;"&amp;Prds!F32&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;30,'name'=&gt;'StayHear+ Sleep tips (2 pairs)','slug'=&gt;'stayhearplus-sleep-tips-2-pairs','org_price'=&gt;7.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A33&amp;",'name'=&gt;'"&amp;Prds!B33&amp;"','slug'=&gt;'"&amp;Prds!C33&amp;"','org_price'=&gt;"&amp;Prds!D33&amp;",'dct_price'=&gt;"&amp;Prds!F33&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;31,'name'=&gt;'QuietComfort 15 and 2 headphones ear cushion kit','slug'=&gt;'quietcomfort-15-and-2-headphones-ear-cushion-kit','org_price'=&gt;35,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A34&amp;",'name'=&gt;'"&amp;Prds!B34&amp;"','slug'=&gt;'"&amp;Prds!C34&amp;"','org_price'=&gt;"&amp;Prds!D34&amp;",'dct_price'=&gt;"&amp;Prds!F34&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;32,'name'=&gt;'SoundLink on-ear cushion kit','slug'=&gt;'soundlink-on-ear-cushion-kit','org_price'=&gt;24.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A35&amp;",'name'=&gt;'"&amp;Prds!B35&amp;"','slug'=&gt;'"&amp;Prds!C35&amp;"','org_price'=&gt;"&amp;Prds!D35&amp;",'dct_price'=&gt;"&amp;Prds!F35&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;33,'name'=&gt;'StayHear+ Sport tips (2 pairs)','slug'=&gt;'stayhearplus-sport-tips-2-pairs','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A36&amp;",'name'=&gt;'"&amp;Prds!B36&amp;"','slug'=&gt;'"&amp;Prds!C36&amp;"','org_price'=&gt;"&amp;Prds!D36&amp;",'dct_price'=&gt;"&amp;Prds!F36&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;34,'name'=&gt;'QC airline adapter','slug'=&gt;'qc-airline-adapter','org_price'=&gt;7.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A37&amp;",'name'=&gt;'"&amp;Prds!B37&amp;"','slug'=&gt;'"&amp;Prds!C37&amp;"','org_price'=&gt;"&amp;Prds!D37&amp;",'dct_price'=&gt;"&amp;Prds!F37&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;35,'name'=&gt;'QC35 ear cushion kit','slug'=&gt;'qc35-ear-cushion-kit','org_price'=&gt;34.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A38&amp;",'name'=&gt;'"&amp;Prds!B38&amp;"','slug'=&gt;'"&amp;Prds!C38&amp;"','org_price'=&gt;"&amp;Prds!D38&amp;",'dct_price'=&gt;"&amp;Prds!F38&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;36,'name'=&gt;'SoundLink wireless headphones II audio cable','slug'=&gt;'soundlink-wireless-headphones-ii-audio-cable','org_price'=&gt;6.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A39&amp;",'name'=&gt;'"&amp;Prds!B39&amp;"','slug'=&gt;'"&amp;Prds!C39&amp;"','org_price'=&gt;"&amp;Prds!D39&amp;",'dct_price'=&gt;"&amp;Prds!F39&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;37,'name'=&gt;'SoundSport charging case','slug'=&gt;'soundsport-charging-case','org_price'=&gt;49.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A40&amp;",'name'=&gt;'"&amp;Prds!B40&amp;"','slug'=&gt;'"&amp;Prds!C40&amp;"','org_price'=&gt;"&amp;Prds!D40&amp;",'dct_price'=&gt;"&amp;Prds!F40&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;38,'name'=&gt;'StayHear tips (2 pr)','slug'=&gt;'stayhear-tips-2-pr','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A41&amp;",'name'=&gt;'"&amp;Prds!B41&amp;"','slug'=&gt;'"&amp;Prds!C41&amp;"','org_price'=&gt;"&amp;Prds!D41&amp;",'dct_price'=&gt;"&amp;Prds!F41&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;39,'name'=&gt;'QC25 ear cushion kit','slug'=&gt;'qc25-ear-cushion-kit','org_price'=&gt;34.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A42&amp;",'name'=&gt;'"&amp;Prds!B42&amp;"','slug'=&gt;'"&amp;Prds!C42&amp;"','org_price'=&gt;"&amp;Prds!D42&amp;",'dct_price'=&gt;"&amp;Prds!F42&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;40,'name'=&gt;'QC25 inline mic/remote Samsung and Android devices','slug'=&gt;'qc25-inline-mic-remote-samsung-and-android-devices','org_price'=&gt;29.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A43&amp;",'name'=&gt;'"&amp;Prds!B43&amp;"','slug'=&gt;'"&amp;Prds!C43&amp;"','org_price'=&gt;"&amp;Prds!D43&amp;",'dct_price'=&gt;"&amp;Prds!F43&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;41,'name'=&gt;'USB cable','slug'=&gt;'usb-cable','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A44&amp;",'name'=&gt;'"&amp;Prds!B44&amp;"','slug'=&gt;'"&amp;Prds!C44&amp;"','org_price'=&gt;"&amp;Prds!D44&amp;",'dct_price'=&gt;"&amp;Prds!F44&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;42,'name'=&gt;'SoundLink wireless headphones II ear cushion kit','slug'=&gt;'soundlink-wireless-headphones-ii-ear-cushion-kit','org_price'=&gt;24.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A45&amp;",'name'=&gt;'"&amp;Prds!B45&amp;"','slug'=&gt;'"&amp;Prds!C45&amp;"','org_price'=&gt;"&amp;Prds!D45&amp;",'dct_price'=&gt;"&amp;Prds!F45&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;43,'name'=&gt;'SoundSport wireless headphones carry case','slug'=&gt;'soundsport-wireless-headphones-carry-case','org_price'=&gt;12.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A46&amp;",'name'=&gt;'"&amp;Prds!B46&amp;"','slug'=&gt;'"&amp;Prds!C46&amp;"','org_price'=&gt;"&amp;Prds!D46&amp;",'dct_price'=&gt;"&amp;Prds!F46&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;44,'name'=&gt;'SoundSport wireless headphones clothing clip','slug'=&gt;'soundsport-wireless-headphones-clothing-clip','org_price'=&gt;3.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A47&amp;",'name'=&gt;'"&amp;Prds!B47&amp;"','slug'=&gt;'"&amp;Prds!C47&amp;"','org_price'=&gt;"&amp;Prds!D47&amp;",'dct_price'=&gt;"&amp;Prds!F47&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;45,'name'=&gt;'SoundSport Free portable charging case','slug'=&gt;'soundsport-free-portable-charging-case','org_price'=&gt;49.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A48&amp;",'name'=&gt;'"&amp;Prds!B48&amp;"','slug'=&gt;'"&amp;Prds!C48&amp;"','org_price'=&gt;"&amp;Prds!D48&amp;",'dct_price'=&gt;"&amp;Prds!F48&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;46,'name'=&gt;'QC35 carry case','slug'=&gt;'qc35-carry-case','org_price'=&gt;24.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A49&amp;",'name'=&gt;'"&amp;Prds!B49&amp;"','slug'=&gt;'"&amp;Prds!C49&amp;"','org_price'=&gt;"&amp;Prds!D49&amp;",'dct_price'=&gt;"&amp;Prds!F49&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;47,'name'=&gt;'QC20 headphones clothing clip','slug'=&gt;'qc20-headphones-clothing-clip','org_price'=&gt;3.99,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A50&amp;",'name'=&gt;'"&amp;Prds!B50&amp;"','slug'=&gt;'"&amp;Prds!C50&amp;"','org_price'=&gt;"&amp;Prds!D50&amp;",'dct_price'=&gt;"&amp;Prds!F50&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;48,'name'=&gt;'Wall charger plus international adapters','slug'=&gt;'wall-charger-plus-international-adapters','org_price'=&gt;19.99,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A51&amp;",'name'=&gt;'"&amp;Prds!B51&amp;"','slug'=&gt;'"&amp;Prds!C51&amp;"','org_price'=&gt;"&amp;Prds!D51&amp;",'dct_price'=&gt;"&amp;Prds!F51&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;49,'name'=&gt;'SoundLink on-ear audio cable','slug'=&gt;'soundlink-on-ear-audio-cable','org_price'=&gt;6.99,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A52&amp;",'name'=&gt;'"&amp;Prds!B52&amp;"','slug'=&gt;'"&amp;Prds!C52&amp;"','org_price'=&gt;"&amp;Prds!D52&amp;",'dct_price'=&gt;"&amp;Prds!F52&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;50,'name'=&gt;'QC25 inline mic/remote Apple devices','slug'=&gt;'qc25-inline-mic-remote-apple-devices','org_price'=&gt;29.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A53&amp;",'name'=&gt;'"&amp;Prds!B53&amp;"','slug'=&gt;'"&amp;Prds!C53&amp;"','org_price'=&gt;"&amp;Prds!D53&amp;",'dct_price'=&gt;"&amp;Prds!F53&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;51,'name'=&gt;'QuietComfort 15 audio cable','slug'=&gt;'quietcomfort-15-audio-cable','org_price'=&gt;15,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A54&amp;",'name'=&gt;'"&amp;Prds!B54&amp;"','slug'=&gt;'"&amp;Prds!C54&amp;"','org_price'=&gt;"&amp;Prds!D54&amp;",'dct_price'=&gt;"&amp;Prds!F54&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;52,'name'=&gt;'A20 ear cushions','slug'=&gt;'a20-ear-cushions','org_price'=&gt;29.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A55&amp;",'name'=&gt;'"&amp;Prds!B55&amp;"','slug'=&gt;'"&amp;Prds!C55&amp;"','org_price'=&gt;"&amp;Prds!D55&amp;",'dct_price'=&gt;"&amp;Prds!F55&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;53,'name'=&gt;'AE2 headphones replacement audio cable','slug'=&gt;'ae2-headphones-replacement-audio-cable','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A56&amp;",'name'=&gt;'"&amp;Prds!B56&amp;"','slug'=&gt;'"&amp;Prds!C56&amp;"','org_price'=&gt;"&amp;Prds!D56&amp;",'dct_price'=&gt;"&amp;Prds!F56&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;54,'name'=&gt;'StayHear+ tips (2 pr)','slug'=&gt;'stayhearplus-tips-2-pr','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A57&amp;",'name'=&gt;'"&amp;Prds!B57&amp;"','slug'=&gt;'"&amp;Prds!C57&amp;"','org_price'=&gt;"&amp;Prds!D57&amp;",'dct_price'=&gt;"&amp;Prds!F57&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;55,'name'=&gt;'QuietControl Stayhear+ tips (2 pairs)','slug'=&gt;'quietcontrol-stayhearplus-tips-2-pairs','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A58&amp;",'name'=&gt;'"&amp;Prds!B58&amp;"','slug'=&gt;'"&amp;Prds!C58&amp;"','org_price'=&gt;"&amp;Prds!D58&amp;",'dct_price'=&gt;"&amp;Prds!F58&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;56,'name'=&gt;'QuietComfort 3 ear cushion kit','slug'=&gt;'quietcomfort-3-ear-cushion-kit','org_price'=&gt;35,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A59&amp;",'name'=&gt;'"&amp;Prds!B59&amp;"','slug'=&gt;'"&amp;Prds!C59&amp;"','org_price'=&gt;"&amp;Prds!D59&amp;",'dct_price'=&gt;"&amp;Prds!F59&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;57,'name'=&gt;'QC20 carry case','slug'=&gt;'qc20-carry-case','org_price'=&gt;14.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A60&amp;",'name'=&gt;'"&amp;Prds!B60&amp;"','slug'=&gt;'"&amp;Prds!C60&amp;"','org_price'=&gt;"&amp;Prds!D60&amp;",'dct_price'=&gt;"&amp;Prds!F60&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;58,'name'=&gt;'SoundLink wireless headphones II carry case','slug'=&gt;'soundlink-wireless-headphones-ii-carry-case','org_price'=&gt;19.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A61&amp;",'name'=&gt;'"&amp;Prds!B61&amp;"','slug'=&gt;'"&amp;Prds!C61&amp;"','org_price'=&gt;"&amp;Prds!D61&amp;",'dct_price'=&gt;"&amp;Prds!F61&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;59,'name'=&gt;'StayHear Ultra tips (2 pr)','slug'=&gt;'stayhear-ultra-tips-2-pr','org_price'=&gt;9.99,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A62&amp;",'name'=&gt;'"&amp;Prds!B62&amp;"','slug'=&gt;'"&amp;Prds!C62&amp;"','org_price'=&gt;"&amp;Prds!D62&amp;",'dct_price'=&gt;"&amp;Prds!F62&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;60,'name'=&gt;'SoundSport Pulse Stayhear+ tips (2 pairs) ','slug'=&gt;'soundsport-pulse-stayhearplus-tips-2-pairs-','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A63&amp;",'name'=&gt;'"&amp;Prds!B63&amp;"','slug'=&gt;'"&amp;Prds!C63&amp;"','org_price'=&gt;"&amp;Prds!D63&amp;",'dct_price'=&gt;"&amp;Prds!F63&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;61,'name'=&gt;'QuietComfort 3 audio cable','slug'=&gt;'quietcomfort-3-audio-cable','org_price'=&gt;15,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A64&amp;",'name'=&gt;'"&amp;Prds!B64&amp;"','slug'=&gt;'"&amp;Prds!C64&amp;"','org_price'=&gt;"&amp;Prds!D64&amp;",'dct_price'=&gt;"&amp;Prds!F64&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;62,'name'=&gt;'6-pin to dual G/A plug adapter','slug'=&gt;'6-pin-to-dual-g-a-plug-adapter','org_price'=&gt;59.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A65&amp;",'name'=&gt;'"&amp;Prds!B65&amp;"','slug'=&gt;'"&amp;Prds!C65&amp;"','org_price'=&gt;"&amp;Prds!D65&amp;",'dct_price'=&gt;"&amp;Prds!F65&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;63,'name'=&gt;'SoundSport carry case','slug'=&gt;'soundsport-carry-case','org_price'=&gt;12.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A66&amp;",'name'=&gt;'"&amp;Prds!B66&amp;"','slug'=&gt;'"&amp;Prds!C66&amp;"','org_price'=&gt;"&amp;Prds!D66&amp;",'dct_price'=&gt;"&amp;Prds!F66&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;64,'name'=&gt;'A20 Headset high impedance microphone windscreen','slug'=&gt;'a20-headset-high-impedance-microphone-windscreen','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A67&amp;",'name'=&gt;'"&amp;Prds!B67&amp;"','slug'=&gt;'"&amp;Prds!C67&amp;"','org_price'=&gt;"&amp;Prds!D67&amp;",'dct_price'=&gt;"&amp;Prds!F67&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;65,'name'=&gt;'SoundLink on-ear carry case','slug'=&gt;'soundlink-on-ear-carry-case','org_price'=&gt;19.99,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A68&amp;",'name'=&gt;'"&amp;Prds!B68&amp;"','slug'=&gt;'"&amp;Prds!C68&amp;"','org_price'=&gt;"&amp;Prds!D68&amp;",'dct_price'=&gt;"&amp;Prds!F68&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;66,'name'=&gt;'SoundLink Color Bluetooth speaker II','slug'=&gt;'soundlink-color-bluetooth-speaker-ii','org_price'=&gt;129.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A69&amp;",'name'=&gt;'"&amp;Prds!B69&amp;"','slug'=&gt;'"&amp;Prds!C69&amp;"','org_price'=&gt;"&amp;Prds!D69&amp;",'dct_price'=&gt;"&amp;Prds!F69&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;67,'name'=&gt;'SoundLink Revolve+ Bluetooth speaker','slug'=&gt;'soundlink-revolveplus-bluetooth-speaker','org_price'=&gt;299.95,'dct_price'=&gt;269.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A70&amp;",'name'=&gt;'"&amp;Prds!B70&amp;"','slug'=&gt;'"&amp;Prds!C70&amp;"','org_price'=&gt;"&amp;Prds!D70&amp;",'dct_price'=&gt;"&amp;Prds!F70&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;68,'name'=&gt;'SoundLink Micro Bluetooth speaker','slug'=&gt;'soundlink-micro-bluetooth-speaker','org_price'=&gt;99.95,'dct_price'=&gt;79.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A71&amp;",'name'=&gt;'"&amp;Prds!B71&amp;"','slug'=&gt;'"&amp;Prds!C71&amp;"','org_price'=&gt;"&amp;Prds!D71&amp;",'dct_price'=&gt;"&amp;Prds!F71&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;69,'name'=&gt;'SoundLink Mini Bluetooth speaker II','slug'=&gt;'soundlink-mini-bluetooth-speaker-ii','org_price'=&gt;199.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A72&amp;",'name'=&gt;'"&amp;Prds!B72&amp;"','slug'=&gt;'"&amp;Prds!C72&amp;"','org_price'=&gt;"&amp;Prds!D72&amp;",'dct_price'=&gt;"&amp;Prds!F72&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;70,'name'=&gt;'BOSEbuild Speaker Cube','slug'=&gt;'bosebuild-speaker-cube','org_price'=&gt;99.95,'dct_price'=&gt;69.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A73&amp;",'name'=&gt;'"&amp;Prds!B73&amp;"','slug'=&gt;'"&amp;Prds!C73&amp;"','org_price'=&gt;"&amp;Prds!D73&amp;",'dct_price'=&gt;"&amp;Prds!F73&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;71,'name'=&gt;'SoundLink Revolve Bluetooth speaker','slug'=&gt;'soundlink-revolve-bluetooth-speaker','org_price'=&gt;199.95,'dct_price'=&gt;179.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A74&amp;",'name'=&gt;'"&amp;Prds!B74&amp;"','slug'=&gt;'"&amp;Prds!C74&amp;"','org_price'=&gt;"&amp;Prds!D74&amp;",'dct_price'=&gt;"&amp;Prds!F74&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;72,'name'=&gt;'S1 Pro system','slug'=&gt;'s1-pro-system','org_price'=&gt;599.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A75&amp;",'name'=&gt;'"&amp;Prds!B75&amp;"','slug'=&gt;'"&amp;Prds!C75&amp;"','org_price'=&gt;"&amp;Prds!D75&amp;",'dct_price'=&gt;"&amp;Prds!F75&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;73,'name'=&gt;'Bose Home Speaker 500','slug'=&gt;'bose-home-speaker-500','org_price'=&gt;399.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A76&amp;",'name'=&gt;'"&amp;Prds!B76&amp;"','slug'=&gt;'"&amp;Prds!C76&amp;"','org_price'=&gt;"&amp;Prds!D76&amp;",'dct_price'=&gt;"&amp;Prds!F76&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;74,'name'=&gt;'Bose Soundbar 700','slug'=&gt;'bose-soundbar-700','org_price'=&gt;799.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A77&amp;",'name'=&gt;'"&amp;Prds!B77&amp;"','slug'=&gt;'"&amp;Prds!C77&amp;"','org_price'=&gt;"&amp;Prds!D77&amp;",'dct_price'=&gt;"&amp;Prds!F77&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;75,'name'=&gt;'Bose Soundbar 500','slug'=&gt;'bose-soundbar-500','org_price'=&gt;549.95,'dct_price'=&gt;499.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A78&amp;",'name'=&gt;'"&amp;Prds!B78&amp;"','slug'=&gt;'"&amp;Prds!C78&amp;"','org_price'=&gt;"&amp;Prds!D78&amp;",'dct_price'=&gt;"&amp;Prds!F78&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;76,'name'=&gt;'Bose Surround Speakers','slug'=&gt;'bose-surround-speakers','org_price'=&gt;299.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A79&amp;",'name'=&gt;'"&amp;Prds!B79&amp;"','slug'=&gt;'"&amp;Prds!C79&amp;"','org_price'=&gt;"&amp;Prds!D79&amp;",'dct_price'=&gt;"&amp;Prds!F79&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;77,'name'=&gt;'Bose Bass Module 700','slug'=&gt;'bose-bass-module-700','org_price'=&gt;699.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A80&amp;",'name'=&gt;'"&amp;Prds!B80&amp;"','slug'=&gt;'"&amp;Prds!C80&amp;"','org_price'=&gt;"&amp;Prds!D80&amp;",'dct_price'=&gt;"&amp;Prds!F80&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;78,'name'=&gt;'Bose Bass Module 500','slug'=&gt;'bose-bass-module-500','org_price'=&gt;399.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A81&amp;",'name'=&gt;'"&amp;Prds!B81&amp;"','slug'=&gt;'"&amp;Prds!C81&amp;"','org_price'=&gt;"&amp;Prds!D81&amp;",'dct_price'=&gt;"&amp;Prds!F81&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;79,'name'=&gt;'SoundTouch 10 wireless speaker','slug'=&gt;'soundtouch-10-wireless-speaker','org_price'=&gt;199.95,'dct_price'=&gt;169.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A82&amp;",'name'=&gt;'"&amp;Prds!B82&amp;"','slug'=&gt;'"&amp;Prds!C82&amp;"','org_price'=&gt;"&amp;Prds!D82&amp;",'dct_price'=&gt;"&amp;Prds!F82&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;80,'name'=&gt;'SoundTouch 20 wireless speaker','slug'=&gt;'soundtouch-20-wireless-speaker','org_price'=&gt;349.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A83&amp;",'name'=&gt;'"&amp;Prds!B83&amp;"','slug'=&gt;'"&amp;Prds!C83&amp;"','org_price'=&gt;"&amp;Prds!D83&amp;",'dct_price'=&gt;"&amp;Prds!F83&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;81,'name'=&gt;'SoundTouch 30 wireless speaker','slug'=&gt;'soundtouch-30-wireless-speaker','org_price'=&gt;499.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A84&amp;",'name'=&gt;'"&amp;Prds!B84&amp;"','slug'=&gt;'"&amp;Prds!C84&amp;"','org_price'=&gt;"&amp;Prds!D84&amp;",'dct_price'=&gt;"&amp;Prds!F84&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;82,'name'=&gt;'SoundTouch Wireless Link adapter','slug'=&gt;'soundtouch-wireless-link-adapter','org_price'=&gt;149.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A85&amp;",'name'=&gt;'"&amp;Prds!B85&amp;"','slug'=&gt;'"&amp;Prds!C85&amp;"','org_price'=&gt;"&amp;Prds!D85&amp;",'dct_price'=&gt;"&amp;Prds!F85&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;83,'name'=&gt;'SoundTouch SA-5 amplifier','slug'=&gt;'soundtouch-sa-5-amplifier','org_price'=&gt;499.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A86&amp;",'name'=&gt;'"&amp;Prds!B86&amp;"','slug'=&gt;'"&amp;Prds!C86&amp;"','org_price'=&gt;"&amp;Prds!D86&amp;",'dct_price'=&gt;"&amp;Prds!F86&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;84,'name'=&gt;'SoundTouch outdoor wireless system with 251 speakers','slug'=&gt;'soundtouch-outdoor-wireless-system-with-251-speakers','org_price'=&gt;898.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A87&amp;",'name'=&gt;'"&amp;Prds!B87&amp;"','slug'=&gt;'"&amp;Prds!C87&amp;"','org_price'=&gt;"&amp;Prds!D87&amp;",'dct_price'=&gt;"&amp;Prds!F87&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;85,'name'=&gt;'Bose Solo 5 TV sound system','slug'=&gt;'bose-solo-5-tv-sound-system','org_price'=&gt;249.95,'dct_price'=&gt;199.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A88&amp;",'name'=&gt;'"&amp;Prds!B88&amp;"','slug'=&gt;'"&amp;Prds!C88&amp;"','org_price'=&gt;"&amp;Prds!D88&amp;",'dct_price'=&gt;"&amp;Prds!F88&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;86,'name'=&gt;'Acoustimass 10 home theater speaker system','slug'=&gt;'acoustimass-10-home-theater-speaker-system','org_price'=&gt;999.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A89&amp;",'name'=&gt;'"&amp;Prds!B89&amp;"','slug'=&gt;'"&amp;Prds!C89&amp;"','org_price'=&gt;"&amp;Prds!D89&amp;",'dct_price'=&gt;"&amp;Prds!F89&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;87,'name'=&gt;'Lifestyle 650 home entertainment system','slug'=&gt;'lifestyle-650-home-entertainment-system','org_price'=&gt;3999.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A90&amp;",'name'=&gt;'"&amp;Prds!B90&amp;"','slug'=&gt;'"&amp;Prds!C90&amp;"','org_price'=&gt;"&amp;Prds!D90&amp;",'dct_price'=&gt;"&amp;Prds!F90&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;88,'name'=&gt;'Lifestyle 600 home entertainment system','slug'=&gt;'lifestyle-600-home-entertainment-system','org_price'=&gt;2999.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A91&amp;",'name'=&gt;'"&amp;Prds!B91&amp;"','slug'=&gt;'"&amp;Prds!C91&amp;"','org_price'=&gt;"&amp;Prds!D91&amp;",'dct_price'=&gt;"&amp;Prds!F91&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;89,'name'=&gt;'SoundTouch 300 soundbar','slug'=&gt;'soundtouch-300-soundbar','org_price'=&gt;699.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A92&amp;",'name'=&gt;'"&amp;Prds!B92&amp;"','slug'=&gt;'"&amp;Prds!C92&amp;"','org_price'=&gt;"&amp;Prds!D92&amp;",'dct_price'=&gt;"&amp;Prds!F92&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;90,'name'=&gt;'Wave system IV','slug'=&gt;'wave-system-iv','org_price'=&gt;499.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A93&amp;",'name'=&gt;'"&amp;Prds!B93&amp;"','slug'=&gt;'"&amp;Prds!C93&amp;"','org_price'=&gt;"&amp;Prds!D93&amp;",'dct_price'=&gt;"&amp;Prds!F93&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;91,'name'=&gt;'Wave SoundTouch music system IV','slug'=&gt;'wave-soundtouch-music-system-iv','org_price'=&gt;599.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A94&amp;",'name'=&gt;'"&amp;Prds!B94&amp;"','slug'=&gt;'"&amp;Prds!C94&amp;"','org_price'=&gt;"&amp;Prds!D94&amp;",'dct_price'=&gt;"&amp;Prds!F94&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;92,'name'=&gt;'Companion 2 computer speakers','slug'=&gt;'companion-2-computer-speakers','org_price'=&gt;99.95,'dct_price'=&gt;89.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A95&amp;",'name'=&gt;'"&amp;Prds!B95&amp;"','slug'=&gt;'"&amp;Prds!C95&amp;"','org_price'=&gt;"&amp;Prds!D95&amp;",'dct_price'=&gt;"&amp;Prds!F95&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;93,'name'=&gt;'Acoustimass 5 stereo speaker system','slug'=&gt;'acoustimass-5-stereo-speaker-system','org_price'=&gt;399.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A96&amp;",'name'=&gt;'"&amp;Prds!B96&amp;"','slug'=&gt;'"&amp;Prds!C96&amp;"','org_price'=&gt;"&amp;Prds!D96&amp;",'dct_price'=&gt;"&amp;Prds!F96&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;94,'name'=&gt;'301 bookshelf speakers','slug'=&gt;'301-bookshelf-speakers','org_price'=&gt;328.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A97&amp;",'name'=&gt;'"&amp;Prds!B97&amp;"','slug'=&gt;'"&amp;Prds!C97&amp;"','org_price'=&gt;"&amp;Prds!D97&amp;",'dct_price'=&gt;"&amp;Prds!F97&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;96,'name'=&gt;'Companion 20 computer speakers','slug'=&gt;'companion-20-computer-speakers','org_price'=&gt;249.95,'dct_price'=&gt;224.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A98&amp;",'name'=&gt;'"&amp;Prds!B98&amp;"','slug'=&gt;'"&amp;Prds!C98&amp;"','org_price'=&gt;"&amp;Prds!D98&amp;",'dct_price'=&gt;"&amp;Prds!F98&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;97,'name'=&gt;'151 outdoor speakers','slug'=&gt;'151-outdoor-speakers','org_price'=&gt;278.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A99&amp;",'name'=&gt;'"&amp;Prds!B99&amp;"','slug'=&gt;'"&amp;Prds!C99&amp;"','org_price'=&gt;"&amp;Prds!D99&amp;",'dct_price'=&gt;"&amp;Prds!F99&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;98,'name'=&gt;'161 bookshelf speakers','slug'=&gt;'161-bookshelf-speakers','org_price'=&gt;158.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A100&amp;",'name'=&gt;'"&amp;Prds!B100&amp;"','slug'=&gt;'"&amp;Prds!C100&amp;"','org_price'=&gt;"&amp;Prds!D100&amp;",'dct_price'=&gt;"&amp;Prds!F100&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;99,'name'=&gt;'791 in-ceiling speakers II','slug'=&gt;'791-in-ceiling-speakers-ii','org_price'=&gt;599.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A101&amp;",'name'=&gt;'"&amp;Prds!B101&amp;"','slug'=&gt;'"&amp;Prds!C101&amp;"','org_price'=&gt;"&amp;Prds!D101&amp;",'dct_price'=&gt;"&amp;Prds!F101&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;100,'name'=&gt;'Free Space 51 outdoor speakers','slug'=&gt;'free-space-51-outdoor-speakers','org_price'=&gt;449.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A102&amp;",'name'=&gt;'"&amp;Prds!B102&amp;"','slug'=&gt;'"&amp;Prds!C102&amp;"','org_price'=&gt;"&amp;Prds!D102&amp;",'dct_price'=&gt;"&amp;Prds!F102&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;101,'name'=&gt;'251 outdoor speakers','slug'=&gt;'251-outdoor-speakers','org_price'=&gt;398.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A103&amp;",'name'=&gt;'"&amp;Prds!B103&amp;"','slug'=&gt;'"&amp;Prds!C103&amp;"','org_price'=&gt;"&amp;Prds!D103&amp;",'dct_price'=&gt;"&amp;Prds!F103&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;103,'name'=&gt;'201 bookshelf speakers','slug'=&gt;'201-bookshelf-speakers','org_price'=&gt;218.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A104&amp;",'name'=&gt;'"&amp;Prds!B104&amp;"','slug'=&gt;'"&amp;Prds!C104&amp;"','org_price'=&gt;"&amp;Prds!D104&amp;",'dct_price'=&gt;"&amp;Prds!F104&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;104,'name'=&gt;'891 in-wall speakers','slug'=&gt;'891-in-wall-speakers','org_price'=&gt;599.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A105&amp;",'name'=&gt;'"&amp;Prds!B105&amp;"','slug'=&gt;'"&amp;Prds!C105&amp;"','org_price'=&gt;"&amp;Prds!D105&amp;",'dct_price'=&gt;"&amp;Prds!F105&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;105,'name'=&gt;'591 in-ceiling speakers','slug'=&gt;'591-in-ceiling-speakers','org_price'=&gt;449.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A106&amp;",'name'=&gt;'"&amp;Prds!B106&amp;"','slug'=&gt;'"&amp;Prds!C106&amp;"','org_price'=&gt;"&amp;Prds!D106&amp;",'dct_price'=&gt;"&amp;Prds!F106&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;106,'name'=&gt;'691 in-wall speakers','slug'=&gt;'691-in-wall-speakers','org_price'=&gt;449.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A107&amp;",'name'=&gt;'"&amp;Prds!B107&amp;"','slug'=&gt;'"&amp;Prds!C107&amp;"','org_price'=&gt;"&amp;Prds!D107&amp;",'dct_price'=&gt;"&amp;Prds!F107&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;107,'name'=&gt;'L1 Compact system','slug'=&gt;'l1-compact-system','org_price'=&gt;849.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A108&amp;",'name'=&gt;'"&amp;Prds!B108&amp;"','slug'=&gt;'"&amp;Prds!C108&amp;"','org_price'=&gt;"&amp;Prds!D108&amp;",'dct_price'=&gt;"&amp;Prds!F108&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;108,'name'=&gt;'F1 Model 812 loudspeaker with F1 Subwoofer','slug'=&gt;'f1-model-812-loudspeaker-with-f1-subwoofer','org_price'=&gt;2399.9,'dct_price'=&gt;2039.91,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A109&amp;",'name'=&gt;'"&amp;Prds!B109&amp;"','slug'=&gt;'"&amp;Prds!C109&amp;"','org_price'=&gt;"&amp;Prds!D109&amp;",'dct_price'=&gt;"&amp;Prds!F109&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;109,'name'=&gt;'F1 Model 812 Flexible Array loudspeaker','slug'=&gt;'f1-model-812-flexible-array-loudspeaker','org_price'=&gt;1199.95,'dct_price'=&gt;1019.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A110&amp;",'name'=&gt;'"&amp;Prds!B110&amp;"','slug'=&gt;'"&amp;Prds!C110&amp;"','org_price'=&gt;"&amp;Prds!D110&amp;",'dct_price'=&gt;"&amp;Prds!F110&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;110,'name'=&gt;'L1 II system/B2 bass','slug'=&gt;'l1-ii-system-b2-bass','org_price'=&gt;2699.95,'dct_price'=&gt;2294.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A111&amp;",'name'=&gt;'"&amp;Prds!B111&amp;"','slug'=&gt;'"&amp;Prds!C111&amp;"','org_price'=&gt;"&amp;Prds!D111&amp;",'dct_price'=&gt;"&amp;Prds!F111&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;111,'name'=&gt;'L1 Compact Wireless package','slug'=&gt;'l1-compact-wireless-package','org_price'=&gt;1099.95,'dct_price'=&gt;934.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A112&amp;",'name'=&gt;'"&amp;Prds!B112&amp;"','slug'=&gt;'"&amp;Prds!C112&amp;"','org_price'=&gt;"&amp;Prds!D112&amp;",'dct_price'=&gt;"&amp;Prds!F112&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;112,'name'=&gt;'T4S ToneMatch mixer','slug'=&gt;'t4s-tonematch-mixer','org_price'=&gt;599.95,'dct_price'=&gt;509.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A113&amp;",'name'=&gt;'"&amp;Prds!B113&amp;"','slug'=&gt;'"&amp;Prds!C113&amp;"','org_price'=&gt;"&amp;Prds!D113&amp;",'dct_price'=&gt;"&amp;Prds!F113&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;113,'name'=&gt;'T8S ToneMatch mixer','slug'=&gt;'t8s-tonematch-mixer','org_price'=&gt;899.95,'dct_price'=&gt;764.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A114&amp;",'name'=&gt;'"&amp;Prds!B114&amp;"','slug'=&gt;'"&amp;Prds!C114&amp;"','org_price'=&gt;"&amp;Prds!D114&amp;",'dct_price'=&gt;"&amp;Prds!F114&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;114,'name'=&gt;'F1 Subwoofer','slug'=&gt;'f1-subwoofer','org_price'=&gt;1199.95,'dct_price'=&gt;1019.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A115&amp;",'name'=&gt;'"&amp;Prds!B115&amp;"','slug'=&gt;'"&amp;Prds!C115&amp;"','org_price'=&gt;"&amp;Prds!D115&amp;",'dct_price'=&gt;"&amp;Prds!F115&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;115,'name'=&gt;'L1 1S system/B2 bass','slug'=&gt;'l1-1s-system-b2-bass','org_price'=&gt;1999.95,'dct_price'=&gt;1699.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A116&amp;",'name'=&gt;'"&amp;Prds!B116&amp;"','slug'=&gt;'"&amp;Prds!C116&amp;"','org_price'=&gt;"&amp;Prds!D116&amp;",'dct_price'=&gt;"&amp;Prds!F116&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;116,'name'=&gt;'L1 1S system/B1 bass','slug'=&gt;'l1-1s-system-b1-bass','org_price'=&gt;1799.95,'dct_price'=&gt;1529.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A117&amp;",'name'=&gt;'"&amp;Prds!B117&amp;"','slug'=&gt;'"&amp;Prds!C117&amp;"','org_price'=&gt;"&amp;Prds!D117&amp;",'dct_price'=&gt;"&amp;Prds!F117&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;117,'name'=&gt;'L1 II system/B1 bass','slug'=&gt;'l1-ii-system-b1-bass','org_price'=&gt;2499.95,'dct_price'=&gt;2124.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A118&amp;",'name'=&gt;'"&amp;Prds!B118&amp;"','slug'=&gt;'"&amp;Prds!C118&amp;"','org_price'=&gt;"&amp;Prds!D118&amp;",'dct_price'=&gt;"&amp;Prds!F118&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;118,'name'=&gt;'Two F1 Model 812 loudspeakers with F1 Subwoofer','slug'=&gt;'two-f1-model-812-loudspeakers-with-f1-subwoofer','org_price'=&gt;3599.95,'dct_price'=&gt;3057.87,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A119&amp;",'name'=&gt;'"&amp;Prds!B119&amp;"','slug'=&gt;'"&amp;Prds!C119&amp;"','org_price'=&gt;"&amp;Prds!D119&amp;",'dct_price'=&gt;"&amp;Prds!F119&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;119,'name'=&gt;'SoundLink Revolve charging cradle','slug'=&gt;'soundlink-revolve-charging-cradle','org_price'=&gt;29.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A120&amp;",'name'=&gt;'"&amp;Prds!B120&amp;"','slug'=&gt;'"&amp;Prds!C120&amp;"','org_price'=&gt;"&amp;Prds!D120&amp;",'dct_price'=&gt;"&amp;Prds!F120&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;120,'name'=&gt;'Bose Soundbar Wall Bracket','slug'=&gt;'bose-soundbar-wall-bracket','org_price'=&gt;39.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A121&amp;",'name'=&gt;'"&amp;Prds!B121&amp;"','slug'=&gt;'"&amp;Prds!C121&amp;"','org_price'=&gt;"&amp;Prds!D121&amp;",'dct_price'=&gt;"&amp;Prds!F121&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;121,'name'=&gt;'Bose Soundbar Universal Remote','slug'=&gt;'bose-soundbar-universal-remote','org_price'=&gt;49.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A122&amp;",'name'=&gt;'"&amp;Prds!B122&amp;"','slug'=&gt;'"&amp;Prds!C122&amp;"','org_price'=&gt;"&amp;Prds!D122&amp;",'dct_price'=&gt;"&amp;Prds!F122&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;122,'name'=&gt;'SoundXtra TV stand for SoundTouch 300','slug'=&gt;'soundxtra-tv-stand-for-soundtouch-300','org_price'=&gt;129.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A123&amp;",'name'=&gt;'"&amp;Prds!B123&amp;"','slug'=&gt;'"&amp;Prds!C123&amp;"','org_price'=&gt;"&amp;Prds!D123&amp;",'dct_price'=&gt;"&amp;Prds!F123&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;123,'name'=&gt;'S1 Pro Slip Cover','slug'=&gt;'s1-pro-slip-cover','org_price'=&gt;29.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A124&amp;",'name'=&gt;'"&amp;Prds!B124&amp;"','slug'=&gt;'"&amp;Prds!C124&amp;"','org_price'=&gt;"&amp;Prds!D124&amp;",'dct_price'=&gt;"&amp;Prds!F124&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;124,'name'=&gt;'S1 Pro Backpack','slug'=&gt;'s1-pro-backpack','org_price'=&gt;149.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A125&amp;",'name'=&gt;'"&amp;Prds!B125&amp;"','slug'=&gt;'"&amp;Prds!C125&amp;"','org_price'=&gt;"&amp;Prds!D125&amp;",'dct_price'=&gt;"&amp;Prds!F125&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;125,'name'=&gt;'SoundXtra floor stand for SoundTouch 20','slug'=&gt;'soundxtra-floor-stand-for-soundtouch-20','org_price'=&gt;129.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A126&amp;",'name'=&gt;'"&amp;Prds!B126&amp;"','slug'=&gt;'"&amp;Prds!C126&amp;"','org_price'=&gt;"&amp;Prds!D126&amp;",'dct_price'=&gt;"&amp;Prds!F126&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;126,'name'=&gt;'Wave FM antenna','slug'=&gt;'wave-fm-antenna','org_price'=&gt;9.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A127&amp;",'name'=&gt;'"&amp;Prds!B127&amp;"','slug'=&gt;'"&amp;Prds!C127&amp;"','org_price'=&gt;"&amp;Prds!D127&amp;",'dct_price'=&gt;"&amp;Prds!F127&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;127,'name'=&gt;'RC-PWS III universal remote','slug'=&gt;'rc-pws-iii-universal-remote','org_price'=&gt;29.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A128&amp;",'name'=&gt;'"&amp;Prds!B128&amp;"','slug'=&gt;'"&amp;Prds!C128&amp;"','org_price'=&gt;"&amp;Prds!D128&amp;",'dct_price'=&gt;"&amp;Prds!F128&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;128,'name'=&gt;'UB-20 II wall/ceiling bracket','slug'=&gt;'ub-20-ii-wall-ceiling-bracket','org_price'=&gt;34.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A129&amp;",'name'=&gt;'"&amp;Prds!B129&amp;"','slug'=&gt;'"&amp;Prds!C129&amp;"','org_price'=&gt;"&amp;Prds!D129&amp;",'dct_price'=&gt;"&amp;Prds!F129&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;129,'name'=&gt;'UFS-20 II floorstands','slug'=&gt;'ufs-20-ii-floorstands','org_price'=&gt;119.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A130&amp;",'name'=&gt;'"&amp;Prds!B130&amp;"','slug'=&gt;'"&amp;Prds!C130&amp;"','org_price'=&gt;"&amp;Prds!D130&amp;",'dct_price'=&gt;"&amp;Prds!F130&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;130,'name'=&gt;'SoundWear Companion cover','slug'=&gt;'soundwear-companion-cover','org_price'=&gt;29.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A131&amp;",'name'=&gt;'"&amp;Prds!B131&amp;"','slug'=&gt;'"&amp;Prds!C131&amp;"','org_price'=&gt;"&amp;Prds!D131&amp;",'dct_price'=&gt;"&amp;Prds!F131&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;131,'name'=&gt;'Speaker wire adapter kot','slug'=&gt;'speaker-wire-adapter-kot','org_price'=&gt;39.99,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A132&amp;",'name'=&gt;'"&amp;Prds!B132&amp;"','slug'=&gt;'"&amp;Prds!C132&amp;"','org_price'=&gt;"&amp;Prds!D132&amp;",'dct_price'=&gt;"&amp;Prds!F132&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;132,'name'=&gt;'B1 bass module','slug'=&gt;'b1-bass-module','org_price'=&gt;299.95,'dct_price'=&gt;254.96,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A133&amp;",'name'=&gt;'"&amp;Prds!B133&amp;"','slug'=&gt;'"&amp;Prds!C133&amp;"','org_price'=&gt;"&amp;Prds!D133&amp;",'dct_price'=&gt;"&amp;Prds!F133&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;133,'name'=&gt;'SlideConnect wall bracket','slug'=&gt;'slideconnect-wall-bracket','org_price'=&gt;35.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A134&amp;",'name'=&gt;'"&amp;Prds!B134&amp;"','slug'=&gt;'"&amp;Prds!C134&amp;"','org_price'=&gt;"&amp;Prds!D134&amp;",'dct_price'=&gt;"&amp;Prds!F134&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;134,'name'=&gt;'WB-300 wall bracket','slug'=&gt;'wb-300-wall-bracket','org_price'=&gt;39.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A135&amp;",'name'=&gt;'"&amp;Prds!B135&amp;"','slug'=&gt;'"&amp;Prds!C135&amp;"','org_price'=&gt;"&amp;Prds!D135&amp;",'dct_price'=&gt;"&amp;Prds!F135&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;135,'name'=&gt;'WB-120 wall-mount kit','slug'=&gt;'wb-120-wall-mount-kit','org_price'=&gt;24.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A136&amp;",'name'=&gt;'"&amp;Prds!B136&amp;"','slug'=&gt;'"&amp;Prds!C136&amp;"','org_price'=&gt;"&amp;Prds!D136&amp;",'dct_price'=&gt;"&amp;Prds!F136&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;136,'name'=&gt;'L1 Compact microphone accessory pack','slug'=&gt;'l1-compact-microphone-accessory-pack','org_price'=&gt;149.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A137&amp;",'name'=&gt;'"&amp;Prds!B137&amp;"','slug'=&gt;'"&amp;Prds!C137&amp;"','org_price'=&gt;"&amp;Prds!D137&amp;",'dct_price'=&gt;"&amp;Prds!F137&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;137,'name'=&gt;'SoundLink Mini travel bag','slug'=&gt;'soundlink-mini-travel-bag','org_price'=&gt;44.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A138&amp;",'name'=&gt;'"&amp;Prds!B138&amp;"','slug'=&gt;'"&amp;Prds!C138&amp;"','org_price'=&gt;"&amp;Prds!D138&amp;",'dct_price'=&gt;"&amp;Prds!F138&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;138,'name'=&gt;'UTS-20 II table stand','slug'=&gt;'uts-20-ii-table-stand','org_price'=&gt;34.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A139&amp;",'name'=&gt;'"&amp;Prds!B139&amp;"','slug'=&gt;'"&amp;Prds!C139&amp;"','org_price'=&gt;"&amp;Prds!D139&amp;",'dct_price'=&gt;"&amp;Prds!F139&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;139,'name'=&gt;'CineMate speaker wire adapter kit','slug'=&gt;'cinemate-speaker-wire-adapter-kit','org_price'=&gt;39.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A140&amp;",'name'=&gt;'"&amp;Prds!B140&amp;"','slug'=&gt;'"&amp;Prds!C140&amp;"','org_price'=&gt;"&amp;Prds!D140&amp;",'dct_price'=&gt;"&amp;Prds!F140&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;140,'name'=&gt;'B1/B2 4-pin cable','slug'=&gt;'b1-b2-4-pin-cable','org_price'=&gt;29.99,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A141&amp;",'name'=&gt;'"&amp;Prds!B141&amp;"','slug'=&gt;'"&amp;Prds!C141&amp;"','org_price'=&gt;"&amp;Prds!D141&amp;",'dct_price'=&gt;"&amp;Prds!F141&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;141,'name'=&gt;'SoundXtra TV mount for SoundTouch 300','slug'=&gt;'soundxtra-tv-mount-for-soundtouch-300','org_price'=&gt;119.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A142&amp;",'name'=&gt;'"&amp;Prds!B142&amp;"','slug'=&gt;'"&amp;Prds!C142&amp;"','org_price'=&gt;"&amp;Prds!D142&amp;",'dct_price'=&gt;"&amp;Prds!F142&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;142,'name'=&gt;'SoundLink speaker III cover','slug'=&gt;'soundlink-speaker-iii-cover','org_price'=&gt;34.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A143&amp;",'name'=&gt;'"&amp;Prds!B143&amp;"','slug'=&gt;'"&amp;Prds!C143&amp;"','org_price'=&gt;"&amp;Prds!D143&amp;",'dct_price'=&gt;"&amp;Prds!F143&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;143,'name'=&gt;'PackLite A1 power amplifier','slug'=&gt;'packlite-a1-power-amplifier','org_price'=&gt;399.95,'dct_price'=&gt;339.95,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A144&amp;",'name'=&gt;'"&amp;Prds!B144&amp;"','slug'=&gt;'"&amp;Prds!C144&amp;"','org_price'=&gt;"&amp;Prds!D144&amp;",'dct_price'=&gt;"&amp;Prds!F144&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;144,'name'=&gt;'WB-3 bookshelf speaker wall brackets','slug'=&gt;'wb-3-bookshelf-speaker-wall-brackets','org_price'=&gt;19.98,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A145&amp;",'name'=&gt;'"&amp;Prds!B145&amp;"','slug'=&gt;'"&amp;Prds!C145&amp;"','org_price'=&gt;"&amp;Prds!D145&amp;",'dct_price'=&gt;"&amp;Prds!F145&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;145,'name'=&gt;'B2 bass module','slug'=&gt;'b2-bass-module','org_price'=&gt;424.96,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A146&amp;",'name'=&gt;'"&amp;Prds!B146&amp;"','slug'=&gt;'"&amp;Prds!C146&amp;"','org_price'=&gt;"&amp;Prds!D146&amp;",'dct_price'=&gt;"&amp;Prds!F146&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;146,'name'=&gt;'ToneMatch mixer power supply','slug'=&gt;'tonematch-mixer-power-supply','org_price'=&gt;50.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A147&amp;",'name'=&gt;'"&amp;Prds!B147&amp;"','slug'=&gt;'"&amp;Prds!C147&amp;"','org_price'=&gt;"&amp;Prds!D147&amp;",'dct_price'=&gt;"&amp;Prds!F147&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;147,'name'=&gt;'SoundLink Revolve and Soundlink Revolve+ wall adapter','slug'=&gt;'soundlink-revolve-and-soundlink-revolveplus-wall-adapter','org_price'=&gt;24.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A148&amp;",'name'=&gt;'"&amp;Prds!B148&amp;"','slug'=&gt;'"&amp;Prds!C148&amp;"','org_price'=&gt;"&amp;Prds!D148&amp;",'dct_price'=&gt;"&amp;Prds!F148&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;148,'name'=&gt;'FS-01 bookshelf speaker floorstands','slug'=&gt;'fs-01-bookshelf-speaker-floorstands','org_price'=&gt;89.98,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A149&amp;",'name'=&gt;'"&amp;Prds!B149&amp;"','slug'=&gt;'"&amp;Prds!C149&amp;"','org_price'=&gt;"&amp;Prds!D149&amp;",'dct_price'=&gt;"&amp;Prds!F149&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;149,'name'=&gt;'Home theater speaker extension cable','slug'=&gt;'home-theater-speaker-extension-cable','org_price'=&gt;14.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A150&amp;",'name'=&gt;'"&amp;Prds!B150&amp;"','slug'=&gt;'"&amp;Prds!C150&amp;"','org_price'=&gt;"&amp;Prds!D150&amp;",'dct_price'=&gt;"&amp;Prds!F150&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;150,'name'=&gt;'Lifestyle 600/650 home entertainment system remote control','slug'=&gt;'lifestyle-600-650-home-entertainment-system-remote-control','org_price'=&gt;99.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A151&amp;",'name'=&gt;'"&amp;Prds!B151&amp;"','slug'=&gt;'"&amp;Prds!C151&amp;"','org_price'=&gt;"&amp;Prds!D151&amp;",'dct_price'=&gt;"&amp;Prds!F151&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;151,'name'=&gt;'SoundTouch II remote','slug'=&gt;'soundtouch-ii-remote','org_price'=&gt;14.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A152&amp;",'name'=&gt;'"&amp;Prds!B152&amp;"','slug'=&gt;'"&amp;Prds!C152&amp;"','org_price'=&gt;"&amp;Prds!D152&amp;",'dct_price'=&gt;"&amp;Prds!F152&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;152,'name'=&gt;'OmniJewel center channel wire adapter','slug'=&gt;'omnijewel-center-channel-wire-adapter','org_price'=&gt;5.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A153&amp;",'name'=&gt;'"&amp;Prds!B153&amp;"','slug'=&gt;'"&amp;Prds!C153&amp;"','org_price'=&gt;"&amp;Prds!D153&amp;",'dct_price'=&gt;"&amp;Prds!F153&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;153,'name'=&gt;'SoundXtra wall mount for SoundTouch 10','slug'=&gt;'soundxtra-wall-mount-for-soundtouch-10','org_price'=&gt;44.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A154&amp;",'name'=&gt;'"&amp;Prds!B154&amp;"','slug'=&gt;'"&amp;Prds!C154&amp;"','org_price'=&gt;"&amp;Prds!D154&amp;",'dct_price'=&gt;"&amp;Prds!F154&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;154,'name'=&gt;'791 in-ceiling speakers II rough-in kit','slug'=&gt;'791-in-ceiling-speakers-ii-rough-in-kit','org_price'=&gt;64.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A155&amp;",'name'=&gt;'"&amp;Prds!B155&amp;"','slug'=&gt;'"&amp;Prds!C155&amp;"','org_price'=&gt;"&amp;Prds!D155&amp;",'dct_price'=&gt;"&amp;Prds!F155&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;155,'name'=&gt;'WB-135 wall mount kit','slug'=&gt;'wb-135-wall-mount-kit','org_price'=&gt;49.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A156&amp;",'name'=&gt;'"&amp;Prds!B156&amp;"','slug'=&gt;'"&amp;Prds!C156&amp;"','org_price'=&gt;"&amp;Prds!D156&amp;",'dct_price'=&gt;"&amp;Prds!F156&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;156,'name'=&gt;'CineMate home theater system-Interface Module','slug'=&gt;'cinemate-home-theater-system-interface-module','org_price'=&gt;79.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A157&amp;",'name'=&gt;'"&amp;Prds!B157&amp;"','slug'=&gt;'"&amp;Prds!C157&amp;"','org_price'=&gt;"&amp;Prds!D157&amp;",'dct_price'=&gt;"&amp;Prds!F157&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;157,'name'=&gt;'F1 Model 812 travel bag','slug'=&gt;'f1-model-812-travel-bag','org_price'=&gt;139,'dct_price'=&gt;118.15,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A158&amp;",'name'=&gt;'"&amp;Prds!B158&amp;"','slug'=&gt;'"&amp;Prds!C158&amp;"','org_price'=&gt;"&amp;Prds!D158&amp;",'dct_price'=&gt;"&amp;Prds!F158&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;158,'name'=&gt;'891 in-wall speakers rough-in kit','slug'=&gt;'891-in-wall-speakers-rough-in-kit','org_price'=&gt;64.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A159&amp;",'name'=&gt;'"&amp;Prds!B159&amp;"','slug'=&gt;'"&amp;Prds!C159&amp;"','org_price'=&gt;"&amp;Prds!D159&amp;",'dct_price'=&gt;"&amp;Prds!F159&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;159,'name'=&gt;'SoundXtra floor stand for SoundTouch 10','slug'=&gt;'soundxtra-floor-stand-for-soundtouch-10','org_price'=&gt;99.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>"['id'=&gt;"&amp;Prds!A160&amp;",'name'=&gt;'"&amp;Prds!B160&amp;"','slug'=&gt;'"&amp;Prds!C160&amp;"','org_price'=&gt;"&amp;Prds!D160&amp;",'dct_price'=&gt;"&amp;Prds!F160&amp;",'qty'=&gt;100],"</f>
+        <v>['id'=&gt;160,'name'=&gt;'SoundXtra floor stand for SoundTouch 30','slug'=&gt;'soundxtra-floor-stand-for-soundtouch-30','org_price'=&gt;169.95,'dct_price'=&gt;NULL,'qty'=&gt;100],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Products.xlsx
+++ b/docs/Products.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Cats" sheetId="1" r:id="rId1"/>
-    <sheet name="Prds" sheetId="2" r:id="rId2"/>
+    <sheet name="Prds" sheetId="2" r:id="rId1"/>
+    <sheet name="Cats" sheetId="1" r:id="rId2"/>
     <sheet name="PDesc" sheetId="5" r:id="rId3"/>
     <sheet name="ProdCats" sheetId="3" r:id="rId4"/>
     <sheet name="PSQL" sheetId="4" r:id="rId5"/>
     <sheet name="PPHP" sheetId="6" r:id="rId6"/>
+    <sheet name="CPHP" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="214">
   <si>
     <t>Categories</t>
   </si>
@@ -373,12 +374,6 @@
     <t>SoundLink on-ear carry case</t>
   </si>
   <si>
-    <t>catalog</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>SoundLink Color Bluetooth speaker II</t>
   </si>
   <si>
@@ -674,6 +669,18 @@
   </si>
   <si>
     <t>INSERT INTO product(id,name,slug,org_price,dct_price,qty,description) VALUES</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>lvl</t>
   </si>
 </sst>
 </file>
@@ -994,486 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B3)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
-        <v>headphones</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C20" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B4)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
-        <v>speakers</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>noise-cancelling</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>wireless</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>sports</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>soundware</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>aviation-headsets</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>sleep</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>hearing</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>headset-accesories</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>portable</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>smart-home</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>home-theater</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>wave</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>stereo</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>computer</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>portable-pa</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>speaker-accesories</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2766,7 +2297,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2316,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="0"/>
@@ -2807,7 +2338,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="0"/>
@@ -2829,7 +2360,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="0"/>
@@ -2848,7 +2379,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="0"/>
@@ -2870,7 +2401,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="0"/>
@@ -2892,7 +2423,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="0"/>
@@ -2911,7 +2442,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="0"/>
@@ -2930,7 +2461,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="0"/>
@@ -2949,7 +2480,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="0"/>
@@ -2971,7 +2502,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="0"/>
@@ -2990,7 +2521,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="0"/>
@@ -3009,7 +2540,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="0"/>
@@ -3028,7 +2559,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="0"/>
@@ -3050,7 +2581,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="0"/>
@@ -3069,7 +2600,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="0"/>
@@ -3088,7 +2619,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="0"/>
@@ -3107,7 +2638,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="0"/>
@@ -3126,7 +2657,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="0"/>
@@ -3145,7 +2676,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="0"/>
@@ -3167,7 +2698,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="0"/>
@@ -3186,7 +2717,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="0"/>
@@ -3205,7 +2736,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="0"/>
@@ -3224,7 +2755,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="0"/>
@@ -3243,7 +2774,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="0"/>
@@ -3262,7 +2793,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="0"/>
@@ -3281,7 +2812,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="0"/>
@@ -3303,7 +2834,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="0"/>
@@ -3322,7 +2853,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="0"/>
@@ -3341,7 +2872,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="0"/>
@@ -3363,7 +2894,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="0"/>
@@ -3382,7 +2913,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="0"/>
@@ -3401,7 +2932,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="0"/>
@@ -3420,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="0"/>
@@ -3439,7 +2970,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="0"/>
@@ -3458,7 +2989,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="0"/>
@@ -3477,7 +3008,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="0"/>
@@ -3496,7 +3027,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="0"/>
@@ -3515,7 +3046,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="0"/>
@@ -3534,7 +3065,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="0"/>
@@ -3553,7 +3084,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="0"/>
@@ -3575,7 +3106,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="0"/>
@@ -3597,7 +3128,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="0"/>
@@ -3619,7 +3150,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="0"/>
@@ -3641,7 +3172,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="0"/>
@@ -3663,7 +3194,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="0"/>
@@ -3685,7 +3216,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="0"/>
@@ -3707,7 +3238,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="0"/>
@@ -3729,7 +3260,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="0"/>
@@ -3751,7 +3282,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="0"/>
@@ -3773,7 +3304,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="0"/>
@@ -3795,7 +3326,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="0"/>
@@ -3814,7 +3345,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="0"/>
@@ -3833,7 +3364,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="0"/>
@@ -3852,7 +3383,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="0"/>
@@ -3871,7 +3402,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="0"/>
@@ -3890,7 +3421,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="0"/>
@@ -3909,7 +3440,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="0"/>
@@ -3928,7 +3459,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="0"/>
@@ -3947,7 +3478,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="0"/>
@@ -3966,7 +3497,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="0"/>
@@ -3985,7 +3516,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="0"/>
@@ -4004,7 +3535,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="0"/>
@@ -4023,7 +3554,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="0"/>
@@ -4042,7 +3573,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="0"/>
@@ -4064,7 +3595,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="0"/>
@@ -4083,7 +3614,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="0"/>
@@ -4102,7 +3633,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="0"/>
@@ -4121,7 +3652,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="0"/>
@@ -4140,7 +3671,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="0"/>
@@ -4159,7 +3690,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="0"/>
@@ -4178,7 +3709,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="0"/>
@@ -4197,7 +3728,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="0"/>
@@ -4216,7 +3747,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="0"/>
@@ -4235,7 +3766,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="0"/>
@@ -4254,7 +3785,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="0"/>
@@ -4276,7 +3807,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="0"/>
@@ -4295,7 +3826,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="0"/>
@@ -4314,7 +3845,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="0"/>
@@ -4333,7 +3864,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="0"/>
@@ -4352,7 +3883,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="0"/>
@@ -4371,7 +3902,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="0"/>
@@ -4390,7 +3921,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="0"/>
@@ -4409,7 +3940,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="0"/>
@@ -4428,7 +3959,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="0"/>
@@ -4447,7 +3978,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="0"/>
@@ -4466,7 +3997,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="0"/>
@@ -4485,7 +4016,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="0"/>
@@ -4504,7 +4035,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="0"/>
@@ -4523,7 +4054,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="0"/>
@@ -4545,7 +4076,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="0"/>
@@ -4564,7 +4095,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="0"/>
@@ -4583,7 +4114,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="0"/>
@@ -4650,6 +4181,616 @@
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B3)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
+        <v>headphones</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(ISBLANK(D3),"NULL",D3)</f>
+        <v>NULL</v>
+      </c>
+      <c r="F3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C20" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(LOWER(B4)," ","-"),"/","-"),"(",""),")",""),",",""),",",""),"+","plus")</f>
+        <v>speakers</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E20" si="1">IF(ISBLANK(D4),"NULL",D4)</f>
+        <v>NULL</v>
+      </c>
+      <c r="F4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>noise-cancelling</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>101</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>wireless</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>sports</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>soundware</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>104</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>aviation-headsets</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>sleep</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>hearing</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <v>107</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>headset-accesories</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>portable</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>201</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>smart-home</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <v>202</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>home-theater</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15">
+        <v>203</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>wave</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>204</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>stereo</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <v>205</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>computer</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>206</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>portable-pa</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>207</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>speaker-accesories</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20">
+        <v>208</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +4812,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="375" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4721,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C2,Cats!$A$3:$I$20,2)</f>
         <v>Noise Cancelling</v>
       </c>
     </row>
@@ -4737,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C3,Cats!$A$3:$I$20,2)</f>
         <v>Noise Cancelling</v>
       </c>
     </row>
@@ -4753,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C4,Cats!$A$3:$I$20,2)</f>
         <v>Noise Cancelling</v>
       </c>
     </row>
@@ -4769,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C5,Cats!$A$3:$I$20,2)</f>
         <v>Noise Cancelling</v>
       </c>
     </row>
@@ -4785,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C6,Cats!$A$3:$I$20,2)</f>
         <v>Noise Cancelling</v>
       </c>
     </row>
@@ -4801,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C7,Cats!$A$3:$I$20,2)</f>
         <v>Noise Cancelling</v>
       </c>
     </row>
@@ -4817,7 +4958,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C8,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4833,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C9,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4849,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C10,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4865,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C11,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4881,7 +5022,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C12,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4897,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C13,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4913,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C14,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4929,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C15,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4945,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C16,Cats!$A$3:$I$20,2)</f>
         <v>Wireless</v>
       </c>
     </row>
@@ -4961,7 +5102,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C17,Cats!$A$3:$I$20,2)</f>
         <v>Sports</v>
       </c>
     </row>
@@ -4977,7 +5118,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C18,Cats!$A$3:$I$20,2)</f>
         <v>Sports</v>
       </c>
     </row>
@@ -4993,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C19,Cats!$A$3:$I$20,2)</f>
         <v>Sports</v>
       </c>
     </row>
@@ -5009,7 +5150,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(C20,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C20,Cats!$A$3:$I$20,2)</f>
         <v>Sports</v>
       </c>
     </row>
@@ -5025,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(C21,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C21,Cats!$A$3:$I$20,2)</f>
         <v>Sports</v>
       </c>
     </row>
@@ -5041,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(C22,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C22,Cats!$A$3:$I$20,2)</f>
         <v>Soundware</v>
       </c>
     </row>
@@ -5057,7 +5198,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="str">
-        <f>VLOOKUP(C23,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C23,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5073,7 +5214,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="str">
-        <f>VLOOKUP(C24,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C24,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5089,7 +5230,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(C25,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C25,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5105,7 +5246,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="str">
-        <f>VLOOKUP(C26,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C26,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5121,7 +5262,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="str">
-        <f>VLOOKUP(C27,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C27,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5137,7 +5278,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="str">
-        <f>VLOOKUP(C28,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C28,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5153,7 +5294,7 @@
         <v>10</v>
       </c>
       <c r="D29" t="str">
-        <f>VLOOKUP(C29,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C29,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5169,7 +5310,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="str">
-        <f>VLOOKUP(C30,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C30,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5185,7 +5326,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="str">
-        <f>VLOOKUP(C31,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C31,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5201,7 +5342,7 @@
         <v>10</v>
       </c>
       <c r="D32" t="str">
-        <f>VLOOKUP(C32,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C32,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5217,7 +5358,7 @@
         <v>10</v>
       </c>
       <c r="D33" t="str">
-        <f>VLOOKUP(C33,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C33,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5233,7 +5374,7 @@
         <v>10</v>
       </c>
       <c r="D34" t="str">
-        <f>VLOOKUP(C34,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C34,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5249,7 +5390,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="str">
-        <f>VLOOKUP(C35,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C35,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5265,7 +5406,7 @@
         <v>10</v>
       </c>
       <c r="D36" t="str">
-        <f>VLOOKUP(C36,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C36,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5281,7 +5422,7 @@
         <v>10</v>
       </c>
       <c r="D37" t="str">
-        <f>VLOOKUP(C37,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C37,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5297,7 +5438,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="str">
-        <f>VLOOKUP(C38,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C38,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5313,7 +5454,7 @@
         <v>10</v>
       </c>
       <c r="D39" t="str">
-        <f>VLOOKUP(C39,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C39,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5329,7 +5470,7 @@
         <v>10</v>
       </c>
       <c r="D40" t="str">
-        <f>VLOOKUP(C40,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C40,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5345,7 +5486,7 @@
         <v>10</v>
       </c>
       <c r="D41" t="str">
-        <f>VLOOKUP(C41,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C41,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5361,7 +5502,7 @@
         <v>10</v>
       </c>
       <c r="D42" t="str">
-        <f>VLOOKUP(C42,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C42,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5377,7 +5518,7 @@
         <v>10</v>
       </c>
       <c r="D43" t="str">
-        <f>VLOOKUP(C43,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C43,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5393,7 +5534,7 @@
         <v>10</v>
       </c>
       <c r="D44" t="str">
-        <f>VLOOKUP(C44,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C44,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5409,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="D45" t="str">
-        <f>VLOOKUP(C45,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C45,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5425,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="str">
-        <f>VLOOKUP(C46,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C46,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5441,7 +5582,7 @@
         <v>10</v>
       </c>
       <c r="D47" t="str">
-        <f>VLOOKUP(C47,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C47,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5457,7 +5598,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="str">
-        <f>VLOOKUP(C48,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C48,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5473,7 +5614,7 @@
         <v>10</v>
       </c>
       <c r="D49" t="str">
-        <f>VLOOKUP(C49,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C49,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5489,7 +5630,7 @@
         <v>10</v>
       </c>
       <c r="D50" t="str">
-        <f>VLOOKUP(C50,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C50,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5505,7 +5646,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="str">
-        <f>VLOOKUP(C51,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C51,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5521,7 +5662,7 @@
         <v>10</v>
       </c>
       <c r="D52" t="str">
-        <f>VLOOKUP(C52,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C52,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5537,7 +5678,7 @@
         <v>10</v>
       </c>
       <c r="D53" t="str">
-        <f>VLOOKUP(C53,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C53,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5553,7 +5694,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="str">
-        <f>VLOOKUP(C54,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C54,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5569,7 +5710,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="str">
-        <f>VLOOKUP(C55,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C55,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5585,7 +5726,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="str">
-        <f>VLOOKUP(C56,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C56,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5601,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="str">
-        <f>VLOOKUP(C57,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C57,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5617,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="D58" t="str">
-        <f>VLOOKUP(C58,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C58,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5633,7 +5774,7 @@
         <v>10</v>
       </c>
       <c r="D59" t="str">
-        <f>VLOOKUP(C59,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C59,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5649,7 +5790,7 @@
         <v>10</v>
       </c>
       <c r="D60" t="str">
-        <f>VLOOKUP(C60,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C60,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5665,7 +5806,7 @@
         <v>10</v>
       </c>
       <c r="D61" t="str">
-        <f>VLOOKUP(C61,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C61,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5681,7 +5822,7 @@
         <v>10</v>
       </c>
       <c r="D62" t="str">
-        <f>VLOOKUP(C62,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C62,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5697,7 +5838,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="str">
-        <f>VLOOKUP(C63,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C63,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5713,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="str">
-        <f>VLOOKUP(C64,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C64,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5729,7 +5870,7 @@
         <v>10</v>
       </c>
       <c r="D65" t="str">
-        <f>VLOOKUP(C65,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C65,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5745,7 +5886,7 @@
         <v>10</v>
       </c>
       <c r="D66" t="str">
-        <f>VLOOKUP(C66,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C66,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5761,7 +5902,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="str">
-        <f>VLOOKUP(C67,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C67,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5777,7 +5918,7 @@
         <v>10</v>
       </c>
       <c r="D68" t="str">
-        <f>VLOOKUP(C68,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C68,Cats!$A$3:$I$20,2)</f>
         <v>Headset Accesories</v>
       </c>
     </row>
@@ -5793,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="str">
-        <f>VLOOKUP(C69,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C69,Cats!$A$3:$I$20,2)</f>
         <v>Portable</v>
       </c>
     </row>
@@ -5809,7 +5950,7 @@
         <v>11</v>
       </c>
       <c r="D70" t="str">
-        <f>VLOOKUP(C70,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C70,Cats!$A$3:$I$20,2)</f>
         <v>Portable</v>
       </c>
     </row>
@@ -5825,7 +5966,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="str">
-        <f>VLOOKUP(C71,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C71,Cats!$A$3:$I$20,2)</f>
         <v>Portable</v>
       </c>
     </row>
@@ -5841,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="str">
-        <f>VLOOKUP(C72,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C72,Cats!$A$3:$I$20,2)</f>
         <v>Portable</v>
       </c>
     </row>
@@ -5857,7 +5998,7 @@
         <v>11</v>
       </c>
       <c r="D73" t="str">
-        <f>VLOOKUP(C73,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C73,Cats!$A$3:$I$20,2)</f>
         <v>Portable</v>
       </c>
     </row>
@@ -5873,7 +6014,7 @@
         <v>11</v>
       </c>
       <c r="D74" t="str">
-        <f>VLOOKUP(C74,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C74,Cats!$A$3:$I$20,2)</f>
         <v>Portable</v>
       </c>
     </row>
@@ -5889,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="D75" t="str">
-        <f>VLOOKUP(C75,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C75,Cats!$A$3:$I$20,2)</f>
         <v>Portable</v>
       </c>
     </row>
@@ -5905,7 +6046,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="str">
-        <f>VLOOKUP(C76,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C76,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -5921,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="str">
-        <f>VLOOKUP(C77,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C77,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -5937,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="str">
-        <f>VLOOKUP(C78,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C78,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -5953,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="D79" t="str">
-        <f>VLOOKUP(C79,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C79,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -5969,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="str">
-        <f>VLOOKUP(C80,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C80,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -5985,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="str">
-        <f>VLOOKUP(C81,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C81,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -6001,7 +6142,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="str">
-        <f>VLOOKUP(C82,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C82,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -6017,7 +6158,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="str">
-        <f>VLOOKUP(C83,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C83,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -6033,7 +6174,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="str">
-        <f>VLOOKUP(C84,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C84,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -6049,7 +6190,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="str">
-        <f>VLOOKUP(C85,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C85,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -6065,7 +6206,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="str">
-        <f>VLOOKUP(C86,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C86,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -6081,7 +6222,7 @@
         <v>12</v>
       </c>
       <c r="D87" t="str">
-        <f>VLOOKUP(C87,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C87,Cats!$A$3:$I$20,2)</f>
         <v>Smart Home</v>
       </c>
     </row>
@@ -6097,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="D88" t="str">
-        <f>VLOOKUP(C88,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C88,Cats!$A$3:$I$20,2)</f>
         <v>Home Theater</v>
       </c>
     </row>
@@ -6113,7 +6254,7 @@
         <v>13</v>
       </c>
       <c r="D89" t="str">
-        <f>VLOOKUP(C89,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C89,Cats!$A$3:$I$20,2)</f>
         <v>Home Theater</v>
       </c>
     </row>
@@ -6129,7 +6270,7 @@
         <v>13</v>
       </c>
       <c r="D90" t="str">
-        <f>VLOOKUP(C90,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C90,Cats!$A$3:$I$20,2)</f>
         <v>Home Theater</v>
       </c>
     </row>
@@ -6145,7 +6286,7 @@
         <v>13</v>
       </c>
       <c r="D91" t="str">
-        <f>VLOOKUP(C91,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C91,Cats!$A$3:$I$20,2)</f>
         <v>Home Theater</v>
       </c>
     </row>
@@ -6161,7 +6302,7 @@
         <v>13</v>
       </c>
       <c r="D92" t="str">
-        <f>VLOOKUP(C92,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C92,Cats!$A$3:$I$20,2)</f>
         <v>Home Theater</v>
       </c>
     </row>
@@ -6177,7 +6318,7 @@
         <v>13</v>
       </c>
       <c r="D93" t="str">
-        <f>VLOOKUP(C93,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C93,Cats!$A$3:$I$20,2)</f>
         <v>Home Theater</v>
       </c>
     </row>
@@ -6193,7 +6334,7 @@
         <v>13</v>
       </c>
       <c r="D94" t="str">
-        <f>VLOOKUP(C94,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C94,Cats!$A$3:$I$20,2)</f>
         <v>Home Theater</v>
       </c>
     </row>
@@ -6209,7 +6350,7 @@
         <v>14</v>
       </c>
       <c r="D95" t="str">
-        <f>VLOOKUP(C95,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C95,Cats!$A$3:$I$20,2)</f>
         <v>Wave</v>
       </c>
     </row>
@@ -6225,7 +6366,7 @@
         <v>14</v>
       </c>
       <c r="D96" t="str">
-        <f>VLOOKUP(C96,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C96,Cats!$A$3:$I$20,2)</f>
         <v>Wave</v>
       </c>
     </row>
@@ -6241,7 +6382,7 @@
         <v>14</v>
       </c>
       <c r="D97" t="str">
-        <f>VLOOKUP(C97,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C97,Cats!$A$3:$I$20,2)</f>
         <v>Wave</v>
       </c>
     </row>
@@ -6257,7 +6398,7 @@
         <v>14</v>
       </c>
       <c r="D98" t="str">
-        <f>VLOOKUP(C98,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C98,Cats!$A$3:$I$20,2)</f>
         <v>Wave</v>
       </c>
     </row>
@@ -6273,7 +6414,7 @@
         <v>14</v>
       </c>
       <c r="D99" t="str">
-        <f>VLOOKUP(C99,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C99,Cats!$A$3:$I$20,2)</f>
         <v>Wave</v>
       </c>
     </row>
@@ -6289,7 +6430,7 @@
         <v>15</v>
       </c>
       <c r="D100" t="str">
-        <f>VLOOKUP(C100,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C100,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6305,7 +6446,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="str">
-        <f>VLOOKUP(C101,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C101,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6321,7 +6462,7 @@
         <v>15</v>
       </c>
       <c r="D102" t="str">
-        <f>VLOOKUP(C102,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C102,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6337,7 +6478,7 @@
         <v>15</v>
       </c>
       <c r="D103" t="str">
-        <f>VLOOKUP(C103,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C103,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6353,7 +6494,7 @@
         <v>15</v>
       </c>
       <c r="D104" t="str">
-        <f>VLOOKUP(C104,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C104,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6369,7 +6510,7 @@
         <v>15</v>
       </c>
       <c r="D105" t="str">
-        <f>VLOOKUP(C105,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C105,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6385,7 +6526,7 @@
         <v>15</v>
       </c>
       <c r="D106" t="str">
-        <f>VLOOKUP(C106,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C106,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6401,7 +6542,7 @@
         <v>15</v>
       </c>
       <c r="D107" t="str">
-        <f>VLOOKUP(C107,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C107,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6417,7 +6558,7 @@
         <v>15</v>
       </c>
       <c r="D108" t="str">
-        <f>VLOOKUP(C108,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C108,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6433,7 +6574,7 @@
         <v>15</v>
       </c>
       <c r="D109" t="str">
-        <f>VLOOKUP(C109,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C109,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6449,7 +6590,7 @@
         <v>15</v>
       </c>
       <c r="D110" t="str">
-        <f>VLOOKUP(C110,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C110,Cats!$A$3:$I$20,2)</f>
         <v>Stereo</v>
       </c>
     </row>
@@ -6465,7 +6606,7 @@
         <v>16</v>
       </c>
       <c r="D111" t="str">
-        <f>VLOOKUP(C111,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C111,Cats!$A$3:$I$20,2)</f>
         <v>Computer</v>
       </c>
     </row>
@@ -6481,7 +6622,7 @@
         <v>16</v>
       </c>
       <c r="D112" t="str">
-        <f>VLOOKUP(C112,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C112,Cats!$A$3:$I$20,2)</f>
         <v>Computer</v>
       </c>
     </row>
@@ -6497,7 +6638,7 @@
         <v>17</v>
       </c>
       <c r="D113" t="str">
-        <f>VLOOKUP(C113,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C113,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6513,7 +6654,7 @@
         <v>17</v>
       </c>
       <c r="D114" t="str">
-        <f>VLOOKUP(C114,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C114,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6529,7 +6670,7 @@
         <v>17</v>
       </c>
       <c r="D115" t="str">
-        <f>VLOOKUP(C115,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C115,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6545,7 +6686,7 @@
         <v>17</v>
       </c>
       <c r="D116" t="str">
-        <f>VLOOKUP(C116,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C116,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6561,7 +6702,7 @@
         <v>17</v>
       </c>
       <c r="D117" t="str">
-        <f>VLOOKUP(C117,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C117,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6577,7 +6718,7 @@
         <v>17</v>
       </c>
       <c r="D118" t="str">
-        <f>VLOOKUP(C118,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C118,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6593,7 +6734,7 @@
         <v>17</v>
       </c>
       <c r="D119" t="str">
-        <f>VLOOKUP(C119,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C119,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6609,7 +6750,7 @@
         <v>17</v>
       </c>
       <c r="D120" t="str">
-        <f>VLOOKUP(C120,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C120,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6625,7 +6766,7 @@
         <v>17</v>
       </c>
       <c r="D121" t="str">
-        <f>VLOOKUP(C121,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C121,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6641,7 +6782,7 @@
         <v>17</v>
       </c>
       <c r="D122" t="str">
-        <f>VLOOKUP(C122,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C122,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6657,7 +6798,7 @@
         <v>17</v>
       </c>
       <c r="D123" t="str">
-        <f>VLOOKUP(C123,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C123,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6673,7 +6814,7 @@
         <v>17</v>
       </c>
       <c r="D124" t="str">
-        <f>VLOOKUP(C124,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C124,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6689,7 +6830,7 @@
         <v>17</v>
       </c>
       <c r="D125" t="str">
-        <f>VLOOKUP(C125,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C125,Cats!$A$3:$I$20,2)</f>
         <v>Portable PA</v>
       </c>
     </row>
@@ -6705,7 +6846,7 @@
         <v>18</v>
       </c>
       <c r="D126" t="str">
-        <f>VLOOKUP(C126,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C126,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6721,7 +6862,7 @@
         <v>18</v>
       </c>
       <c r="D127" t="str">
-        <f>VLOOKUP(C127,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C127,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6737,7 +6878,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="str">
-        <f>VLOOKUP(C128,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C128,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6753,7 +6894,7 @@
         <v>18</v>
       </c>
       <c r="D129" t="str">
-        <f>VLOOKUP(C129,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C129,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6769,7 +6910,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="str">
-        <f>VLOOKUP(C130,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C130,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6785,7 +6926,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="str">
-        <f>VLOOKUP(C131,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C131,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6801,7 +6942,7 @@
         <v>18</v>
       </c>
       <c r="D132" t="str">
-        <f>VLOOKUP(C132,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C132,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6817,7 +6958,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="str">
-        <f>VLOOKUP(C133,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C133,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6833,7 +6974,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="str">
-        <f>VLOOKUP(C134,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C134,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6849,7 +6990,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="str">
-        <f>VLOOKUP(C135,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C135,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6865,7 +7006,7 @@
         <v>18</v>
       </c>
       <c r="D136" t="str">
-        <f>VLOOKUP(C136,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C136,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6881,7 +7022,7 @@
         <v>18</v>
       </c>
       <c r="D137" t="str">
-        <f>VLOOKUP(C137,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C137,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6897,7 +7038,7 @@
         <v>18</v>
       </c>
       <c r="D138" t="str">
-        <f>VLOOKUP(C138,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C138,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6913,7 +7054,7 @@
         <v>18</v>
       </c>
       <c r="D139" t="str">
-        <f>VLOOKUP(C139,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C139,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6929,7 +7070,7 @@
         <v>18</v>
       </c>
       <c r="D140" t="str">
-        <f>VLOOKUP(C140,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C140,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6945,7 +7086,7 @@
         <v>18</v>
       </c>
       <c r="D141" t="str">
-        <f>VLOOKUP(C141,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C141,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6961,7 +7102,7 @@
         <v>18</v>
       </c>
       <c r="D142" t="str">
-        <f>VLOOKUP(C142,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C142,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6977,7 +7118,7 @@
         <v>18</v>
       </c>
       <c r="D143" t="str">
-        <f>VLOOKUP(C143,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C143,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -6993,7 +7134,7 @@
         <v>18</v>
       </c>
       <c r="D144" t="str">
-        <f>VLOOKUP(C144,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C144,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7009,7 +7150,7 @@
         <v>18</v>
       </c>
       <c r="D145" t="str">
-        <f>VLOOKUP(C145,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C145,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7025,7 +7166,7 @@
         <v>18</v>
       </c>
       <c r="D146" t="str">
-        <f>VLOOKUP(C146,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C146,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7041,7 +7182,7 @@
         <v>18</v>
       </c>
       <c r="D147" t="str">
-        <f>VLOOKUP(C147,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C147,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7057,7 +7198,7 @@
         <v>18</v>
       </c>
       <c r="D148" t="str">
-        <f>VLOOKUP(C148,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C148,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7073,7 +7214,7 @@
         <v>18</v>
       </c>
       <c r="D149" t="str">
-        <f>VLOOKUP(C149,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C149,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7089,7 +7230,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="str">
-        <f>VLOOKUP(C150,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C150,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7105,7 +7246,7 @@
         <v>18</v>
       </c>
       <c r="D151" t="str">
-        <f>VLOOKUP(C151,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C151,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7121,7 +7262,7 @@
         <v>18</v>
       </c>
       <c r="D152" t="str">
-        <f>VLOOKUP(C152,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C152,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7137,7 +7278,7 @@
         <v>18</v>
       </c>
       <c r="D153" t="str">
-        <f>VLOOKUP(C153,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C153,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7153,7 +7294,7 @@
         <v>18</v>
       </c>
       <c r="D154" t="str">
-        <f>VLOOKUP(C154,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C154,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7169,7 +7310,7 @@
         <v>18</v>
       </c>
       <c r="D155" t="str">
-        <f>VLOOKUP(C155,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C155,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7185,7 +7326,7 @@
         <v>18</v>
       </c>
       <c r="D156" t="str">
-        <f>VLOOKUP(C156,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C156,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7201,7 +7342,7 @@
         <v>18</v>
       </c>
       <c r="D157" t="str">
-        <f>VLOOKUP(C157,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C157,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7217,7 +7358,7 @@
         <v>18</v>
       </c>
       <c r="D158" t="str">
-        <f>VLOOKUP(C158,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C158,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7233,7 +7374,7 @@
         <v>18</v>
       </c>
       <c r="D159" t="str">
-        <f>VLOOKUP(C159,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C159,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7249,7 +7390,7 @@
         <v>18</v>
       </c>
       <c r="D160" t="str">
-        <f>VLOOKUP(C160,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C160,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7265,7 +7406,7 @@
         <v>18</v>
       </c>
       <c r="D161" t="str">
-        <f>VLOOKUP(C161,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C161,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7281,7 +7422,7 @@
         <v>18</v>
       </c>
       <c r="D162" t="str">
-        <f>VLOOKUP(C162,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C162,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7297,7 +7438,7 @@
         <v>18</v>
       </c>
       <c r="D163" t="str">
-        <f>VLOOKUP(C163,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C163,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7313,7 +7454,7 @@
         <v>18</v>
       </c>
       <c r="D164" t="str">
-        <f>VLOOKUP(C164,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C164,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7329,7 +7470,7 @@
         <v>18</v>
       </c>
       <c r="D165" t="str">
-        <f>VLOOKUP(C165,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C165,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7345,7 +7486,7 @@
         <v>18</v>
       </c>
       <c r="D166" t="str">
-        <f>VLOOKUP(C166,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C166,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7361,7 +7502,7 @@
         <v>18</v>
       </c>
       <c r="D167" t="str">
-        <f>VLOOKUP(C167,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C167,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7377,7 +7518,7 @@
         <v>18</v>
       </c>
       <c r="D168" t="str">
-        <f>VLOOKUP(C168,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C168,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7393,7 +7534,7 @@
         <v>18</v>
       </c>
       <c r="D169" t="str">
-        <f>VLOOKUP(C169,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C169,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7409,7 +7550,7 @@
         <v>18</v>
       </c>
       <c r="D170" t="str">
-        <f>VLOOKUP(C170,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C170,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7425,7 +7566,7 @@
         <v>18</v>
       </c>
       <c r="D171" t="str">
-        <f>VLOOKUP(C171,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C171,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7441,7 +7582,7 @@
         <v>18</v>
       </c>
       <c r="D172" t="str">
-        <f>VLOOKUP(C172,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C172,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7457,7 +7598,7 @@
         <v>18</v>
       </c>
       <c r="D173" t="str">
-        <f>VLOOKUP(C173,Cats!$A$3:$G$20,2)</f>
+        <f>VLOOKUP(C173,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -7478,7 +7619,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -9860,7 +10001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A158" sqref="A1:A158"/>
     </sheetView>
   </sheetViews>
@@ -10817,4 +10958,127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A3&amp;",'name'=&gt;'"&amp;Cats!B3&amp;"','slug'=&gt;'"&amp;Cats!C3&amp;"','parent_id'=&gt;"&amp;Cats!E3&amp;",'type'=&gt;'"&amp;Cats!F3&amp;"','ord'=&gt;"&amp;Cats!G3&amp;",'lvl'=&gt;"&amp;Cats!H3&amp;",'description'=&gt;'"&amp;Cats!I3&amp;"'],"</f>
+        <v>['id'=&gt;1,'name'=&gt;'Headphones','slug'=&gt;'headphones','parent_id'=&gt;NULL,'type'=&gt;'group','ord'=&gt;100,'lvl'=&gt;0,'description'=&gt;'World-class performance and superior comport from headphones designed to bring you closer to the music you love.'],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A4&amp;",'name'=&gt;'"&amp;Cats!B4&amp;"','slug'=&gt;'"&amp;Cats!C4&amp;"','parent_id'=&gt;"&amp;Cats!E4&amp;",'type'=&gt;'"&amp;Cats!F4&amp;"','ord'=&gt;"&amp;Cats!G4&amp;",'lvl'=&gt;"&amp;Cats!H4&amp;",'description'=&gt;'"&amp;Cats!I4&amp;"'],"</f>
+        <v>['id'=&gt;2,'name'=&gt;'Speakers','slug'=&gt;'speakers','parent_id'=&gt;NULL,'type'=&gt;'group','ord'=&gt;200,'lvl'=&gt;1,'description'=&gt;'Powerful performance. Versatile designs. For all your music, movies, and tv — at home or on the go.'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A5&amp;",'name'=&gt;'"&amp;Cats!B5&amp;"','slug'=&gt;'"&amp;Cats!C5&amp;"','parent_id'=&gt;"&amp;Cats!E5&amp;",'type'=&gt;'"&amp;Cats!F5&amp;"','ord'=&gt;"&amp;Cats!G5&amp;",'lvl'=&gt;"&amp;Cats!H5&amp;",'description'=&gt;'"&amp;Cats!I5&amp;"'],"</f>
+        <v>['id'=&gt;3,'name'=&gt;'Noise Cancelling','slug'=&gt;'noise-cancelling','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;101,'lvl'=&gt;1,'description'=&gt;'Bose noise cancelling headphones are engineered with world-class technology so nothing comes between you and your music.'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A6&amp;",'name'=&gt;'"&amp;Cats!B6&amp;"','slug'=&gt;'"&amp;Cats!C6&amp;"','parent_id'=&gt;"&amp;Cats!E6&amp;",'type'=&gt;'"&amp;Cats!F6&amp;"','ord'=&gt;"&amp;Cats!G6&amp;",'lvl'=&gt;"&amp;Cats!H6&amp;",'description'=&gt;'"&amp;Cats!I6&amp;"'],"</f>
+        <v>['id'=&gt;4,'name'=&gt;'Wireless','slug'=&gt;'wireless','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;102,'lvl'=&gt;1,'description'=&gt;'We engineered them without wires — or compromises. It’s just you and your music, with nothing in the way.'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A7&amp;",'name'=&gt;'"&amp;Cats!B7&amp;"','slug'=&gt;'"&amp;Cats!C7&amp;"','parent_id'=&gt;"&amp;Cats!E7&amp;",'type'=&gt;'"&amp;Cats!F7&amp;"','ord'=&gt;"&amp;Cats!G7&amp;",'lvl'=&gt;"&amp;Cats!H7&amp;",'description'=&gt;'"&amp;Cats!I7&amp;"'],"</f>
+        <v>['id'=&gt;5,'name'=&gt;'Sports','slug'=&gt;'sports','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;103,'lvl'=&gt;1,'description'=&gt;'Your workouts, made wireless.'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A8&amp;",'name'=&gt;'"&amp;Cats!B8&amp;"','slug'=&gt;'"&amp;Cats!C8&amp;"','parent_id'=&gt;"&amp;Cats!E8&amp;",'type'=&gt;'"&amp;Cats!F8&amp;"','ord'=&gt;"&amp;Cats!G8&amp;",'lvl'=&gt;"&amp;Cats!H8&amp;",'description'=&gt;'"&amp;Cats!I8&amp;"'],"</f>
+        <v>['id'=&gt;6,'name'=&gt;'Soundware','slug'=&gt;'soundware','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;104,'lvl'=&gt;1,'description'=&gt;'Better sound you can wear.'],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A9&amp;",'name'=&gt;'"&amp;Cats!B9&amp;"','slug'=&gt;'"&amp;Cats!C9&amp;"','parent_id'=&gt;"&amp;Cats!E9&amp;",'type'=&gt;'"&amp;Cats!F9&amp;"','ord'=&gt;"&amp;Cats!G9&amp;",'lvl'=&gt;"&amp;Cats!H9&amp;",'description'=&gt;'"&amp;Cats!I9&amp;"'],"</f>
+        <v>['id'=&gt;7,'name'=&gt;'Aviation Headsets','slug'=&gt;'aviation-headsets','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;105,'lvl'=&gt;1,'description'=&gt;'Technology developed over 30 years. Appreciated in seconds.'],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A10&amp;",'name'=&gt;'"&amp;Cats!B10&amp;"','slug'=&gt;'"&amp;Cats!C10&amp;"','parent_id'=&gt;"&amp;Cats!E10&amp;",'type'=&gt;'"&amp;Cats!F10&amp;"','ord'=&gt;"&amp;Cats!G10&amp;",'lvl'=&gt;"&amp;Cats!H10&amp;",'description'=&gt;'"&amp;Cats!I10&amp;"'],"</f>
+        <v>['id'=&gt;8,'name'=&gt;'Sleep','slug'=&gt;'sleep','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;106,'lvl'=&gt;1,'description'=&gt;'Sleep better. No matter how loud the snoring gets.'],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A11&amp;",'name'=&gt;'"&amp;Cats!B11&amp;"','slug'=&gt;'"&amp;Cats!C11&amp;"','parent_id'=&gt;"&amp;Cats!E11&amp;",'type'=&gt;'"&amp;Cats!F11&amp;"','ord'=&gt;"&amp;Cats!G11&amp;",'lvl'=&gt;"&amp;Cats!H11&amp;",'description'=&gt;'"&amp;Cats!I11&amp;"'],"</f>
+        <v>['id'=&gt;9,'name'=&gt;'Hearing','slug'=&gt;'hearing','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;107,'lvl'=&gt;1,'description'=&gt;'Turn up the talk. Turn down the noise.'],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A12&amp;",'name'=&gt;'"&amp;Cats!B12&amp;"','slug'=&gt;'"&amp;Cats!C12&amp;"','parent_id'=&gt;"&amp;Cats!E12&amp;",'type'=&gt;'"&amp;Cats!F12&amp;"','ord'=&gt;"&amp;Cats!G12&amp;",'lvl'=&gt;"&amp;Cats!H12&amp;",'description'=&gt;'"&amp;Cats!I12&amp;"'],"</f>
+        <v>['id'=&gt;10,'name'=&gt;'Headset Accesories','slug'=&gt;'headset-accesories','parent_id'=&gt;1,'type'=&gt;'product','ord'=&gt;108,'lvl'=&gt;1,'description'=&gt;'Choose from a complete line of accessories that enhance or protect your Bose headphones.'],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A13&amp;",'name'=&gt;'"&amp;Cats!B13&amp;"','slug'=&gt;'"&amp;Cats!C13&amp;"','parent_id'=&gt;"&amp;Cats!E13&amp;",'type'=&gt;'"&amp;Cats!F13&amp;"','ord'=&gt;"&amp;Cats!G13&amp;",'lvl'=&gt;"&amp;Cats!H13&amp;",'description'=&gt;'"&amp;Cats!I13&amp;"'],"</f>
+        <v>['id'=&gt;11,'name'=&gt;'Portable','slug'=&gt;'portable','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;201,'lvl'=&gt;0,'description'=&gt;'Engineered to travel, but sound great in your home. With durable designs and impressive battery life, you can bring them wherever music takes you.'],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A14&amp;",'name'=&gt;'"&amp;Cats!B14&amp;"','slug'=&gt;'"&amp;Cats!C14&amp;"','parent_id'=&gt;"&amp;Cats!E14&amp;",'type'=&gt;'"&amp;Cats!F14&amp;"','ord'=&gt;"&amp;Cats!G14&amp;",'lvl'=&gt;"&amp;Cats!H14&amp;",'description'=&gt;'"&amp;Cats!I14&amp;"'],"</f>
+        <v>['id'=&gt;12,'name'=&gt;'Smart Home','slug'=&gt;'smart-home','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;202,'lvl'=&gt;1,'description'=&gt;'Stream music, ask questions, and so much more with Amazon Alexa. Enjoy the convenience of playing anything you want, any way you want. Your music. Your voice. You’re in control.'],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A15&amp;",'name'=&gt;'"&amp;Cats!B15&amp;"','slug'=&gt;'"&amp;Cats!C15&amp;"','parent_id'=&gt;"&amp;Cats!E15&amp;",'type'=&gt;'"&amp;Cats!F15&amp;"','ord'=&gt;"&amp;Cats!G15&amp;",'lvl'=&gt;"&amp;Cats!H15&amp;",'description'=&gt;'"&amp;Cats!I15&amp;"'],"</f>
+        <v>['id'=&gt;13,'name'=&gt;'Home Theater','slug'=&gt;'home-theater','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;203,'lvl'=&gt;1,'description'=&gt;'Take all that’s great about movies, TV, and music … and make it even better. Bose soundbars and home theater surround sound systems bring out the best in your entertainment, so you can enjoy thrilling, cinema-like sound from the comfort of your couch.'],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A16&amp;",'name'=&gt;'"&amp;Cats!B16&amp;"','slug'=&gt;'"&amp;Cats!C16&amp;"','parent_id'=&gt;"&amp;Cats!E16&amp;",'type'=&gt;'"&amp;Cats!F16&amp;"','ord'=&gt;"&amp;Cats!G16&amp;",'lvl'=&gt;"&amp;Cats!H16&amp;",'description'=&gt;'"&amp;Cats!I16&amp;"'],"</f>
+        <v>['id'=&gt;14,'name'=&gt;'Wave','slug'=&gt;'wave','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;204,'lvl'=&gt;1,'description'=&gt;'Exceptional performance. Elegant design.'],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A17&amp;",'name'=&gt;'"&amp;Cats!B17&amp;"','slug'=&gt;'"&amp;Cats!C17&amp;"','parent_id'=&gt;"&amp;Cats!E17&amp;",'type'=&gt;'"&amp;Cats!F17&amp;"','ord'=&gt;"&amp;Cats!G17&amp;",'lvl'=&gt;"&amp;Cats!H17&amp;",'description'=&gt;'"&amp;Cats!I17&amp;"'],"</f>
+        <v>['id'=&gt;15,'name'=&gt;'Stereo','slug'=&gt;'stereo','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;205,'lvl'=&gt;1,'description'=&gt;'Bring out the best your music has to offer with Bose speakers. You'll find a variety of choices, including outdoor speakers and specialty speakers.'],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A18&amp;",'name'=&gt;'"&amp;Cats!B18&amp;"','slug'=&gt;'"&amp;Cats!C18&amp;"','parent_id'=&gt;"&amp;Cats!E18&amp;",'type'=&gt;'"&amp;Cats!F18&amp;"','ord'=&gt;"&amp;Cats!G18&amp;",'lvl'=&gt;"&amp;Cats!H18&amp;",'description'=&gt;'"&amp;Cats!I18&amp;"'],"</f>
+        <v>['id'=&gt;16,'name'=&gt;'Computer','slug'=&gt;'computer','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;206,'lvl'=&gt;1,'description'=&gt;'Simple. Elegant. Powerful.'],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A19&amp;",'name'=&gt;'"&amp;Cats!B19&amp;"','slug'=&gt;'"&amp;Cats!C19&amp;"','parent_id'=&gt;"&amp;Cats!E19&amp;",'type'=&gt;'"&amp;Cats!F19&amp;"','ord'=&gt;"&amp;Cats!G19&amp;",'lvl'=&gt;"&amp;Cats!H19&amp;",'description'=&gt;'"&amp;Cats!I19&amp;"'],"</f>
+        <v>['id'=&gt;17,'name'=&gt;'Portable PA','slug'=&gt;'portable-pa','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;207,'lvl'=&gt;1,'description'=&gt;'Focus less on your gear, and more on your music with Bose portable PA systems.'],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>"['id'=&gt;"&amp;Cats!A20&amp;",'name'=&gt;'"&amp;Cats!B20&amp;"','slug'=&gt;'"&amp;Cats!C20&amp;"','parent_id'=&gt;"&amp;Cats!E20&amp;",'type'=&gt;'"&amp;Cats!F20&amp;"','ord'=&gt;"&amp;Cats!G20&amp;",'lvl'=&gt;"&amp;Cats!H20&amp;",'description'=&gt;'"&amp;Cats!I20&amp;"'],"</f>
+        <v>['id'=&gt;18,'name'=&gt;'Speaker Accesories','slug'=&gt;'speaker-accesories','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;208,'lvl'=&gt;1,'description'=&gt;'Whether you have Bose speakers at home or portable Bose speakers, we have accessories to help make the most of them.'],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Products.xlsx
+++ b/docs/Products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Prds" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PSQL" sheetId="4" r:id="rId5"/>
     <sheet name="PPHP" sheetId="6" r:id="rId6"/>
     <sheet name="CPHP" sheetId="8" r:id="rId7"/>
+    <sheet name="PCPHP" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1003,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,11 +6501,11 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B105" t="str">
         <f>VLOOKUP(A105,Prds!$A$3:$G$198,2)</f>
-        <v>251 outdoor speakers</v>
+        <v>SoundTouch outdoor wireless system with 251 speakers</v>
       </c>
       <c r="C105">
         <v>15</v>
@@ -6516,11 +6517,11 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B106" t="str">
         <f>VLOOKUP(A106,Prds!$A$3:$G$198,2)</f>
-        <v>SoundTouch outdoor wireless system with 251 speakers</v>
+        <v>201 bookshelf speakers</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -6532,11 +6533,11 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" t="str">
         <f>VLOOKUP(A107,Prds!$A$3:$G$198,2)</f>
-        <v>201 bookshelf speakers</v>
+        <v>891 in-wall speakers</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -6548,11 +6549,11 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B108" t="str">
         <f>VLOOKUP(A108,Prds!$A$3:$G$198,2)</f>
-        <v>891 in-wall speakers</v>
+        <v>591 in-ceiling speakers</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -6564,11 +6565,11 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B109" t="str">
         <f>VLOOKUP(A109,Prds!$A$3:$G$198,2)</f>
-        <v>591 in-ceiling speakers</v>
+        <v>691 in-wall speakers</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -6580,27 +6581,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B110" t="str">
         <f>VLOOKUP(A110,Prds!$A$3:$G$198,2)</f>
-        <v>691 in-wall speakers</v>
+        <v>Companion 2 computer speakers</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(C110,Cats!$A$3:$I$20,2)</f>
-        <v>Stereo</v>
+        <v>Computer</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B111" t="str">
         <f>VLOOKUP(A111,Prds!$A$3:$G$198,2)</f>
-        <v>Companion 2 computer speakers</v>
+        <v>Companion 20 computer speakers</v>
       </c>
       <c r="C111">
         <v>16</v>
@@ -6612,27 +6613,27 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B112" t="str">
         <f>VLOOKUP(A112,Prds!$A$3:$G$198,2)</f>
-        <v>Companion 20 computer speakers</v>
+        <v>S1 Pro system</v>
       </c>
       <c r="C112">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(C112,Cats!$A$3:$I$20,2)</f>
-        <v>Computer</v>
+        <v>Portable PA</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B113" t="str">
         <f>VLOOKUP(A113,Prds!$A$3:$G$198,2)</f>
-        <v>S1 Pro system</v>
+        <v>L1 Compact system</v>
       </c>
       <c r="C113">
         <v>17</v>
@@ -6644,11 +6645,11 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" t="str">
         <f>VLOOKUP(A114,Prds!$A$3:$G$198,2)</f>
-        <v>L1 Compact system</v>
+        <v>F1 Model 812 loudspeaker with F1 Subwoofer</v>
       </c>
       <c r="C114">
         <v>17</v>
@@ -6660,11 +6661,11 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B115" t="str">
         <f>VLOOKUP(A115,Prds!$A$3:$G$198,2)</f>
-        <v>F1 Model 812 loudspeaker with F1 Subwoofer</v>
+        <v>F1 Model 812 Flexible Array loudspeaker</v>
       </c>
       <c r="C115">
         <v>17</v>
@@ -6676,11 +6677,11 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B116" t="str">
         <f>VLOOKUP(A116,Prds!$A$3:$G$198,2)</f>
-        <v>F1 Model 812 Flexible Array loudspeaker</v>
+        <v>L1 II system/B2 bass</v>
       </c>
       <c r="C116">
         <v>17</v>
@@ -6692,11 +6693,11 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B117" t="str">
         <f>VLOOKUP(A117,Prds!$A$3:$G$198,2)</f>
-        <v>L1 II system/B2 bass</v>
+        <v>L1 Compact Wireless package</v>
       </c>
       <c r="C117">
         <v>17</v>
@@ -6708,11 +6709,11 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B118" t="str">
         <f>VLOOKUP(A118,Prds!$A$3:$G$198,2)</f>
-        <v>L1 Compact Wireless package</v>
+        <v>T4S ToneMatch mixer</v>
       </c>
       <c r="C118">
         <v>17</v>
@@ -6724,11 +6725,11 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B119" t="str">
         <f>VLOOKUP(A119,Prds!$A$3:$G$198,2)</f>
-        <v>T4S ToneMatch mixer</v>
+        <v>T8S ToneMatch mixer</v>
       </c>
       <c r="C119">
         <v>17</v>
@@ -6740,11 +6741,11 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B120" t="str">
         <f>VLOOKUP(A120,Prds!$A$3:$G$198,2)</f>
-        <v>T8S ToneMatch mixer</v>
+        <v>F1 Subwoofer</v>
       </c>
       <c r="C120">
         <v>17</v>
@@ -6756,11 +6757,11 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B121" t="str">
         <f>VLOOKUP(A121,Prds!$A$3:$G$198,2)</f>
-        <v>F1 Subwoofer</v>
+        <v>L1 1S system/B2 bass</v>
       </c>
       <c r="C121">
         <v>17</v>
@@ -6772,11 +6773,11 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B122" t="str">
         <f>VLOOKUP(A122,Prds!$A$3:$G$198,2)</f>
-        <v>L1 1S system/B2 bass</v>
+        <v>L1 1S system/B1 bass</v>
       </c>
       <c r="C122">
         <v>17</v>
@@ -6788,11 +6789,11 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B123" t="str">
         <f>VLOOKUP(A123,Prds!$A$3:$G$198,2)</f>
-        <v>L1 1S system/B1 bass</v>
+        <v>L1 II system/B1 bass</v>
       </c>
       <c r="C123">
         <v>17</v>
@@ -6804,11 +6805,11 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B124" t="str">
         <f>VLOOKUP(A124,Prds!$A$3:$G$198,2)</f>
-        <v>L1 II system/B1 bass</v>
+        <v>Two F1 Model 812 loudspeakers with F1 Subwoofer</v>
       </c>
       <c r="C124">
         <v>17</v>
@@ -6820,27 +6821,27 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B125" t="str">
         <f>VLOOKUP(A125,Prds!$A$3:$G$198,2)</f>
-        <v>Two F1 Model 812 loudspeakers with F1 Subwoofer</v>
+        <v>Bose Surround Speakers</v>
       </c>
       <c r="C125">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(C125,Cats!$A$3:$I$20,2)</f>
-        <v>Portable PA</v>
+        <v>Speaker Accesories</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B126" t="str">
         <f>VLOOKUP(A126,Prds!$A$3:$G$198,2)</f>
-        <v>Bose Surround Speakers</v>
+        <v>Bose Bass Module 700</v>
       </c>
       <c r="C126">
         <v>18</v>
@@ -6852,11 +6853,11 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B127" t="str">
         <f>VLOOKUP(A127,Prds!$A$3:$G$198,2)</f>
-        <v>Bose Bass Module 700</v>
+        <v>Bose Bass Module 500</v>
       </c>
       <c r="C127">
         <v>18</v>
@@ -6868,11 +6869,11 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B128" t="str">
         <f>VLOOKUP(A128,Prds!$A$3:$G$198,2)</f>
-        <v>Bose Bass Module 500</v>
+        <v>SoundLink Revolve charging cradle</v>
       </c>
       <c r="C128">
         <v>18</v>
@@ -6884,11 +6885,11 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B129" t="str">
         <f>VLOOKUP(A129,Prds!$A$3:$G$198,2)</f>
-        <v>SoundLink Revolve charging cradle</v>
+        <v>Bose Soundbar Wall Bracket</v>
       </c>
       <c r="C129">
         <v>18</v>
@@ -6900,11 +6901,11 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B130" t="str">
         <f>VLOOKUP(A130,Prds!$A$3:$G$198,2)</f>
-        <v>Bose Soundbar Wall Bracket</v>
+        <v>Bose Soundbar Universal Remote</v>
       </c>
       <c r="C130">
         <v>18</v>
@@ -6916,11 +6917,11 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131" t="str">
         <f>VLOOKUP(A131,Prds!$A$3:$G$198,2)</f>
-        <v>Bose Soundbar Universal Remote</v>
+        <v>SoundXtra TV stand for SoundTouch 300</v>
       </c>
       <c r="C131">
         <v>18</v>
@@ -6932,11 +6933,11 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132" t="str">
         <f>VLOOKUP(A132,Prds!$A$3:$G$198,2)</f>
-        <v>SoundXtra TV stand for SoundTouch 300</v>
+        <v>S1 Pro Slip Cover</v>
       </c>
       <c r="C132">
         <v>18</v>
@@ -6948,11 +6949,11 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B133" t="str">
         <f>VLOOKUP(A133,Prds!$A$3:$G$198,2)</f>
-        <v>S1 Pro Slip Cover</v>
+        <v>S1 Pro Backpack</v>
       </c>
       <c r="C133">
         <v>18</v>
@@ -6964,11 +6965,11 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B134" t="str">
         <f>VLOOKUP(A134,Prds!$A$3:$G$198,2)</f>
-        <v>S1 Pro Backpack</v>
+        <v>SoundXtra floor stand for SoundTouch 20</v>
       </c>
       <c r="C134">
         <v>18</v>
@@ -6980,11 +6981,11 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135" t="str">
         <f>VLOOKUP(A135,Prds!$A$3:$G$198,2)</f>
-        <v>SoundXtra floor stand for SoundTouch 20</v>
+        <v>Wave FM antenna</v>
       </c>
       <c r="C135">
         <v>18</v>
@@ -6996,11 +6997,11 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B136" t="str">
         <f>VLOOKUP(A136,Prds!$A$3:$G$198,2)</f>
-        <v>Wave FM antenna</v>
+        <v>RC-PWS III universal remote</v>
       </c>
       <c r="C136">
         <v>18</v>
@@ -7012,11 +7013,11 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B137" t="str">
         <f>VLOOKUP(A137,Prds!$A$3:$G$198,2)</f>
-        <v>RC-PWS III universal remote</v>
+        <v>UB-20 II wall/ceiling bracket</v>
       </c>
       <c r="C137">
         <v>18</v>
@@ -7028,11 +7029,11 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B138" t="str">
         <f>VLOOKUP(A138,Prds!$A$3:$G$198,2)</f>
-        <v>UB-20 II wall/ceiling bracket</v>
+        <v>UFS-20 II floorstands</v>
       </c>
       <c r="C138">
         <v>18</v>
@@ -7044,11 +7045,11 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B139" t="str">
         <f>VLOOKUP(A139,Prds!$A$3:$G$198,2)</f>
-        <v>UFS-20 II floorstands</v>
+        <v>SoundWear Companion cover</v>
       </c>
       <c r="C139">
         <v>18</v>
@@ -7060,11 +7061,11 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B140" t="str">
         <f>VLOOKUP(A140,Prds!$A$3:$G$198,2)</f>
-        <v>SoundWear Companion cover</v>
+        <v>T4S ToneMatch mixer</v>
       </c>
       <c r="C140">
         <v>18</v>
@@ -7076,11 +7077,11 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B141" t="str">
         <f>VLOOKUP(A141,Prds!$A$3:$G$198,2)</f>
-        <v>T4S ToneMatch mixer</v>
+        <v>Speaker wire adapter kot</v>
       </c>
       <c r="C141">
         <v>18</v>
@@ -7092,11 +7093,11 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B142" t="str">
         <f>VLOOKUP(A142,Prds!$A$3:$G$198,2)</f>
-        <v>Speaker wire adapter kot</v>
+        <v>B1 bass module</v>
       </c>
       <c r="C142">
         <v>18</v>
@@ -7108,11 +7109,11 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B143" t="str">
         <f>VLOOKUP(A143,Prds!$A$3:$G$198,2)</f>
-        <v>B1 bass module</v>
+        <v>T8S ToneMatch mixer</v>
       </c>
       <c r="C143">
         <v>18</v>
@@ -7124,11 +7125,11 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B144" t="str">
         <f>VLOOKUP(A144,Prds!$A$3:$G$198,2)</f>
-        <v>T8S ToneMatch mixer</v>
+        <v>SlideConnect wall bracket</v>
       </c>
       <c r="C144">
         <v>18</v>
@@ -7140,11 +7141,11 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B145" t="str">
         <f>VLOOKUP(A145,Prds!$A$3:$G$198,2)</f>
-        <v>SlideConnect wall bracket</v>
+        <v>WB-300 wall bracket</v>
       </c>
       <c r="C145">
         <v>18</v>
@@ -7156,11 +7157,11 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B146" t="str">
         <f>VLOOKUP(A146,Prds!$A$3:$G$198,2)</f>
-        <v>WB-300 wall bracket</v>
+        <v>WB-120 wall-mount kit</v>
       </c>
       <c r="C146">
         <v>18</v>
@@ -7172,11 +7173,11 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B147" t="str">
         <f>VLOOKUP(A147,Prds!$A$3:$G$198,2)</f>
-        <v>WB-120 wall-mount kit</v>
+        <v>F1 Subwoofer</v>
       </c>
       <c r="C147">
         <v>18</v>
@@ -7188,11 +7189,11 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B148" t="str">
         <f>VLOOKUP(A148,Prds!$A$3:$G$198,2)</f>
-        <v>F1 Subwoofer</v>
+        <v>L1 Compact microphone accessory pack</v>
       </c>
       <c r="C148">
         <v>18</v>
@@ -7204,11 +7205,11 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" t="str">
         <f>VLOOKUP(A149,Prds!$A$3:$G$198,2)</f>
-        <v>L1 Compact microphone accessory pack</v>
+        <v>SoundLink Mini travel bag</v>
       </c>
       <c r="C149">
         <v>18</v>
@@ -7220,11 +7221,11 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" t="str">
         <f>VLOOKUP(A150,Prds!$A$3:$G$198,2)</f>
-        <v>SoundLink Mini travel bag</v>
+        <v>UTS-20 II table stand</v>
       </c>
       <c r="C150">
         <v>18</v>
@@ -7236,11 +7237,11 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" t="str">
         <f>VLOOKUP(A151,Prds!$A$3:$G$198,2)</f>
-        <v>UTS-20 II table stand</v>
+        <v>CineMate speaker wire adapter kit</v>
       </c>
       <c r="C151">
         <v>18</v>
@@ -7252,11 +7253,11 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B152" t="str">
         <f>VLOOKUP(A152,Prds!$A$3:$G$198,2)</f>
-        <v>CineMate speaker wire adapter kit</v>
+        <v>B1/B2 4-pin cable</v>
       </c>
       <c r="C152">
         <v>18</v>
@@ -7268,11 +7269,11 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B153" t="str">
         <f>VLOOKUP(A153,Prds!$A$3:$G$198,2)</f>
-        <v>B1/B2 4-pin cable</v>
+        <v>SoundXtra TV mount for SoundTouch 300</v>
       </c>
       <c r="C153">
         <v>18</v>
@@ -7284,11 +7285,11 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B154" t="str">
         <f>VLOOKUP(A154,Prds!$A$3:$G$198,2)</f>
-        <v>SoundXtra TV mount for SoundTouch 300</v>
+        <v>SoundLink speaker III cover</v>
       </c>
       <c r="C154">
         <v>18</v>
@@ -7300,11 +7301,11 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B155" t="str">
         <f>VLOOKUP(A155,Prds!$A$3:$G$198,2)</f>
-        <v>SoundLink speaker III cover</v>
+        <v>PackLite A1 power amplifier</v>
       </c>
       <c r="C155">
         <v>18</v>
@@ -7316,11 +7317,11 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B156" t="str">
         <f>VLOOKUP(A156,Prds!$A$3:$G$198,2)</f>
-        <v>PackLite A1 power amplifier</v>
+        <v>WB-3 bookshelf speaker wall brackets</v>
       </c>
       <c r="C156">
         <v>18</v>
@@ -7332,11 +7333,11 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B157" t="str">
         <f>VLOOKUP(A157,Prds!$A$3:$G$198,2)</f>
-        <v>WB-3 bookshelf speaker wall brackets</v>
+        <v>B2 bass module</v>
       </c>
       <c r="C157">
         <v>18</v>
@@ -7348,11 +7349,11 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B158" t="str">
         <f>VLOOKUP(A158,Prds!$A$3:$G$198,2)</f>
-        <v>B2 bass module</v>
+        <v>ToneMatch mixer power supply</v>
       </c>
       <c r="C158">
         <v>18</v>
@@ -7364,11 +7365,11 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B159" t="str">
         <f>VLOOKUP(A159,Prds!$A$3:$G$198,2)</f>
-        <v>ToneMatch mixer power supply</v>
+        <v>SoundLink Revolve and Soundlink Revolve+ wall adapter</v>
       </c>
       <c r="C159">
         <v>18</v>
@@ -7380,11 +7381,11 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B160" t="str">
         <f>VLOOKUP(A160,Prds!$A$3:$G$198,2)</f>
-        <v>SoundLink Revolve and Soundlink Revolve+ wall adapter</v>
+        <v>FS-01 bookshelf speaker floorstands</v>
       </c>
       <c r="C160">
         <v>18</v>
@@ -7396,11 +7397,11 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B161" t="str">
         <f>VLOOKUP(A161,Prds!$A$3:$G$198,2)</f>
-        <v>FS-01 bookshelf speaker floorstands</v>
+        <v>Home theater speaker extension cable</v>
       </c>
       <c r="C161">
         <v>18</v>
@@ -7412,11 +7413,11 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B162" t="str">
         <f>VLOOKUP(A162,Prds!$A$3:$G$198,2)</f>
-        <v>Home theater speaker extension cable</v>
+        <v>Lifestyle 600/650 home entertainment system remote control</v>
       </c>
       <c r="C162">
         <v>18</v>
@@ -7428,11 +7429,11 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B163" t="str">
         <f>VLOOKUP(A163,Prds!$A$3:$G$198,2)</f>
-        <v>Lifestyle 600/650 home entertainment system remote control</v>
+        <v>SoundTouch II remote</v>
       </c>
       <c r="C163">
         <v>18</v>
@@ -7444,11 +7445,11 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B164" t="str">
         <f>VLOOKUP(A164,Prds!$A$3:$G$198,2)</f>
-        <v>SoundTouch II remote</v>
+        <v>OmniJewel center channel wire adapter</v>
       </c>
       <c r="C164">
         <v>18</v>
@@ -7460,11 +7461,11 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B165" t="str">
         <f>VLOOKUP(A165,Prds!$A$3:$G$198,2)</f>
-        <v>OmniJewel center channel wire adapter</v>
+        <v>SoundXtra wall mount for SoundTouch 10</v>
       </c>
       <c r="C165">
         <v>18</v>
@@ -7476,11 +7477,11 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B166" t="str">
         <f>VLOOKUP(A166,Prds!$A$3:$G$198,2)</f>
-        <v>SoundXtra wall mount for SoundTouch 10</v>
+        <v>791 in-ceiling speakers II rough-in kit</v>
       </c>
       <c r="C166">
         <v>18</v>
@@ -7492,11 +7493,11 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B167" t="str">
         <f>VLOOKUP(A167,Prds!$A$3:$G$198,2)</f>
-        <v>791 in-ceiling speakers II rough-in kit</v>
+        <v>WB-135 wall mount kit</v>
       </c>
       <c r="C167">
         <v>18</v>
@@ -7508,11 +7509,11 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B168" t="str">
         <f>VLOOKUP(A168,Prds!$A$3:$G$198,2)</f>
-        <v>WB-135 wall mount kit</v>
+        <v>CineMate home theater system-Interface Module</v>
       </c>
       <c r="C168">
         <v>18</v>
@@ -7524,11 +7525,11 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B169" t="str">
         <f>VLOOKUP(A169,Prds!$A$3:$G$198,2)</f>
-        <v>CineMate home theater system-Interface Module</v>
+        <v>F1 Model 812 travel bag</v>
       </c>
       <c r="C169">
         <v>18</v>
@@ -7540,11 +7541,11 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Prds!$A$3:$G$198,2)</f>
-        <v>F1 Model 812 travel bag</v>
+        <v>891 in-wall speakers rough-in kit</v>
       </c>
       <c r="C170">
         <v>18</v>
@@ -7556,11 +7557,11 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Prds!$A$3:$G$198,2)</f>
-        <v>891 in-wall speakers rough-in kit</v>
+        <v>SoundXtra floor stand for SoundTouch 10</v>
       </c>
       <c r="C171">
         <v>18</v>
@@ -7572,33 +7573,17 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B172" t="str">
         <f>VLOOKUP(A172,Prds!$A$3:$G$198,2)</f>
-        <v>SoundXtra floor stand for SoundTouch 10</v>
+        <v>SoundXtra floor stand for SoundTouch 30</v>
       </c>
       <c r="C172">
         <v>18</v>
       </c>
       <c r="D172" t="str">
         <f>VLOOKUP(C172,Cats!$A$3:$I$20,2)</f>
-        <v>Speaker Accesories</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>160</v>
-      </c>
-      <c r="B173" t="str">
-        <f>VLOOKUP(A173,Prds!$A$3:$G$198,2)</f>
-        <v>SoundXtra floor stand for SoundTouch 30</v>
-      </c>
-      <c r="C173">
-        <v>18</v>
-      </c>
-      <c r="D173" t="str">
-        <f>VLOOKUP(C173,Cats!$A$3:$I$20,2)</f>
         <v>Speaker Accesories</v>
       </c>
     </row>
@@ -10964,7 +10949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
@@ -11081,4 +11066,1043 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A2&amp;",'category_id'=&gt;"&amp;ProdCats!C2&amp;"],"</f>
+        <v>['product_id'=&gt;1,'category_id'=&gt;3],</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A3&amp;",'category_id'=&gt;"&amp;ProdCats!C3&amp;"],"</f>
+        <v>['product_id'=&gt;2,'category_id'=&gt;3],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A4&amp;",'category_id'=&gt;"&amp;ProdCats!C4&amp;"],"</f>
+        <v>['product_id'=&gt;3,'category_id'=&gt;3],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A5&amp;",'category_id'=&gt;"&amp;ProdCats!C5&amp;"],"</f>
+        <v>['product_id'=&gt;4,'category_id'=&gt;3],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A6&amp;",'category_id'=&gt;"&amp;ProdCats!C6&amp;"],"</f>
+        <v>['product_id'=&gt;5,'category_id'=&gt;3],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A7&amp;",'category_id'=&gt;"&amp;ProdCats!C7&amp;"],"</f>
+        <v>['product_id'=&gt;6,'category_id'=&gt;3],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A8&amp;",'category_id'=&gt;"&amp;ProdCats!C8&amp;"],"</f>
+        <v>['product_id'=&gt;1,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A9&amp;",'category_id'=&gt;"&amp;ProdCats!C9&amp;"],"</f>
+        <v>['product_id'=&gt;7,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A10&amp;",'category_id'=&gt;"&amp;ProdCats!C10&amp;"],"</f>
+        <v>['product_id'=&gt;8,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A11&amp;",'category_id'=&gt;"&amp;ProdCats!C11&amp;"],"</f>
+        <v>['product_id'=&gt;2,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A12&amp;",'category_id'=&gt;"&amp;ProdCats!C12&amp;"],"</f>
+        <v>['product_id'=&gt;3,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A13&amp;",'category_id'=&gt;"&amp;ProdCats!C13&amp;"],"</f>
+        <v>['product_id'=&gt;9,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A14&amp;",'category_id'=&gt;"&amp;ProdCats!C14&amp;"],"</f>
+        <v>['product_id'=&gt;4,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A15&amp;",'category_id'=&gt;"&amp;ProdCats!C15&amp;"],"</f>
+        <v>['product_id'=&gt;12,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A16&amp;",'category_id'=&gt;"&amp;ProdCats!C16&amp;"],"</f>
+        <v>['product_id'=&gt;13,'category_id'=&gt;4],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A17&amp;",'category_id'=&gt;"&amp;ProdCats!C17&amp;"],"</f>
+        <v>['product_id'=&gt;7,'category_id'=&gt;5],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A18&amp;",'category_id'=&gt;"&amp;ProdCats!C18&amp;"],"</f>
+        <v>['product_id'=&gt;8,'category_id'=&gt;5],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A19&amp;",'category_id'=&gt;"&amp;ProdCats!C19&amp;"],"</f>
+        <v>['product_id'=&gt;14,'category_id'=&gt;5],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A20&amp;",'category_id'=&gt;"&amp;ProdCats!C20&amp;"],"</f>
+        <v>['product_id'=&gt;12,'category_id'=&gt;5],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A21&amp;",'category_id'=&gt;"&amp;ProdCats!C21&amp;"],"</f>
+        <v>['product_id'=&gt;15,'category_id'=&gt;5],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A22&amp;",'category_id'=&gt;"&amp;ProdCats!C22&amp;"],"</f>
+        <v>['product_id'=&gt;10,'category_id'=&gt;6],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A23&amp;",'category_id'=&gt;"&amp;ProdCats!C23&amp;"],"</f>
+        <v>['product_id'=&gt;20,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A24&amp;",'category_id'=&gt;"&amp;ProdCats!C24&amp;"],"</f>
+        <v>['product_id'=&gt;21,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A25&amp;",'category_id'=&gt;"&amp;ProdCats!C25&amp;"],"</f>
+        <v>['product_id'=&gt;22,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A26&amp;",'category_id'=&gt;"&amp;ProdCats!C26&amp;"],"</f>
+        <v>['product_id'=&gt;23,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A27&amp;",'category_id'=&gt;"&amp;ProdCats!C27&amp;"],"</f>
+        <v>['product_id'=&gt;24,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A28&amp;",'category_id'=&gt;"&amp;ProdCats!C28&amp;"],"</f>
+        <v>['product_id'=&gt;25,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A29&amp;",'category_id'=&gt;"&amp;ProdCats!C29&amp;"],"</f>
+        <v>['product_id'=&gt;26,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A30&amp;",'category_id'=&gt;"&amp;ProdCats!C30&amp;"],"</f>
+        <v>['product_id'=&gt;27,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A31&amp;",'category_id'=&gt;"&amp;ProdCats!C31&amp;"],"</f>
+        <v>['product_id'=&gt;28,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A32&amp;",'category_id'=&gt;"&amp;ProdCats!C32&amp;"],"</f>
+        <v>['product_id'=&gt;29,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A33&amp;",'category_id'=&gt;"&amp;ProdCats!C33&amp;"],"</f>
+        <v>['product_id'=&gt;30,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A34&amp;",'category_id'=&gt;"&amp;ProdCats!C34&amp;"],"</f>
+        <v>['product_id'=&gt;31,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A35&amp;",'category_id'=&gt;"&amp;ProdCats!C35&amp;"],"</f>
+        <v>['product_id'=&gt;32,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A36&amp;",'category_id'=&gt;"&amp;ProdCats!C36&amp;"],"</f>
+        <v>['product_id'=&gt;33,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A37&amp;",'category_id'=&gt;"&amp;ProdCats!C37&amp;"],"</f>
+        <v>['product_id'=&gt;34,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A38&amp;",'category_id'=&gt;"&amp;ProdCats!C38&amp;"],"</f>
+        <v>['product_id'=&gt;35,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A39&amp;",'category_id'=&gt;"&amp;ProdCats!C39&amp;"],"</f>
+        <v>['product_id'=&gt;36,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A40&amp;",'category_id'=&gt;"&amp;ProdCats!C40&amp;"],"</f>
+        <v>['product_id'=&gt;37,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A41&amp;",'category_id'=&gt;"&amp;ProdCats!C41&amp;"],"</f>
+        <v>['product_id'=&gt;38,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A42&amp;",'category_id'=&gt;"&amp;ProdCats!C42&amp;"],"</f>
+        <v>['product_id'=&gt;39,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A43&amp;",'category_id'=&gt;"&amp;ProdCats!C43&amp;"],"</f>
+        <v>['product_id'=&gt;40,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A44&amp;",'category_id'=&gt;"&amp;ProdCats!C44&amp;"],"</f>
+        <v>['product_id'=&gt;41,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A45&amp;",'category_id'=&gt;"&amp;ProdCats!C45&amp;"],"</f>
+        <v>['product_id'=&gt;42,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A46&amp;",'category_id'=&gt;"&amp;ProdCats!C46&amp;"],"</f>
+        <v>['product_id'=&gt;43,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A47&amp;",'category_id'=&gt;"&amp;ProdCats!C47&amp;"],"</f>
+        <v>['product_id'=&gt;44,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A48&amp;",'category_id'=&gt;"&amp;ProdCats!C48&amp;"],"</f>
+        <v>['product_id'=&gt;45,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A49&amp;",'category_id'=&gt;"&amp;ProdCats!C49&amp;"],"</f>
+        <v>['product_id'=&gt;46,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A50&amp;",'category_id'=&gt;"&amp;ProdCats!C50&amp;"],"</f>
+        <v>['product_id'=&gt;47,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A51&amp;",'category_id'=&gt;"&amp;ProdCats!C51&amp;"],"</f>
+        <v>['product_id'=&gt;48,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A52&amp;",'category_id'=&gt;"&amp;ProdCats!C52&amp;"],"</f>
+        <v>['product_id'=&gt;49,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A53&amp;",'category_id'=&gt;"&amp;ProdCats!C53&amp;"],"</f>
+        <v>['product_id'=&gt;50,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A54&amp;",'category_id'=&gt;"&amp;ProdCats!C54&amp;"],"</f>
+        <v>['product_id'=&gt;51,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A55&amp;",'category_id'=&gt;"&amp;ProdCats!C55&amp;"],"</f>
+        <v>['product_id'=&gt;52,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A56&amp;",'category_id'=&gt;"&amp;ProdCats!C56&amp;"],"</f>
+        <v>['product_id'=&gt;53,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A57&amp;",'category_id'=&gt;"&amp;ProdCats!C57&amp;"],"</f>
+        <v>['product_id'=&gt;54,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A58&amp;",'category_id'=&gt;"&amp;ProdCats!C58&amp;"],"</f>
+        <v>['product_id'=&gt;55,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A59&amp;",'category_id'=&gt;"&amp;ProdCats!C59&amp;"],"</f>
+        <v>['product_id'=&gt;56,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A60&amp;",'category_id'=&gt;"&amp;ProdCats!C60&amp;"],"</f>
+        <v>['product_id'=&gt;57,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A61&amp;",'category_id'=&gt;"&amp;ProdCats!C61&amp;"],"</f>
+        <v>['product_id'=&gt;58,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A62&amp;",'category_id'=&gt;"&amp;ProdCats!C62&amp;"],"</f>
+        <v>['product_id'=&gt;59,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A63&amp;",'category_id'=&gt;"&amp;ProdCats!C63&amp;"],"</f>
+        <v>['product_id'=&gt;60,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A64&amp;",'category_id'=&gt;"&amp;ProdCats!C64&amp;"],"</f>
+        <v>['product_id'=&gt;61,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A65&amp;",'category_id'=&gt;"&amp;ProdCats!C65&amp;"],"</f>
+        <v>['product_id'=&gt;62,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A66&amp;",'category_id'=&gt;"&amp;ProdCats!C66&amp;"],"</f>
+        <v>['product_id'=&gt;63,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A67&amp;",'category_id'=&gt;"&amp;ProdCats!C67&amp;"],"</f>
+        <v>['product_id'=&gt;64,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A68&amp;",'category_id'=&gt;"&amp;ProdCats!C68&amp;"],"</f>
+        <v>['product_id'=&gt;65,'category_id'=&gt;10],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A69&amp;",'category_id'=&gt;"&amp;ProdCats!C69&amp;"],"</f>
+        <v>['product_id'=&gt;66,'category_id'=&gt;11],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A70&amp;",'category_id'=&gt;"&amp;ProdCats!C70&amp;"],"</f>
+        <v>['product_id'=&gt;67,'category_id'=&gt;11],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A71&amp;",'category_id'=&gt;"&amp;ProdCats!C71&amp;"],"</f>
+        <v>['product_id'=&gt;68,'category_id'=&gt;11],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A72&amp;",'category_id'=&gt;"&amp;ProdCats!C72&amp;"],"</f>
+        <v>['product_id'=&gt;69,'category_id'=&gt;11],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A73&amp;",'category_id'=&gt;"&amp;ProdCats!C73&amp;"],"</f>
+        <v>['product_id'=&gt;70,'category_id'=&gt;11],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A74&amp;",'category_id'=&gt;"&amp;ProdCats!C74&amp;"],"</f>
+        <v>['product_id'=&gt;71,'category_id'=&gt;11],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A75&amp;",'category_id'=&gt;"&amp;ProdCats!C75&amp;"],"</f>
+        <v>['product_id'=&gt;72,'category_id'=&gt;11],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A76&amp;",'category_id'=&gt;"&amp;ProdCats!C76&amp;"],"</f>
+        <v>['product_id'=&gt;73,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A77&amp;",'category_id'=&gt;"&amp;ProdCats!C77&amp;"],"</f>
+        <v>['product_id'=&gt;74,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A78&amp;",'category_id'=&gt;"&amp;ProdCats!C78&amp;"],"</f>
+        <v>['product_id'=&gt;75,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A79&amp;",'category_id'=&gt;"&amp;ProdCats!C79&amp;"],"</f>
+        <v>['product_id'=&gt;76,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A80&amp;",'category_id'=&gt;"&amp;ProdCats!C80&amp;"],"</f>
+        <v>['product_id'=&gt;77,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A81&amp;",'category_id'=&gt;"&amp;ProdCats!C81&amp;"],"</f>
+        <v>['product_id'=&gt;78,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A82&amp;",'category_id'=&gt;"&amp;ProdCats!C82&amp;"],"</f>
+        <v>['product_id'=&gt;79,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A83&amp;",'category_id'=&gt;"&amp;ProdCats!C83&amp;"],"</f>
+        <v>['product_id'=&gt;80,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A84&amp;",'category_id'=&gt;"&amp;ProdCats!C84&amp;"],"</f>
+        <v>['product_id'=&gt;81,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A85&amp;",'category_id'=&gt;"&amp;ProdCats!C85&amp;"],"</f>
+        <v>['product_id'=&gt;82,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A86&amp;",'category_id'=&gt;"&amp;ProdCats!C86&amp;"],"</f>
+        <v>['product_id'=&gt;83,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A87&amp;",'category_id'=&gt;"&amp;ProdCats!C87&amp;"],"</f>
+        <v>['product_id'=&gt;84,'category_id'=&gt;12],</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A88&amp;",'category_id'=&gt;"&amp;ProdCats!C88&amp;"],"</f>
+        <v>['product_id'=&gt;74,'category_id'=&gt;13],</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A89&amp;",'category_id'=&gt;"&amp;ProdCats!C89&amp;"],"</f>
+        <v>['product_id'=&gt;75,'category_id'=&gt;13],</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A90&amp;",'category_id'=&gt;"&amp;ProdCats!C90&amp;"],"</f>
+        <v>['product_id'=&gt;76,'category_id'=&gt;13],</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A91&amp;",'category_id'=&gt;"&amp;ProdCats!C91&amp;"],"</f>
+        <v>['product_id'=&gt;77,'category_id'=&gt;13],</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A92&amp;",'category_id'=&gt;"&amp;ProdCats!C92&amp;"],"</f>
+        <v>['product_id'=&gt;78,'category_id'=&gt;13],</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A93&amp;",'category_id'=&gt;"&amp;ProdCats!C93&amp;"],"</f>
+        <v>['product_id'=&gt;90,'category_id'=&gt;13],</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A94&amp;",'category_id'=&gt;"&amp;ProdCats!C94&amp;"],"</f>
+        <v>['product_id'=&gt;91,'category_id'=&gt;13],</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A95&amp;",'category_id'=&gt;"&amp;ProdCats!C95&amp;"],"</f>
+        <v>['product_id'=&gt;92,'category_id'=&gt;14],</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A96&amp;",'category_id'=&gt;"&amp;ProdCats!C96&amp;"],"</f>
+        <v>['product_id'=&gt;93,'category_id'=&gt;14],</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A97&amp;",'category_id'=&gt;"&amp;ProdCats!C97&amp;"],"</f>
+        <v>['product_id'=&gt;94,'category_id'=&gt;14],</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A98&amp;",'category_id'=&gt;"&amp;ProdCats!C98&amp;"],"</f>
+        <v>['product_id'=&gt;83,'category_id'=&gt;14],</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A99&amp;",'category_id'=&gt;"&amp;ProdCats!C99&amp;"],"</f>
+        <v>['product_id'=&gt;96,'category_id'=&gt;14],</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A100&amp;",'category_id'=&gt;"&amp;ProdCats!C100&amp;"],"</f>
+        <v>['product_id'=&gt;97,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A101&amp;",'category_id'=&gt;"&amp;ProdCats!C101&amp;"],"</f>
+        <v>['product_id'=&gt;98,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A102&amp;",'category_id'=&gt;"&amp;ProdCats!C102&amp;"],"</f>
+        <v>['product_id'=&gt;99,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A103&amp;",'category_id'=&gt;"&amp;ProdCats!C103&amp;"],"</f>
+        <v>['product_id'=&gt;100,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A104&amp;",'category_id'=&gt;"&amp;ProdCats!C104&amp;"],"</f>
+        <v>['product_id'=&gt;101,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A105&amp;",'category_id'=&gt;"&amp;ProdCats!C105&amp;"],"</f>
+        <v>['product_id'=&gt;84,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A106&amp;",'category_id'=&gt;"&amp;ProdCats!C106&amp;"],"</f>
+        <v>['product_id'=&gt;103,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A107&amp;",'category_id'=&gt;"&amp;ProdCats!C107&amp;"],"</f>
+        <v>['product_id'=&gt;104,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A108&amp;",'category_id'=&gt;"&amp;ProdCats!C108&amp;"],"</f>
+        <v>['product_id'=&gt;105,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A109&amp;",'category_id'=&gt;"&amp;ProdCats!C109&amp;"],"</f>
+        <v>['product_id'=&gt;106,'category_id'=&gt;15],</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A110&amp;",'category_id'=&gt;"&amp;ProdCats!C110&amp;"],"</f>
+        <v>['product_id'=&gt;92,'category_id'=&gt;16],</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A111&amp;",'category_id'=&gt;"&amp;ProdCats!C111&amp;"],"</f>
+        <v>['product_id'=&gt;96,'category_id'=&gt;16],</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A112&amp;",'category_id'=&gt;"&amp;ProdCats!C112&amp;"],"</f>
+        <v>['product_id'=&gt;72,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A113&amp;",'category_id'=&gt;"&amp;ProdCats!C113&amp;"],"</f>
+        <v>['product_id'=&gt;107,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A114&amp;",'category_id'=&gt;"&amp;ProdCats!C114&amp;"],"</f>
+        <v>['product_id'=&gt;108,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A115&amp;",'category_id'=&gt;"&amp;ProdCats!C115&amp;"],"</f>
+        <v>['product_id'=&gt;109,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A116&amp;",'category_id'=&gt;"&amp;ProdCats!C116&amp;"],"</f>
+        <v>['product_id'=&gt;110,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A117&amp;",'category_id'=&gt;"&amp;ProdCats!C117&amp;"],"</f>
+        <v>['product_id'=&gt;111,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A118&amp;",'category_id'=&gt;"&amp;ProdCats!C118&amp;"],"</f>
+        <v>['product_id'=&gt;112,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A119&amp;",'category_id'=&gt;"&amp;ProdCats!C119&amp;"],"</f>
+        <v>['product_id'=&gt;113,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A120&amp;",'category_id'=&gt;"&amp;ProdCats!C120&amp;"],"</f>
+        <v>['product_id'=&gt;114,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A121&amp;",'category_id'=&gt;"&amp;ProdCats!C121&amp;"],"</f>
+        <v>['product_id'=&gt;115,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A122&amp;",'category_id'=&gt;"&amp;ProdCats!C122&amp;"],"</f>
+        <v>['product_id'=&gt;116,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A123&amp;",'category_id'=&gt;"&amp;ProdCats!C123&amp;"],"</f>
+        <v>['product_id'=&gt;117,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A124&amp;",'category_id'=&gt;"&amp;ProdCats!C124&amp;"],"</f>
+        <v>['product_id'=&gt;118,'category_id'=&gt;17],</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A125&amp;",'category_id'=&gt;"&amp;ProdCats!C125&amp;"],"</f>
+        <v>['product_id'=&gt;76,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A126&amp;",'category_id'=&gt;"&amp;ProdCats!C126&amp;"],"</f>
+        <v>['product_id'=&gt;77,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A127&amp;",'category_id'=&gt;"&amp;ProdCats!C127&amp;"],"</f>
+        <v>['product_id'=&gt;78,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A128&amp;",'category_id'=&gt;"&amp;ProdCats!C128&amp;"],"</f>
+        <v>['product_id'=&gt;119,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A129&amp;",'category_id'=&gt;"&amp;ProdCats!C129&amp;"],"</f>
+        <v>['product_id'=&gt;120,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A130&amp;",'category_id'=&gt;"&amp;ProdCats!C130&amp;"],"</f>
+        <v>['product_id'=&gt;121,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A131&amp;",'category_id'=&gt;"&amp;ProdCats!C131&amp;"],"</f>
+        <v>['product_id'=&gt;122,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A132&amp;",'category_id'=&gt;"&amp;ProdCats!C132&amp;"],"</f>
+        <v>['product_id'=&gt;123,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A133&amp;",'category_id'=&gt;"&amp;ProdCats!C133&amp;"],"</f>
+        <v>['product_id'=&gt;124,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A134&amp;",'category_id'=&gt;"&amp;ProdCats!C134&amp;"],"</f>
+        <v>['product_id'=&gt;125,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A135&amp;",'category_id'=&gt;"&amp;ProdCats!C135&amp;"],"</f>
+        <v>['product_id'=&gt;126,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A136&amp;",'category_id'=&gt;"&amp;ProdCats!C136&amp;"],"</f>
+        <v>['product_id'=&gt;127,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A137&amp;",'category_id'=&gt;"&amp;ProdCats!C137&amp;"],"</f>
+        <v>['product_id'=&gt;128,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A138&amp;",'category_id'=&gt;"&amp;ProdCats!C138&amp;"],"</f>
+        <v>['product_id'=&gt;129,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A139&amp;",'category_id'=&gt;"&amp;ProdCats!C139&amp;"],"</f>
+        <v>['product_id'=&gt;130,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A140&amp;",'category_id'=&gt;"&amp;ProdCats!C140&amp;"],"</f>
+        <v>['product_id'=&gt;112,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A141&amp;",'category_id'=&gt;"&amp;ProdCats!C141&amp;"],"</f>
+        <v>['product_id'=&gt;131,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A142&amp;",'category_id'=&gt;"&amp;ProdCats!C142&amp;"],"</f>
+        <v>['product_id'=&gt;132,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A143&amp;",'category_id'=&gt;"&amp;ProdCats!C143&amp;"],"</f>
+        <v>['product_id'=&gt;113,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A144&amp;",'category_id'=&gt;"&amp;ProdCats!C144&amp;"],"</f>
+        <v>['product_id'=&gt;133,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A145&amp;",'category_id'=&gt;"&amp;ProdCats!C145&amp;"],"</f>
+        <v>['product_id'=&gt;134,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A146&amp;",'category_id'=&gt;"&amp;ProdCats!C146&amp;"],"</f>
+        <v>['product_id'=&gt;135,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A147&amp;",'category_id'=&gt;"&amp;ProdCats!C147&amp;"],"</f>
+        <v>['product_id'=&gt;114,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A148&amp;",'category_id'=&gt;"&amp;ProdCats!C148&amp;"],"</f>
+        <v>['product_id'=&gt;136,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A149&amp;",'category_id'=&gt;"&amp;ProdCats!C149&amp;"],"</f>
+        <v>['product_id'=&gt;137,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A150&amp;",'category_id'=&gt;"&amp;ProdCats!C150&amp;"],"</f>
+        <v>['product_id'=&gt;138,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A151&amp;",'category_id'=&gt;"&amp;ProdCats!C151&amp;"],"</f>
+        <v>['product_id'=&gt;139,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A152&amp;",'category_id'=&gt;"&amp;ProdCats!C152&amp;"],"</f>
+        <v>['product_id'=&gt;140,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A153&amp;",'category_id'=&gt;"&amp;ProdCats!C153&amp;"],"</f>
+        <v>['product_id'=&gt;141,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A154&amp;",'category_id'=&gt;"&amp;ProdCats!C154&amp;"],"</f>
+        <v>['product_id'=&gt;142,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A155&amp;",'category_id'=&gt;"&amp;ProdCats!C155&amp;"],"</f>
+        <v>['product_id'=&gt;143,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A156&amp;",'category_id'=&gt;"&amp;ProdCats!C156&amp;"],"</f>
+        <v>['product_id'=&gt;144,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A157&amp;",'category_id'=&gt;"&amp;ProdCats!C157&amp;"],"</f>
+        <v>['product_id'=&gt;145,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A158&amp;",'category_id'=&gt;"&amp;ProdCats!C158&amp;"],"</f>
+        <v>['product_id'=&gt;146,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A159&amp;",'category_id'=&gt;"&amp;ProdCats!C159&amp;"],"</f>
+        <v>['product_id'=&gt;147,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A160&amp;",'category_id'=&gt;"&amp;ProdCats!C160&amp;"],"</f>
+        <v>['product_id'=&gt;148,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A161&amp;",'category_id'=&gt;"&amp;ProdCats!C161&amp;"],"</f>
+        <v>['product_id'=&gt;149,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A162&amp;",'category_id'=&gt;"&amp;ProdCats!C162&amp;"],"</f>
+        <v>['product_id'=&gt;150,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A163&amp;",'category_id'=&gt;"&amp;ProdCats!C163&amp;"],"</f>
+        <v>['product_id'=&gt;151,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A164&amp;",'category_id'=&gt;"&amp;ProdCats!C164&amp;"],"</f>
+        <v>['product_id'=&gt;152,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A165&amp;",'category_id'=&gt;"&amp;ProdCats!C165&amp;"],"</f>
+        <v>['product_id'=&gt;153,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A166&amp;",'category_id'=&gt;"&amp;ProdCats!C166&amp;"],"</f>
+        <v>['product_id'=&gt;154,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A167&amp;",'category_id'=&gt;"&amp;ProdCats!C167&amp;"],"</f>
+        <v>['product_id'=&gt;155,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A168&amp;",'category_id'=&gt;"&amp;ProdCats!C168&amp;"],"</f>
+        <v>['product_id'=&gt;156,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A169&amp;",'category_id'=&gt;"&amp;ProdCats!C169&amp;"],"</f>
+        <v>['product_id'=&gt;157,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A170&amp;",'category_id'=&gt;"&amp;ProdCats!C170&amp;"],"</f>
+        <v>['product_id'=&gt;158,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A171&amp;",'category_id'=&gt;"&amp;ProdCats!C171&amp;"],"</f>
+        <v>['product_id'=&gt;159,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f>"['product_id'=&gt;"&amp;ProdCats!A172&amp;",'category_id'=&gt;"&amp;ProdCats!C172&amp;"],"</f>
+        <v>['product_id'=&gt;160,'category_id'=&gt;18],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Products.xlsx
+++ b/docs/Products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Prds" sheetId="2" r:id="rId1"/>
@@ -4195,7 +4195,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,7 +4292,7 @@
         <v>200</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -4571,7 +4571,7 @@
         <v>201</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
@@ -10949,7 +10949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
@@ -10964,7 +10964,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>"['id'=&gt;"&amp;Cats!A4&amp;",'name'=&gt;'"&amp;Cats!B4&amp;"','slug'=&gt;'"&amp;Cats!C4&amp;"','parent_id'=&gt;"&amp;Cats!E4&amp;",'type'=&gt;'"&amp;Cats!F4&amp;"','ord'=&gt;"&amp;Cats!G4&amp;",'lvl'=&gt;"&amp;Cats!H4&amp;",'description'=&gt;'"&amp;Cats!I4&amp;"'],"</f>
-        <v>['id'=&gt;2,'name'=&gt;'Speakers','slug'=&gt;'speakers','parent_id'=&gt;NULL,'type'=&gt;'group','ord'=&gt;200,'lvl'=&gt;1,'description'=&gt;'Powerful performance. Versatile designs. For all your music, movies, and tv — at home or on the go.'],</v>
+        <v>['id'=&gt;2,'name'=&gt;'Speakers','slug'=&gt;'speakers','parent_id'=&gt;NULL,'type'=&gt;'group','ord'=&gt;200,'lvl'=&gt;0,'description'=&gt;'Powerful performance. Versatile designs. For all your music, movies, and tv — at home or on the go.'],</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -11018,7 +11018,7 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>"['id'=&gt;"&amp;Cats!A13&amp;",'name'=&gt;'"&amp;Cats!B13&amp;"','slug'=&gt;'"&amp;Cats!C13&amp;"','parent_id'=&gt;"&amp;Cats!E13&amp;",'type'=&gt;'"&amp;Cats!F13&amp;"','ord'=&gt;"&amp;Cats!G13&amp;",'lvl'=&gt;"&amp;Cats!H13&amp;",'description'=&gt;'"&amp;Cats!I13&amp;"'],"</f>
-        <v>['id'=&gt;11,'name'=&gt;'Portable','slug'=&gt;'portable','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;201,'lvl'=&gt;0,'description'=&gt;'Engineered to travel, but sound great in your home. With durable designs and impressive battery life, you can bring them wherever music takes you.'],</v>
+        <v>['id'=&gt;11,'name'=&gt;'Portable','slug'=&gt;'portable','parent_id'=&gt;2,'type'=&gt;'product','ord'=&gt;201,'lvl'=&gt;1,'description'=&gt;'Engineered to travel, but sound great in your home. With durable designs and impressive battery life, you can bring them wherever music takes you.'],</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
